--- a/Data/Quality_LoVo_28_.xlsx
+++ b/Data/Quality_LoVo_28_.xlsx
@@ -436,7 +436,7 @@
         <v>0.9265637050614847</v>
       </c>
       <c r="D2">
-        <v>-0.3908020640883458</v>
+        <v>-2.796318210793416</v>
       </c>
       <c r="E2">
         <v>0.2543485630570326</v>
@@ -459,7 +459,7 @@
         <v>0.8915446666889161</v>
       </c>
       <c r="D3">
-        <v>-0.6953656841260636</v>
+        <v>-1.867317542338239</v>
       </c>
       <c r="E3">
         <v>0.3091002571865206</v>
@@ -482,7 +482,7 @@
         <v>0.8699522500223063</v>
       </c>
       <c r="D4">
-        <v>-0.3531782707093838</v>
+        <v>-0.6268264005064841</v>
       </c>
       <c r="E4">
         <v>0.3384740134281448</v>
@@ -505,7 +505,7 @@
         <v>0.8447323106670241</v>
       </c>
       <c r="D5">
-        <v>-0.2684403027229285</v>
+        <v>-1.084080771585587</v>
       </c>
       <c r="E5">
         <v>0.3698404890441073</v>
@@ -528,7 +528,7 @@
         <v>0.7604653252504929</v>
       </c>
       <c r="D6">
-        <v>0.1512829139890934</v>
+        <v>-0.08513116213420835</v>
       </c>
       <c r="E6">
         <v>0.4593652142435172</v>
@@ -551,7 +551,7 @@
         <v>0.7411203651235154</v>
       </c>
       <c r="D7">
-        <v>0.2531510670986467</v>
+        <v>-0.3600392082295754</v>
       </c>
       <c r="E7">
         <v>0.4775544028446669</v>
@@ -574,7 +574,7 @@
         <v>0.7042867403988744</v>
       </c>
       <c r="D8">
-        <v>0.3127911488648071</v>
+        <v>-0.06565250746882723</v>
       </c>
       <c r="E8">
         <v>0.5103984054864914</v>
@@ -597,7 +597,7 @@
         <v>0.6772451306597751</v>
       </c>
       <c r="D9">
-        <v>0.3628402515108682</v>
+        <v>0.2507831742892438</v>
       </c>
       <c r="E9">
         <v>0.5332247647145991</v>
@@ -620,7 +620,7 @@
         <v>0.6771878801667396</v>
       </c>
       <c r="D10">
-        <v>0.3686760241330118</v>
+        <v>0.2586066530081793</v>
       </c>
       <c r="E10">
         <v>0.5332720545155537</v>
@@ -643,7 +643,7 @@
         <v>0.6263029019480183</v>
       </c>
       <c r="D11">
-        <v>0.3514900268576818</v>
+        <v>0.2890629265552176</v>
       </c>
       <c r="E11">
         <v>0.5737646299425829</v>
@@ -666,7 +666,7 @@
         <v>0.6262922845026496</v>
       </c>
       <c r="D12">
-        <v>0.3556299248084215</v>
+        <v>0.2908033753477354</v>
       </c>
       <c r="E12">
         <v>0.5737727807569384</v>
@@ -689,7 +689,7 @@
         <v>0.6262922845026496</v>
       </c>
       <c r="D13">
-        <v>0.3556299248084215</v>
+        <v>0.2908033753477354</v>
       </c>
       <c r="E13">
         <v>0.5737727807569384</v>
@@ -712,7 +712,7 @@
         <v>0.5986730328334262</v>
       </c>
       <c r="D14">
-        <v>0.3910699635957308</v>
+        <v>0.4658344564668792</v>
       </c>
       <c r="E14">
         <v>0.5945975033133205</v>
@@ -735,7 +735,7 @@
         <v>0.5830538113359331</v>
       </c>
       <c r="D15">
-        <v>-0.03868232850478748</v>
+        <v>0.2470324144009757</v>
       </c>
       <c r="E15">
         <v>0.6060576169979988</v>
@@ -758,7 +758,7 @@
         <v>0.52599309331691</v>
       </c>
       <c r="D16">
-        <v>0.03872465355536481</v>
+        <v>0.3341331867976767</v>
       </c>
       <c r="E16">
         <v>0.6461989449426943</v>
@@ -781,7 +781,7 @@
         <v>0.5171594485936766</v>
       </c>
       <c r="D17">
-        <v>0.03770266748465678</v>
+        <v>0.3315656790626073</v>
       </c>
       <c r="E17">
         <v>0.6521924670799111</v>
@@ -804,7 +804,7 @@
         <v>0.5162015514838987</v>
       </c>
       <c r="D18">
-        <v>0.04115056827414687</v>
+        <v>0.337000351477726</v>
       </c>
       <c r="E18">
         <v>0.6528390819257617</v>
@@ -827,7 +827,7 @@
         <v>0.5162015514838987</v>
       </c>
       <c r="D19">
-        <v>0.04115056827414687</v>
+        <v>0.337000351477726</v>
       </c>
       <c r="E19">
         <v>0.6528390819257617</v>
@@ -850,7 +850,7 @@
         <v>0.4895709257782542</v>
       </c>
       <c r="D20">
-        <v>0.08878784721057786</v>
+        <v>0.3693776220706497</v>
       </c>
       <c r="E20">
         <v>0.6705661270563551</v>
@@ -873,7 +873,7 @@
         <v>0.4895709257782542</v>
       </c>
       <c r="D21">
-        <v>0.08878784721057786</v>
+        <v>0.3693776220706497</v>
       </c>
       <c r="E21">
         <v>0.6705661270563551</v>
@@ -896,7 +896,7 @@
         <v>0.4649620022089029</v>
       </c>
       <c r="D22">
-        <v>0.1567618336170397</v>
+        <v>0.3947839867522062</v>
       </c>
       <c r="E22">
         <v>0.6865405962018029</v>
@@ -919,7 +919,7 @@
         <v>0.4649620022089029</v>
       </c>
       <c r="D23">
-        <v>0.1567618336170397</v>
+        <v>0.3947839867522062</v>
       </c>
       <c r="E23">
         <v>0.6865405962018029</v>
@@ -978,7 +978,7 @@
         <v>0.6368202580775906</v>
       </c>
       <c r="D2">
-        <v>-1.579429051043019</v>
+        <v>0.0660996609452611</v>
       </c>
       <c r="E2">
         <v>0.5656329720669432</v>
@@ -1004,7 +1004,7 @@
         <v>0.7463761790135528</v>
       </c>
       <c r="D3">
-        <v>-0.2742289369583812</v>
+        <v>0.1011979461348443</v>
       </c>
       <c r="E3">
         <v>0.472681854008751</v>
@@ -1030,7 +1030,7 @@
         <v>0.8330229510451164</v>
       </c>
       <c r="D4">
-        <v>-1.313498444622981</v>
+        <v>-0.2512864798925158</v>
       </c>
       <c r="E4">
         <v>0.383532613969235</v>
@@ -1056,7 +1056,7 @@
         <v>0.8838980257794918</v>
       </c>
       <c r="D5">
-        <v>-0.5365309460340824</v>
+        <v>0.04194306836406703</v>
       </c>
       <c r="E5">
         <v>0.3198112317251927</v>
@@ -1082,7 +1082,7 @@
         <v>0.9163683982213963</v>
       </c>
       <c r="D6">
-        <v>-0.007411602611934853</v>
+        <v>-0.1055119631610486</v>
       </c>
       <c r="E6">
         <v>0.2714307940138488</v>
@@ -1108,7 +1108,7 @@
         <v>0.9517375404075917</v>
       </c>
       <c r="D7">
-        <v>0.07888789852900613</v>
+        <v>-0.1074810284313192</v>
       </c>
       <c r="E7">
         <v>0.2061952399161558</v>
@@ -1134,7 +1134,7 @@
         <v>0.9668202570093046</v>
       </c>
       <c r="D8">
-        <v>0.1571471449700741</v>
+        <v>-0.2253651050831582</v>
       </c>
       <c r="E8">
         <v>0.1709662628503107</v>
@@ -1160,7 +1160,7 @@
         <v>0.9807823132880275</v>
       </c>
       <c r="D9">
-        <v>0.161763356111657</v>
+        <v>-0.2480650313169979</v>
       </c>
       <c r="E9">
         <v>0.1301141306415279</v>
@@ -1186,7 +1186,7 @@
         <v>0.9884027619849873</v>
       </c>
       <c r="D10">
-        <v>-0.1610070164177528</v>
+        <v>0.1248834937523289</v>
       </c>
       <c r="E10">
         <v>0.101076732706243</v>
@@ -1212,7 +1212,7 @@
         <v>0.9924035065200243</v>
       </c>
       <c r="D11">
-        <v>-0.1746578804795584</v>
+        <v>-0.3499812851093147</v>
       </c>
       <c r="E11">
         <v>0.08180512158054487</v>
@@ -1238,7 +1238,7 @@
         <v>0.9953052735404558</v>
       </c>
       <c r="D12">
-        <v>0.1216537791589233</v>
+        <v>-0.3003296179409622</v>
       </c>
       <c r="E12">
         <v>0.06431008094379945</v>
@@ -1264,7 +1264,7 @@
         <v>0.9965537804298921</v>
       </c>
       <c r="D13">
-        <v>-0.1930033493466474</v>
+        <v>-0.3540462051387776</v>
       </c>
       <c r="E13">
         <v>0.05509921124502473</v>
@@ -1290,7 +1290,7 @@
         <v>0.9975612017022369</v>
       </c>
       <c r="D14">
-        <v>-0.2025417583474469</v>
+        <v>-0.3558946115576014</v>
       </c>
       <c r="E14">
         <v>0.04635129276017059</v>
@@ -1316,7 +1316,7 @@
         <v>0.9982754218364207</v>
       </c>
       <c r="D15">
-        <v>0.121914083568278</v>
+        <v>-0.2944490566351821</v>
       </c>
       <c r="E15">
         <v>0.038977623038435</v>
@@ -1342,7 +1342,7 @@
         <v>0.9990675715456133</v>
       </c>
       <c r="D16">
-        <v>0.1273317134833329</v>
+        <v>-0.2958043919719282</v>
       </c>
       <c r="E16">
         <v>0.02866036182018961</v>
@@ -1368,7 +1368,7 @@
         <v>0.9992407652086531</v>
       </c>
       <c r="D17">
-        <v>-0.1798601647164981</v>
+        <v>-0.3502637221410625</v>
       </c>
       <c r="E17">
         <v>0.02586199123989649</v>
@@ -1394,7 +1394,7 @@
         <v>0.9993218116109529</v>
       </c>
       <c r="D18">
-        <v>0.1277411459643925</v>
+        <v>-0.2921091773933668</v>
       </c>
       <c r="E18">
         <v>0.0244426947858203</v>
@@ -1420,7 +1420,7 @@
         <v>0.9993456673395613</v>
       </c>
       <c r="D19">
-        <v>0.127660795404822</v>
+        <v>-0.2924410667615964</v>
       </c>
       <c r="E19">
         <v>0.02400895230449349</v>
@@ -1446,7 +1446,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D20">
-        <v>-0.1883637125858362</v>
+        <v>-0.3525423742809848</v>
       </c>
       <c r="E20">
         <v>0.02397438301374079</v>
@@ -1472,7 +1472,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D21">
-        <v>-0.1883637125858362</v>
+        <v>-0.3525423742809848</v>
       </c>
       <c r="E21">
         <v>0.02397438301374079</v>
@@ -1498,7 +1498,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D22">
-        <v>-0.1883637125858362</v>
+        <v>-0.3525423742809848</v>
       </c>
       <c r="E22">
         <v>0.02397438301374079</v>
@@ -1524,7 +1524,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D23">
-        <v>-0.1883637125858362</v>
+        <v>-0.3525423742809848</v>
       </c>
       <c r="E23">
         <v>0.02397438301374079</v>
@@ -1550,7 +1550,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D24">
-        <v>-0.1883637125858362</v>
+        <v>-0.3525423742809848</v>
       </c>
       <c r="E24">
         <v>0.02397438301374079</v>
@@ -1576,7 +1576,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D25">
-        <v>-0.1883637125858362</v>
+        <v>-0.3525423742809848</v>
       </c>
       <c r="E25">
         <v>0.02397438301374079</v>
@@ -1602,7 +1602,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D26">
-        <v>-0.1883637125858362</v>
+        <v>-0.3525423742809848</v>
       </c>
       <c r="E26">
         <v>0.02397438301374079</v>
@@ -1628,7 +1628,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D27">
-        <v>-0.1883637125858362</v>
+        <v>-0.3525423742809848</v>
       </c>
       <c r="E27">
         <v>0.02397438301374079</v>
@@ -1654,7 +1654,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D28">
-        <v>-0.1883637125858362</v>
+        <v>-0.3525423742809848</v>
       </c>
       <c r="E28">
         <v>0.02397438301374079</v>
@@ -1680,7 +1680,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D29">
-        <v>-0.1883637125858362</v>
+        <v>-0.3525423742809848</v>
       </c>
       <c r="E29">
         <v>0.02397438301374079</v>
@@ -1706,7 +1706,7 @@
         <v>0.6368202580775908</v>
       </c>
       <c r="D30">
-        <v>-1.579429051043018</v>
+        <v>0.06609966094525865</v>
       </c>
       <c r="E30">
         <v>0.5656329720669431</v>
@@ -1732,7 +1732,7 @@
         <v>0.7283956000378442</v>
       </c>
       <c r="D31">
-        <v>-0.1808485250364196</v>
+        <v>0.07832401036571879</v>
       </c>
       <c r="E31">
         <v>0.4891502843452218</v>
@@ -1758,7 +1758,7 @@
         <v>0.8360679265888284</v>
       </c>
       <c r="D32">
-        <v>-1.269862488428795</v>
+        <v>-0.2365375976396495</v>
       </c>
       <c r="E32">
         <v>0.3800194942672068</v>
@@ -1784,7 +1784,7 @@
         <v>0.8901663901034551</v>
       </c>
       <c r="D33">
-        <v>-0.7809326149011078</v>
+        <v>0.05383666717268076</v>
       </c>
       <c r="E33">
         <v>0.3110581169685563</v>
@@ -1810,7 +1810,7 @@
         <v>0.9322453719546376</v>
       </c>
       <c r="D34">
-        <v>0.239552010197843</v>
+        <v>0.2067238646377706</v>
       </c>
       <c r="E34">
         <v>0.2443112087703864</v>
@@ -1836,7 +1836,7 @@
         <v>0.9590043858510959</v>
       </c>
       <c r="D35">
-        <v>-0.3534012182315458</v>
+        <v>0.08544046578815756</v>
       </c>
       <c r="E35">
         <v>0.1900389438627162</v>
@@ -1862,7 +1862,7 @@
         <v>0.9711101599986883</v>
       </c>
       <c r="D36">
-        <v>0.0617749118561437</v>
+        <v>-0.5195323050676159</v>
       </c>
       <c r="E36">
         <v>0.1595315107834845</v>
@@ -1888,7 +1888,7 @@
         <v>0.9844119538504185</v>
       </c>
       <c r="D37">
-        <v>0.1707627405689129</v>
+        <v>0.1876658415213126</v>
       </c>
       <c r="E37">
         <v>0.1171843866292886</v>
@@ -1914,7 +1914,7 @@
         <v>0.9901843792885237</v>
       </c>
       <c r="D38">
-        <v>-0.008509013210632022</v>
+        <v>-0.4284838316929038</v>
       </c>
       <c r="E38">
         <v>0.09298926047970468</v>
@@ -1940,7 +1940,7 @@
         <v>0.9941183271506417</v>
       </c>
       <c r="D39">
-        <v>0.2257402607750696</v>
+        <v>0.2789539140940084</v>
       </c>
       <c r="E39">
         <v>0.07198207172378607</v>
@@ -1966,7 +1966,7 @@
         <v>0.9962334938564141</v>
       </c>
       <c r="D40">
-        <v>0.1024548675184119</v>
+        <v>-0.4796437155858557</v>
       </c>
       <c r="E40">
         <v>0.05760275428757387</v>
@@ -1992,7 +1992,7 @@
         <v>0.997835134069582</v>
       </c>
       <c r="D41">
-        <v>0.2237189320330496</v>
+        <v>0.2774062320611527</v>
       </c>
       <c r="E41">
         <v>0.04367062551927076</v>
@@ -2018,7 +2018,7 @@
         <v>0.9983836622768409</v>
       </c>
       <c r="D42">
-        <v>0.06176821001037369</v>
+        <v>0.2673216539156303</v>
       </c>
       <c r="E42">
         <v>0.03773461855015953</v>
@@ -2044,7 +2044,7 @@
         <v>0.9988585515010995</v>
       </c>
       <c r="D43">
-        <v>0.2225109150615096</v>
+        <v>0.2477354987097371</v>
       </c>
       <c r="E43">
         <v>0.03171042555959225</v>
@@ -2070,7 +2070,7 @@
         <v>0.9991035511061758</v>
       </c>
       <c r="D44">
-        <v>-0.1855902205122923</v>
+        <v>0.2398186795773307</v>
       </c>
       <c r="E44">
         <v>0.02810196428865268</v>
@@ -2096,7 +2096,7 @@
         <v>0.9992916705159609</v>
       </c>
       <c r="D45">
-        <v>0.2349956167253173</v>
+        <v>0.2657212596088514</v>
       </c>
       <c r="E45">
         <v>0.02497995027371742</v>
@@ -2122,7 +2122,7 @@
         <v>0.9993388071696819</v>
       </c>
       <c r="D46">
-        <v>0.24252881011559</v>
+        <v>0.2827515969091098</v>
       </c>
       <c r="E46">
         <v>0.02413448175409876</v>
@@ -2148,7 +2148,7 @@
         <v>0.9993470052850544</v>
       </c>
       <c r="D47">
-        <v>0.1224653353845431</v>
+        <v>-0.4546625594969289</v>
       </c>
       <c r="E47">
         <v>0.0239843936136518</v>
@@ -2174,7 +2174,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D48">
-        <v>-0.2164958674098896</v>
+        <v>0.2277932761405845</v>
       </c>
       <c r="E48">
         <v>0.02397438301374079</v>
@@ -2200,7 +2200,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D49">
-        <v>0.2323721627242727</v>
+        <v>0.2714537046008174</v>
       </c>
       <c r="E49">
         <v>0.02397438301374079</v>
@@ -2226,7 +2226,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D50">
-        <v>0.2323721627242727</v>
+        <v>0.2714537046008174</v>
       </c>
       <c r="E50">
         <v>0.02397438301374079</v>
@@ -2252,7 +2252,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D51">
-        <v>0.2323721627242727</v>
+        <v>0.2714537046008174</v>
       </c>
       <c r="E51">
         <v>0.02397438301374079</v>
@@ -2278,7 +2278,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D52">
-        <v>0.2323721627242727</v>
+        <v>0.2714537046008174</v>
       </c>
       <c r="E52">
         <v>0.02397438301374079</v>
@@ -2304,7 +2304,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D53">
-        <v>0.2323721627242727</v>
+        <v>0.2714537046008174</v>
       </c>
       <c r="E53">
         <v>0.02397438301374079</v>
@@ -2330,7 +2330,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D54">
-        <v>0.2323721627242727</v>
+        <v>0.2714537046008174</v>
       </c>
       <c r="E54">
         <v>0.02397438301374079</v>
@@ -2356,7 +2356,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D55">
-        <v>0.2323721627242727</v>
+        <v>0.2714537046008174</v>
       </c>
       <c r="E55">
         <v>0.02397438301374079</v>
@@ -2382,7 +2382,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D56">
-        <v>0.2323721627242727</v>
+        <v>0.2714537046008174</v>
       </c>
       <c r="E56">
         <v>0.02397438301374079</v>
@@ -2408,7 +2408,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D57">
-        <v>0.2323721627242727</v>
+        <v>0.2714537046008174</v>
       </c>
       <c r="E57">
         <v>0.02397438301374079</v>
@@ -2434,7 +2434,7 @@
         <v>0.6368202580775906</v>
       </c>
       <c r="D58">
-        <v>-1.579429051043023</v>
+        <v>0.06609966094526576</v>
       </c>
       <c r="E58">
         <v>0.5656329720669433</v>
@@ -2460,7 +2460,7 @@
         <v>0.7283956000378441</v>
       </c>
       <c r="D59">
-        <v>-1.089220360142808</v>
+        <v>-0.06712486136796092</v>
       </c>
       <c r="E59">
         <v>0.4891502843452218</v>
@@ -2486,7 +2486,7 @@
         <v>0.8360679265888284</v>
       </c>
       <c r="D60">
-        <v>-1.269862488428794</v>
+        <v>-0.236537597639652</v>
       </c>
       <c r="E60">
         <v>0.3800194942672068</v>
@@ -2512,7 +2512,7 @@
         <v>0.8901663901034551</v>
       </c>
       <c r="D61">
-        <v>-0.197385242174545</v>
+        <v>-0.688281517783822</v>
       </c>
       <c r="E61">
         <v>0.3110581169685563</v>
@@ -2538,7 +2538,7 @@
         <v>0.9322453719546375</v>
       </c>
       <c r="D62">
-        <v>0.2934593035392711</v>
+        <v>0.2053651990423992</v>
       </c>
       <c r="E62">
         <v>0.2443112087703864</v>
@@ -2564,7 +2564,7 @@
         <v>0.9590043858510959</v>
       </c>
       <c r="D63">
-        <v>0.2001151883047433</v>
+        <v>0.1375391002080388</v>
       </c>
       <c r="E63">
         <v>0.1900389438627162</v>
@@ -2590,7 +2590,7 @@
         <v>0.9710958734249695</v>
       </c>
       <c r="D64">
-        <v>-0.08547824173244223</v>
+        <v>-0.5105234218533403</v>
       </c>
       <c r="E64">
         <v>0.1595709515866703</v>
@@ -2616,7 +2616,7 @@
         <v>0.9791563489225064</v>
       </c>
       <c r="D65">
-        <v>0.2733613937875489</v>
+        <v>0.2624687124449043</v>
       </c>
       <c r="E65">
         <v>0.1355067118379496</v>
@@ -2642,7 +2642,7 @@
         <v>0.9870192735757515</v>
       </c>
       <c r="D66">
-        <v>0.04792164820183797</v>
+        <v>-0.4006367888037614</v>
       </c>
       <c r="E66">
         <v>0.1069358702849631</v>
@@ -2668,7 +2668,7 @@
         <v>0.9918941707454728</v>
       </c>
       <c r="D67">
-        <v>0.2806628049958431</v>
+        <v>0.2899232486856429</v>
       </c>
       <c r="E67">
         <v>0.08450309883577337</v>
@@ -2694,7 +2694,7 @@
         <v>0.9957698550601475</v>
       </c>
       <c r="D68">
-        <v>0.07528396213898725</v>
+        <v>-0.3917828245458648</v>
       </c>
       <c r="E68">
         <v>0.06104520180526266</v>
@@ -2720,7 +2720,7 @@
         <v>0.9978418691080754</v>
       </c>
       <c r="D69">
-        <v>0.1427842994462957</v>
+        <v>-0.3981820055281937</v>
       </c>
       <c r="E69">
         <v>0.04360264152647377</v>
@@ -2746,7 +2746,7 @@
         <v>0.9990226335888226</v>
       </c>
       <c r="D70">
-        <v>0.2619922177074879</v>
+        <v>0.2404908862830416</v>
       </c>
       <c r="E70">
         <v>0.02934287169119815</v>
@@ -2772,7 +2772,7 @@
         <v>0.9993034736416657</v>
       </c>
       <c r="D71">
-        <v>0.1332631506182121</v>
+        <v>-0.3649497740551537</v>
       </c>
       <c r="E71">
         <v>0.02477095142418466</v>
@@ -2798,7 +2798,7 @@
         <v>0.9993448346522591</v>
       </c>
       <c r="D72">
-        <v>-0.06878723243445806</v>
+        <v>-0.5523084356653869</v>
       </c>
       <c r="E72">
         <v>0.02402422404214382</v>
@@ -2824,7 +2824,7 @@
         <v>0.9993473542783537</v>
       </c>
       <c r="D73">
-        <v>-0.06817217541161558</v>
+        <v>-0.4559361071271641</v>
       </c>
       <c r="E73">
         <v>0.02397798352245212</v>
@@ -2850,7 +2850,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D74">
-        <v>0.2659930746635252</v>
+        <v>0.2446856214599135</v>
       </c>
       <c r="E74">
         <v>0.02397438301374079</v>
@@ -2876,7 +2876,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D75">
-        <v>0.2659930746635252</v>
+        <v>0.2446856214599135</v>
       </c>
       <c r="E75">
         <v>0.02397438301374079</v>
@@ -2902,7 +2902,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D76">
-        <v>0.2659930746635252</v>
+        <v>0.2446856214599135</v>
       </c>
       <c r="E76">
         <v>0.02397438301374079</v>
@@ -2928,7 +2928,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D77">
-        <v>0.2659930746635252</v>
+        <v>0.2446856214599135</v>
       </c>
       <c r="E77">
         <v>0.02397438301374079</v>
@@ -2954,7 +2954,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D78">
-        <v>0.2659930746635252</v>
+        <v>0.2446856214599135</v>
       </c>
       <c r="E78">
         <v>0.02397438301374079</v>
@@ -2980,7 +2980,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D79">
-        <v>0.2659930746635252</v>
+        <v>0.2446856214599135</v>
       </c>
       <c r="E79">
         <v>0.02397438301374079</v>
@@ -3006,7 +3006,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D80">
-        <v>0.2659930746635252</v>
+        <v>0.2446856214599135</v>
       </c>
       <c r="E80">
         <v>0.02397438301374079</v>
@@ -3032,7 +3032,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D81">
-        <v>0.2659930746635252</v>
+        <v>0.2446856214599135</v>
       </c>
       <c r="E81">
         <v>0.02397438301374079</v>
@@ -3058,7 +3058,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D82">
-        <v>0.2659930746635252</v>
+        <v>0.2446856214599135</v>
       </c>
       <c r="E82">
         <v>0.02397438301374079</v>
@@ -3084,7 +3084,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D83">
-        <v>0.2659930746635252</v>
+        <v>0.2446856214599135</v>
       </c>
       <c r="E83">
         <v>0.02397438301374079</v>
@@ -3110,7 +3110,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D84">
-        <v>0.2659930746635252</v>
+        <v>0.2446856214599135</v>
       </c>
       <c r="E84">
         <v>0.02397438301374079</v>
@@ -3136,7 +3136,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D85">
-        <v>0.2659930746635252</v>
+        <v>0.2446856214599135</v>
       </c>
       <c r="E85">
         <v>0.02397438301374079</v>
@@ -3162,7 +3162,7 @@
         <v>0.6368202580775906</v>
       </c>
       <c r="D86">
-        <v>-1.579429051043025</v>
+        <v>0.06609966094526798</v>
       </c>
       <c r="E86">
         <v>0.5656329720669433</v>
@@ -3188,7 +3188,7 @@
         <v>0.7283956000378442</v>
       </c>
       <c r="D87">
-        <v>-1.089220360142809</v>
+        <v>-0.06712486136796314</v>
       </c>
       <c r="E87">
         <v>0.4891502843452218</v>
@@ -3214,7 +3214,7 @@
         <v>0.833323515210849</v>
       </c>
       <c r="D88">
-        <v>-0.4644058305818628</v>
+        <v>-0.9342686590021234</v>
       </c>
       <c r="E88">
         <v>0.3831872728495141</v>
@@ -3240,7 +3240,7 @@
         <v>0.8901549694493378</v>
       </c>
       <c r="D89">
-        <v>0.029214934916307</v>
+        <v>-0.5338773528119711</v>
       </c>
       <c r="E89">
         <v>0.3110742886796759</v>
@@ -3266,7 +3266,7 @@
         <v>0.9322458450856885</v>
       </c>
       <c r="D90">
-        <v>0.161763370948818</v>
+        <v>0.207856961790854</v>
       </c>
       <c r="E90">
         <v>0.2443103557554405</v>
@@ -3292,7 +3292,7 @@
         <v>0.9590043858510959</v>
       </c>
       <c r="D91">
-        <v>-0.04824052883049923</v>
+        <v>-0.1512642257396508</v>
       </c>
       <c r="E91">
         <v>0.1900389438627162</v>
@@ -3318,7 +3318,7 @@
         <v>0.9710958734249696</v>
       </c>
       <c r="D92">
-        <v>-0.115477456966578</v>
+        <v>-0.5453306603098991</v>
       </c>
       <c r="E92">
         <v>0.1595709515866703</v>
@@ -3344,7 +3344,7 @@
         <v>0.9791563489225064</v>
       </c>
       <c r="D93">
-        <v>0.1171141593372872</v>
+        <v>-0.4851866484758225</v>
       </c>
       <c r="E93">
         <v>0.1355067118379496</v>
@@ -3370,7 +3370,7 @@
         <v>0.9870192735757515</v>
       </c>
       <c r="D94">
-        <v>0.218010708121566</v>
+        <v>0.1771045171846742</v>
       </c>
       <c r="E94">
         <v>0.1069358702849631</v>
@@ -3396,7 +3396,7 @@
         <v>0.9918941707454728</v>
       </c>
       <c r="D95">
-        <v>0.2105532097706576</v>
+        <v>0.1979274923974568</v>
       </c>
       <c r="E95">
         <v>0.08450309883577337</v>
@@ -3422,7 +3422,7 @@
         <v>0.9957698550601475</v>
       </c>
       <c r="D96">
-        <v>0.1068295189003763</v>
+        <v>-0.4481216109626374</v>
       </c>
       <c r="E96">
         <v>0.06104520180526266</v>
@@ -3448,7 +3448,7 @@
         <v>0.9978418691080754</v>
       </c>
       <c r="D97">
-        <v>0.08813394865657864</v>
+        <v>-0.5512186073912553</v>
       </c>
       <c r="E97">
         <v>0.04360264152647377</v>
@@ -3474,7 +3474,7 @@
         <v>0.998848599173622</v>
       </c>
       <c r="D98">
-        <v>0.08704851074586706</v>
+        <v>-0.5559133929481155</v>
       </c>
       <c r="E98">
         <v>0.03184836765999773</v>
@@ -3500,7 +3500,7 @@
         <v>0.9993018592027851</v>
       </c>
       <c r="D99">
-        <v>0.2037236893877393</v>
+        <v>0.1922467028403998</v>
       </c>
       <c r="E99">
         <v>0.02479964239912245</v>
@@ -3526,7 +3526,7 @@
         <v>0.9993448346522591</v>
       </c>
       <c r="D100">
-        <v>0.09945829072750989</v>
+        <v>-0.4489479835291299</v>
       </c>
       <c r="E100">
         <v>0.02402422404214382</v>
@@ -3552,7 +3552,7 @@
         <v>0.9993473542783537</v>
       </c>
       <c r="D101">
-        <v>0.2125732969147494</v>
+        <v>0.2030101891599285</v>
       </c>
       <c r="E101">
         <v>0.02397798352245211</v>
@@ -3578,7 +3578,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D102">
-        <v>-0.1949754017946952</v>
+        <v>0.1540206137044229</v>
       </c>
       <c r="E102">
         <v>0.02397438301374079</v>
@@ -3604,7 +3604,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D103">
-        <v>0.08849797858016928</v>
+        <v>-0.5427767118576852</v>
       </c>
       <c r="E103">
         <v>0.02397438301374079</v>
@@ -3630,7 +3630,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D104">
-        <v>0.08849797858016928</v>
+        <v>-0.5427767118576852</v>
       </c>
       <c r="E104">
         <v>0.02397438301374079</v>
@@ -3656,7 +3656,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D105">
-        <v>0.08849797858016928</v>
+        <v>-0.5427767118576852</v>
       </c>
       <c r="E105">
         <v>0.02397438301374079</v>
@@ -3682,7 +3682,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D106">
-        <v>0.08849797858016928</v>
+        <v>-0.5427767118576852</v>
       </c>
       <c r="E106">
         <v>0.02397438301374079</v>
@@ -3708,7 +3708,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D107">
-        <v>0.08849797858016928</v>
+        <v>-0.5427767118576852</v>
       </c>
       <c r="E107">
         <v>0.02397438301374079</v>
@@ -3734,7 +3734,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D108">
-        <v>0.08849797858016928</v>
+        <v>-0.5427767118576852</v>
       </c>
       <c r="E108">
         <v>0.02397438301374079</v>
@@ -3760,7 +3760,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D109">
-        <v>0.08849797858016928</v>
+        <v>-0.5427767118576852</v>
       </c>
       <c r="E109">
         <v>0.02397438301374079</v>
@@ -3786,7 +3786,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D110">
-        <v>0.08849797858016928</v>
+        <v>-0.5427767118576852</v>
       </c>
       <c r="E110">
         <v>0.02397438301374079</v>
@@ -3812,7 +3812,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D111">
-        <v>0.08849797858016928</v>
+        <v>-0.5427767118576852</v>
       </c>
       <c r="E111">
         <v>0.02397438301374079</v>
@@ -3838,7 +3838,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D112">
-        <v>0.08849797858016928</v>
+        <v>-0.5427767118576852</v>
       </c>
       <c r="E112">
         <v>0.02397438301374079</v>
@@ -3864,7 +3864,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D113">
-        <v>0.08849797858016928</v>
+        <v>-0.5427767118576852</v>
       </c>
       <c r="E113">
         <v>0.02397438301374079</v>
@@ -3890,7 +3890,7 @@
         <v>0.6368202580775906</v>
       </c>
       <c r="D114">
-        <v>-1.579429051043023</v>
+        <v>0.06609966094526321</v>
       </c>
       <c r="E114">
         <v>0.5656329720669432</v>
@@ -3916,7 +3916,7 @@
         <v>0.7283956000378442</v>
       </c>
       <c r="D115">
-        <v>-0.1808485250364196</v>
+        <v>0.0783240103657139</v>
       </c>
       <c r="E115">
         <v>0.4891502843452218</v>
@@ -3942,7 +3942,7 @@
         <v>0.8212233698032074</v>
       </c>
       <c r="D116">
-        <v>0.06794251877794244</v>
+        <v>0.09335757512958887</v>
       </c>
       <c r="E116">
         <v>0.3968526486320404</v>
@@ -3968,7 +3968,7 @@
         <v>0.8869975687836688</v>
       </c>
       <c r="D117">
-        <v>0.1472614116917506</v>
+        <v>-0.4807324100578121</v>
       </c>
       <c r="E117">
         <v>0.3155133961643037</v>
@@ -3994,7 +3994,7 @@
         <v>0.9215042257024726</v>
       </c>
       <c r="D118">
-        <v>0.1561620748860277</v>
+        <v>-0.3753558752396879</v>
       </c>
       <c r="E118">
         <v>0.2629644549391145</v>
@@ -4020,7 +4020,7 @@
         <v>0.9538436546893496</v>
       </c>
       <c r="D119">
-        <v>0.1192043473896136</v>
+        <v>-0.3731463402922184</v>
       </c>
       <c r="E119">
         <v>0.2016460024044809</v>
@@ -4046,7 +4046,7 @@
         <v>0.9824277083158611</v>
       </c>
       <c r="D120">
-        <v>0.08404515649723965</v>
+        <v>-0.6353155499303274</v>
       </c>
       <c r="E120">
         <v>0.1244194025291333</v>
@@ -4072,7 +4072,7 @@
         <v>0.9939963753084531</v>
       </c>
       <c r="D121">
-        <v>0.1320800263319197</v>
+        <v>-0.09907759478325517</v>
       </c>
       <c r="E121">
         <v>0.07272448881874236</v>
@@ -4098,7 +4098,7 @@
         <v>0.9974480198460579</v>
       </c>
       <c r="D122">
-        <v>0.1166986403069074</v>
+        <v>-0.8028118456492106</v>
       </c>
       <c r="E122">
         <v>0.04741465076183621</v>
@@ -4124,7 +4124,7 @@
         <v>0.9989886723148332</v>
       </c>
       <c r="D123">
-        <v>0.03835313839000665</v>
+        <v>-0.6794634273852889</v>
       </c>
       <c r="E123">
         <v>0.02984831764770433</v>
@@ -4150,7 +4150,7 @@
         <v>0.9993242033180625</v>
       </c>
       <c r="D124">
-        <v>0.04836094862418883</v>
+        <v>-0.6335571304694454</v>
       </c>
       <c r="E124">
         <v>0.02439955677273294</v>
@@ -4176,7 +4176,7 @@
         <v>0.9993473542783537</v>
       </c>
       <c r="D125">
-        <v>0.04331175334548498</v>
+        <v>-1.239036960215515</v>
       </c>
       <c r="E125">
         <v>0.02397798352245211</v>
@@ -4202,7 +4202,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D126">
-        <v>0.09043465515748261</v>
+        <v>-1.52298441588992</v>
       </c>
       <c r="E126">
         <v>0.02397438301374079</v>
@@ -4228,7 +4228,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D127">
-        <v>0.07767081502266593</v>
+        <v>-0.7821516052073334</v>
       </c>
       <c r="E127">
         <v>0.02397438301374079</v>
@@ -4254,7 +4254,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D128">
-        <v>0.07767081502266593</v>
+        <v>-0.7821516052073334</v>
       </c>
       <c r="E128">
         <v>0.02397438301374079</v>
@@ -4280,7 +4280,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D129">
-        <v>0.07767081502266593</v>
+        <v>-0.7821516052073334</v>
       </c>
       <c r="E129">
         <v>0.02397438301374079</v>
@@ -4306,7 +4306,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D130">
-        <v>0.07767081502266593</v>
+        <v>-0.7821516052073334</v>
       </c>
       <c r="E130">
         <v>0.02397438301374079</v>
@@ -4332,7 +4332,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D131">
-        <v>0.07767081502266593</v>
+        <v>-0.7821516052073334</v>
       </c>
       <c r="E131">
         <v>0.02397438301374079</v>
@@ -4358,7 +4358,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D132">
-        <v>0.07767081502266593</v>
+        <v>-0.7821516052073334</v>
       </c>
       <c r="E132">
         <v>0.02397438301374079</v>
@@ -4384,7 +4384,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D133">
-        <v>0.07767081502266593</v>
+        <v>-0.7821516052073334</v>
       </c>
       <c r="E133">
         <v>0.02397438301374079</v>
@@ -4410,7 +4410,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D134">
-        <v>0.07767081502266593</v>
+        <v>-0.7821516052073334</v>
       </c>
       <c r="E134">
         <v>0.02397438301374079</v>
@@ -4436,7 +4436,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D135">
-        <v>0.07767081502266593</v>
+        <v>-0.7821516052073334</v>
       </c>
       <c r="E135">
         <v>0.02397438301374079</v>
@@ -4462,7 +4462,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D136">
-        <v>0.07767081502266593</v>
+        <v>-0.7821516052073334</v>
       </c>
       <c r="E136">
         <v>0.02397438301374079</v>
@@ -4488,7 +4488,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D137">
-        <v>0.07767081502266593</v>
+        <v>-0.7821516052073334</v>
       </c>
       <c r="E137">
         <v>0.02397438301374079</v>
@@ -4514,7 +4514,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D138">
-        <v>0.07767081502266593</v>
+        <v>-0.7821516052073334</v>
       </c>
       <c r="E138">
         <v>0.02397438301374079</v>
@@ -4540,7 +4540,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D139">
-        <v>0.07767081502266593</v>
+        <v>-0.7821516052073334</v>
       </c>
       <c r="E139">
         <v>0.02397438301374079</v>
@@ -4566,7 +4566,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D140">
-        <v>0.07767081502266593</v>
+        <v>-0.7821516052073334</v>
       </c>
       <c r="E140">
         <v>0.02397438301374079</v>
@@ -4592,7 +4592,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D141">
-        <v>0.07767081502266593</v>
+        <v>-0.7821516052073334</v>
       </c>
       <c r="E141">
         <v>0.02397438301374079</v>
@@ -4618,7 +4618,7 @@
         <v>0.6368202580775906</v>
       </c>
       <c r="D142">
-        <v>-1.579429051043025</v>
+        <v>0.06609966094526798</v>
       </c>
       <c r="E142">
         <v>0.5656329720669433</v>
@@ -4644,7 +4644,7 @@
         <v>0.7283956000378441</v>
       </c>
       <c r="D143">
-        <v>-0.1808485250364189</v>
+        <v>0.07832401036572367</v>
       </c>
       <c r="E143">
         <v>0.4891502843452218</v>
@@ -4670,7 +4670,7 @@
         <v>0.8212233698032074</v>
       </c>
       <c r="D144">
-        <v>0.06794251877794244</v>
+        <v>0.09335757512958887</v>
       </c>
       <c r="E144">
         <v>0.3968526486320404</v>
@@ -4696,7 +4696,7 @@
         <v>0.8869975687836688</v>
       </c>
       <c r="D145">
-        <v>0.1066376399847319</v>
+        <v>-0.3851717335365645</v>
       </c>
       <c r="E145">
         <v>0.3155133961643037</v>
@@ -4722,7 +4722,7 @@
         <v>0.9215042257024726</v>
       </c>
       <c r="D146">
-        <v>0.1561620748860272</v>
+        <v>-0.3753558752396871</v>
       </c>
       <c r="E146">
         <v>0.2629644549391145</v>
@@ -4748,7 +4748,7 @@
         <v>0.9538436546893496</v>
       </c>
       <c r="D147">
-        <v>0.1432470036603642</v>
+        <v>-1.046910453844915</v>
       </c>
       <c r="E147">
         <v>0.2016460024044809</v>
@@ -4774,7 +4774,7 @@
         <v>0.9824277083158611</v>
       </c>
       <c r="D148">
-        <v>0.02567093162727108</v>
+        <v>-0.6501432869997359</v>
       </c>
       <c r="E148">
         <v>0.1244194025291333</v>
@@ -4800,7 +4800,7 @@
         <v>0.9939963753084531</v>
       </c>
       <c r="D149">
-        <v>0.1984874655043042</v>
+        <v>-0.6099086271084768</v>
       </c>
       <c r="E149">
         <v>0.07272448881874236</v>
@@ -4826,7 +4826,7 @@
         <v>0.9974480198460579</v>
       </c>
       <c r="D150">
-        <v>0.08612266205131869</v>
+        <v>-0.6620239825837573</v>
       </c>
       <c r="E150">
         <v>0.04741465076183621</v>
@@ -4852,7 +4852,7 @@
         <v>0.9987595738454964</v>
       </c>
       <c r="D151">
-        <v>0.1341362711639804</v>
+        <v>-0.6944614609267512</v>
       </c>
       <c r="E151">
         <v>0.03305669015689662</v>
@@ -4878,7 +4878,7 @@
         <v>0.9993119125664248</v>
       </c>
       <c r="D152">
-        <v>0.09336216237934902</v>
+        <v>-0.05682226035093607</v>
       </c>
       <c r="E152">
         <v>0.02462043506086683</v>
@@ -4904,7 +4904,7 @@
         <v>0.9993457398394732</v>
       </c>
       <c r="D153">
-        <v>0.1186768161358395</v>
+        <v>-1.529435419701012</v>
       </c>
       <c r="E153">
         <v>0.02400762217438498</v>
@@ -4930,7 +4930,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D154">
-        <v>0.1059394407316254</v>
+        <v>-0.7443406535783426</v>
       </c>
       <c r="E154">
         <v>0.02397438301374079</v>
@@ -4956,7 +4956,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D155">
-        <v>0.1059394407316254</v>
+        <v>-0.7443406535783426</v>
       </c>
       <c r="E155">
         <v>0.02397438301374079</v>
@@ -4982,7 +4982,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D156">
-        <v>0.1059394407316254</v>
+        <v>-0.7443406535783426</v>
       </c>
       <c r="E156">
         <v>0.02397438301374079</v>
@@ -5008,7 +5008,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D157">
-        <v>0.1059394407316254</v>
+        <v>-0.7443406535783426</v>
       </c>
       <c r="E157">
         <v>0.02397438301374079</v>
@@ -5034,7 +5034,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D158">
-        <v>0.1059394407316254</v>
+        <v>-0.7443406535783426</v>
       </c>
       <c r="E158">
         <v>0.02397438301374079</v>
@@ -5060,7 +5060,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D159">
-        <v>0.1059394407316254</v>
+        <v>-0.7443406535783426</v>
       </c>
       <c r="E159">
         <v>0.02397438301374079</v>
@@ -5086,7 +5086,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D160">
-        <v>0.1059394407316254</v>
+        <v>-0.7443406535783426</v>
       </c>
       <c r="E160">
         <v>0.02397438301374079</v>
@@ -5112,7 +5112,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D161">
-        <v>0.1059394407316254</v>
+        <v>-0.7443406535783426</v>
       </c>
       <c r="E161">
         <v>0.02397438301374079</v>
@@ -5138,7 +5138,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D162">
-        <v>0.1059394407316254</v>
+        <v>-0.7443406535783426</v>
       </c>
       <c r="E162">
         <v>0.02397438301374079</v>
@@ -5164,7 +5164,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D163">
-        <v>0.1059394407316254</v>
+        <v>-0.7443406535783426</v>
       </c>
       <c r="E163">
         <v>0.02397438301374079</v>
@@ -5190,7 +5190,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D164">
-        <v>0.1059394407316254</v>
+        <v>-0.7443406535783426</v>
       </c>
       <c r="E164">
         <v>0.02397438301374079</v>
@@ -5216,7 +5216,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D165">
-        <v>0.1059394407316254</v>
+        <v>-0.7443406535783426</v>
       </c>
       <c r="E165">
         <v>0.02397438301374079</v>
@@ -5242,7 +5242,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D166">
-        <v>0.1059394407316254</v>
+        <v>-0.7443406535783426</v>
       </c>
       <c r="E166">
         <v>0.02397438301374079</v>
@@ -5268,7 +5268,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D167">
-        <v>0.1059394407316254</v>
+        <v>-0.7443406535783426</v>
       </c>
       <c r="E167">
         <v>0.02397438301374079</v>
@@ -5294,7 +5294,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D168">
-        <v>0.1059394407316254</v>
+        <v>-0.7443406535783426</v>
       </c>
       <c r="E168">
         <v>0.02397438301374079</v>
@@ -5320,7 +5320,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D169">
-        <v>0.1059394407316254</v>
+        <v>-0.7443406535783426</v>
       </c>
       <c r="E169">
         <v>0.02397438301374079</v>
@@ -5346,7 +5346,7 @@
         <v>0.6361433578016487</v>
       </c>
       <c r="D170">
-        <v>-1.304704797601585</v>
+        <v>0.05887837304347909</v>
       </c>
       <c r="E170">
         <v>0.5661598446228995</v>
@@ -5372,7 +5372,7 @@
         <v>0.7210441592568509</v>
       </c>
       <c r="D171">
-        <v>-0.8611990472299456</v>
+        <v>-0.02908560906069635</v>
       </c>
       <c r="E171">
         <v>0.4957259334822247</v>
@@ -5398,7 +5398,7 @@
         <v>0.8145730808545297</v>
       </c>
       <c r="D172">
-        <v>-1.152654491332889</v>
+        <v>0.07483087576922931</v>
       </c>
       <c r="E172">
         <v>0.4041664884235142</v>
@@ -5424,7 +5424,7 @@
         <v>0.8768472437578995</v>
       </c>
       <c r="D173">
-        <v>-0.3250635408623281</v>
+        <v>-0.9572762778675235</v>
       </c>
       <c r="E173">
         <v>0.3293790539083178</v>
@@ -5450,7 +5450,7 @@
         <v>0.9158438647290496</v>
       </c>
       <c r="D174">
-        <v>-0.01106863154438398</v>
+        <v>-0.7046641559135649</v>
       </c>
       <c r="E174">
         <v>0.2722806641288711</v>
@@ -5476,7 +5476,7 @@
         <v>0.9519868915147028</v>
       </c>
       <c r="D175">
-        <v>-0.07034695323592866</v>
+        <v>-0.4956751111289568</v>
       </c>
       <c r="E175">
         <v>0.2056618896306312</v>
@@ -5502,7 +5502,7 @@
         <v>0.9668586244690376</v>
       </c>
       <c r="D176">
-        <v>0.002291301377248089</v>
+        <v>0.146317089980916</v>
       </c>
       <c r="E176">
         <v>0.1708673856741201</v>
@@ -5528,7 +5528,7 @@
         <v>0.9782475720665739</v>
       </c>
       <c r="D177">
-        <v>0.006204233455525454</v>
+        <v>-0.03622907178569013</v>
       </c>
       <c r="E177">
         <v>0.1384292222841648</v>
@@ -5554,7 +5554,7 @@
         <v>0.9909858311805895</v>
       </c>
       <c r="D178">
-        <v>0.04908832980507749</v>
+        <v>-0.7023767384393937</v>
       </c>
       <c r="E178">
         <v>0.0891121154132035</v>
@@ -5580,7 +5580,7 @@
         <v>0.9962550838750426</v>
       </c>
       <c r="D179">
-        <v>0.04062766910803339</v>
+        <v>-0.01876463020009767</v>
       </c>
       <c r="E179">
         <v>0.057437424431082</v>
@@ -5606,7 +5606,7 @@
         <v>0.9987159070587835</v>
       </c>
       <c r="D180">
-        <v>0.06280400700046951</v>
+        <v>-0.7698401646019646</v>
       </c>
       <c r="E180">
         <v>0.03363350584078563</v>
@@ -5632,7 +5632,7 @@
         <v>0.9991947550703918</v>
       </c>
       <c r="D181">
-        <v>-0.00620308579123674</v>
+        <v>-0.6897465905286724</v>
       </c>
       <c r="E181">
         <v>0.02663409283415547</v>
@@ -5658,7 +5658,7 @@
         <v>0.9993329904409199</v>
       </c>
       <c r="D182">
-        <v>-0.01701057052900845</v>
+        <v>0.05451930920958703</v>
       </c>
       <c r="E182">
         <v>0.02424040874548163</v>
@@ -5684,7 +5684,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D183">
-        <v>-0.02752251678761164</v>
+        <v>0.06262477893372731</v>
       </c>
       <c r="E183">
         <v>0.02397438301374079</v>
@@ -5710,7 +5710,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D184">
-        <v>-0.02752251678761164</v>
+        <v>0.06262477893372731</v>
       </c>
       <c r="E184">
         <v>0.02397438301374079</v>
@@ -5736,7 +5736,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D185">
-        <v>-0.02752251678761164</v>
+        <v>0.06262477893372731</v>
       </c>
       <c r="E185">
         <v>0.02397438301374079</v>
@@ -5762,7 +5762,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D186">
-        <v>-0.02752251678761164</v>
+        <v>0.06262477893372731</v>
       </c>
       <c r="E186">
         <v>0.02397438301374079</v>
@@ -5788,7 +5788,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D187">
-        <v>-0.02752251678761164</v>
+        <v>0.06262477893372731</v>
       </c>
       <c r="E187">
         <v>0.02397438301374079</v>
@@ -5814,7 +5814,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D188">
-        <v>-0.02752251678761164</v>
+        <v>0.06262477893372731</v>
       </c>
       <c r="E188">
         <v>0.02397438301374079</v>
@@ -5840,7 +5840,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D189">
-        <v>-0.02752251678761164</v>
+        <v>0.06262477893372731</v>
       </c>
       <c r="E189">
         <v>0.02397438301374079</v>
@@ -5866,7 +5866,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D190">
-        <v>-0.02752251678761164</v>
+        <v>0.06262477893372731</v>
       </c>
       <c r="E190">
         <v>0.02397438301374079</v>
@@ -5892,7 +5892,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D191">
-        <v>-0.02752251678761164</v>
+        <v>0.06262477893372731</v>
       </c>
       <c r="E191">
         <v>0.02397438301374079</v>
@@ -5918,7 +5918,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D192">
-        <v>-0.02752251678761164</v>
+        <v>0.06262477893372731</v>
       </c>
       <c r="E192">
         <v>0.02397438301374079</v>
@@ -5944,7 +5944,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D193">
-        <v>-0.02752251678761164</v>
+        <v>0.06262477893372731</v>
       </c>
       <c r="E193">
         <v>0.02397438301374079</v>
@@ -5970,7 +5970,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D194">
-        <v>-0.02752251678761164</v>
+        <v>0.06262477893372731</v>
       </c>
       <c r="E194">
         <v>0.02397438301374079</v>
@@ -5996,7 +5996,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D195">
-        <v>-0.02752251678761164</v>
+        <v>0.06262477893372731</v>
       </c>
       <c r="E195">
         <v>0.02397438301374079</v>
@@ -6022,7 +6022,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D196">
-        <v>-0.02752251678761164</v>
+        <v>0.06262477893372731</v>
       </c>
       <c r="E196">
         <v>0.02397438301374079</v>
@@ -6048,7 +6048,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D197">
-        <v>-0.02752251678761164</v>
+        <v>0.06262477893372731</v>
       </c>
       <c r="E197">
         <v>0.02397438301374079</v>
@@ -6074,7 +6074,7 @@
         <v>0.6361433578016485</v>
       </c>
       <c r="D198">
-        <v>-1.304704797601583</v>
+        <v>0.05887837304347687</v>
       </c>
       <c r="E198">
         <v>0.5661598446228995</v>
@@ -6100,7 +6100,7 @@
         <v>0.7154977435617806</v>
       </c>
       <c r="D199">
-        <v>-0.1960449307358969</v>
+        <v>-0.3625314460591793</v>
       </c>
       <c r="E199">
         <v>0.500629880576552</v>
@@ -6126,7 +6126,7 @@
         <v>0.7751295531141184</v>
       </c>
       <c r="D200">
-        <v>-0.4251123291330636</v>
+        <v>0.09841500953963855</v>
       </c>
       <c r="E200">
         <v>0.445082072048722</v>
@@ -6152,7 +6152,7 @@
         <v>0.813760908126455</v>
       </c>
       <c r="D201">
-        <v>0.165853379792365</v>
+        <v>0.05139582500533668</v>
       </c>
       <c r="E201">
         <v>0.4050506490075093</v>
@@ -6178,7 +6178,7 @@
         <v>0.842189738889431</v>
       </c>
       <c r="D202">
-        <v>-0.4980552641980434</v>
+        <v>-0.371940565637551</v>
       </c>
       <c r="E202">
         <v>0.3728563372128277</v>
@@ -6204,7 +6204,7 @@
         <v>0.8880158308570664</v>
       </c>
       <c r="D203">
-        <v>0.02053814566492829</v>
+        <v>-0.3269723730144547</v>
       </c>
       <c r="E203">
         <v>0.3140886376356464</v>
@@ -6230,7 +6230,7 @@
         <v>0.9249963798561296</v>
       </c>
       <c r="D204">
-        <v>0.02691600394841531</v>
+        <v>0.04485273588188343</v>
       </c>
       <c r="E204">
         <v>0.2570484696137913</v>
@@ -6256,7 +6256,7 @@
         <v>0.9507338916490904</v>
       </c>
       <c r="D205">
-        <v>-0.03590633428424961</v>
+        <v>-0.09633650429330021</v>
       </c>
       <c r="E205">
         <v>0.2083281890038479</v>
@@ -6282,7 +6282,7 @@
         <v>0.9642484477920389</v>
       </c>
       <c r="D206">
-        <v>-0.01395146104086664</v>
+        <v>-0.2105963729202047</v>
       </c>
       <c r="E206">
         <v>0.1774685335906633</v>
@@ -6308,7 +6308,7 @@
         <v>0.9776146893329022</v>
       </c>
       <c r="D207">
-        <v>0.03130575661587898</v>
+        <v>-0.1017579568979621</v>
       </c>
       <c r="E207">
         <v>0.140428569777191</v>
@@ -6334,7 +6334,7 @@
         <v>0.9856412805303925</v>
       </c>
       <c r="D208">
-        <v>-0.06215737837554602</v>
+        <v>-0.3314632606418249</v>
       </c>
       <c r="E208">
         <v>0.1124687232530867</v>
@@ -6360,7 +6360,7 @@
         <v>0.9914143142159965</v>
       </c>
       <c r="D209">
-        <v>0.01791546590695869</v>
+        <v>-0.193574607443878</v>
       </c>
       <c r="E209">
         <v>0.08696838490894215</v>
@@ -6386,7 +6386,7 @@
         <v>0.9952431325383582</v>
       </c>
       <c r="D210">
-        <v>0.01651313580031788</v>
+        <v>-0.2150166347605074</v>
       </c>
       <c r="E210">
         <v>0.06473429688446934</v>
@@ -6412,7 +6412,7 @@
         <v>0.9975972156925101</v>
       </c>
       <c r="D211">
-        <v>0.01554203184940273</v>
+        <v>-0.2073996479450735</v>
       </c>
       <c r="E211">
         <v>0.04600778268013082</v>
@@ -6438,7 +6438,7 @@
         <v>0.9986756834553476</v>
       </c>
       <c r="D212">
-        <v>0.04779660705593958</v>
+        <v>-0.1283730513687478</v>
       </c>
       <c r="E212">
         <v>0.03415622077860433</v>
@@ -6464,7 +6464,7 @@
         <v>0.9992366348054028</v>
       </c>
       <c r="D213">
-        <v>0.05953094550953564</v>
+        <v>-0.1208220358212155</v>
       </c>
       <c r="E213">
         <v>0.02593224326606949</v>
@@ -6490,7 +6490,7 @@
         <v>0.9993281143382855</v>
       </c>
       <c r="D214">
-        <v>0.1251856869109897</v>
+        <v>-0.12455407845285</v>
       </c>
       <c r="E214">
         <v>0.02432885087164166</v>
@@ -6516,7 +6516,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D215">
-        <v>0.05567180968432528</v>
+        <v>-0.122128833093635</v>
       </c>
       <c r="E215">
         <v>0.02397438301374079</v>
@@ -6542,7 +6542,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D216">
-        <v>0.05567180968432528</v>
+        <v>-0.122128833093635</v>
       </c>
       <c r="E216">
         <v>0.02397438301374079</v>
@@ -6568,7 +6568,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D217">
-        <v>0.05567180968432528</v>
+        <v>-0.122128833093635</v>
       </c>
       <c r="E217">
         <v>0.02397438301374079</v>
@@ -6594,7 +6594,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D218">
-        <v>0.05567180968432528</v>
+        <v>-0.122128833093635</v>
       </c>
       <c r="E218">
         <v>0.02397438301374079</v>
@@ -6620,7 +6620,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D219">
-        <v>0.05567180968432528</v>
+        <v>-0.122128833093635</v>
       </c>
       <c r="E219">
         <v>0.02397438301374079</v>
@@ -6646,7 +6646,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D220">
-        <v>0.05567180968432528</v>
+        <v>-0.122128833093635</v>
       </c>
       <c r="E220">
         <v>0.02397438301374079</v>
@@ -6672,7 +6672,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D221">
-        <v>0.05567180968432528</v>
+        <v>-0.122128833093635</v>
       </c>
       <c r="E221">
         <v>0.02397438301374079</v>
@@ -6698,7 +6698,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D222">
-        <v>0.05567180968432528</v>
+        <v>-0.122128833093635</v>
       </c>
       <c r="E222">
         <v>0.02397438301374079</v>
@@ -6724,7 +6724,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D223">
-        <v>0.05567180968432528</v>
+        <v>-0.122128833093635</v>
       </c>
       <c r="E223">
         <v>0.02397438301374079</v>
@@ -6750,7 +6750,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D224">
-        <v>0.05567180968432528</v>
+        <v>-0.122128833093635</v>
       </c>
       <c r="E224">
         <v>0.02397438301374079</v>
@@ -6776,7 +6776,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D225">
-        <v>0.05567180968432528</v>
+        <v>-0.122128833093635</v>
       </c>
       <c r="E225">
         <v>0.02397438301374079</v>
@@ -6802,7 +6802,7 @@
         <v>0.6068198483694993</v>
       </c>
       <c r="D226">
-        <v>-1.811057057234964</v>
+        <v>0.03104591034730908</v>
       </c>
       <c r="E226">
         <v>0.5885314865450214</v>
@@ -6828,7 +6828,7 @@
         <v>0.701310987778943</v>
       </c>
       <c r="D227">
-        <v>-0.7533909353280877</v>
+        <v>-0.4686198857062149</v>
       </c>
       <c r="E227">
         <v>0.5129600382354474</v>
@@ -6854,7 +6854,7 @@
         <v>0.7694767719038369</v>
       </c>
       <c r="D228">
-        <v>0.03799491526658594</v>
+        <v>0.2413499922084282</v>
       </c>
       <c r="E228">
         <v>0.4506415748871549</v>
@@ -6880,7 +6880,7 @@
         <v>0.8134527938280058</v>
       </c>
       <c r="D229">
-        <v>-0.213723860062542</v>
+        <v>-0.5646777921003829</v>
       </c>
       <c r="E229">
         <v>0.4053855688136375</v>
@@ -6906,7 +6906,7 @@
         <v>0.8421967423619318</v>
       </c>
       <c r="D230">
-        <v>-0.153849628657819</v>
+        <v>-0.4925449412153711</v>
       </c>
       <c r="E230">
         <v>0.3728480636124347</v>
@@ -6932,7 +6932,7 @@
         <v>0.888016991103879</v>
       </c>
       <c r="D231">
-        <v>-0.1172073552030035</v>
+        <v>-0.3940690208324391</v>
       </c>
       <c r="E231">
         <v>0.3140870105249244</v>
@@ -6958,7 +6958,7 @@
         <v>0.9249964907155493</v>
       </c>
       <c r="D232">
-        <v>-0.409680048783714</v>
+        <v>0.1657050100228826</v>
       </c>
       <c r="E232">
         <v>0.2570482796479294</v>
@@ -6984,7 +6984,7 @@
         <v>0.9507338916490904</v>
       </c>
       <c r="D233">
-        <v>-0.03021575875538374</v>
+        <v>-0.08962713356890428</v>
       </c>
       <c r="E233">
         <v>0.208328189003848</v>
@@ -7010,7 +7010,7 @@
         <v>0.9642484477920389</v>
       </c>
       <c r="D234">
-        <v>-0.01474309715033995</v>
+        <v>-0.2052271130161989</v>
       </c>
       <c r="E234">
         <v>0.1774685335906633</v>
@@ -7036,7 +7036,7 @@
         <v>0.9776146893329022</v>
       </c>
       <c r="D235">
-        <v>-0.08196580400198217</v>
+        <v>-0.3003283706059086</v>
       </c>
       <c r="E235">
         <v>0.140428569777191</v>
@@ -7062,7 +7062,7 @@
         <v>0.9856412805303925</v>
       </c>
       <c r="D236">
-        <v>-0.06229332669635768</v>
+        <v>-0.3274671809981551</v>
       </c>
       <c r="E236">
         <v>0.1124687232530867</v>
@@ -7088,7 +7088,7 @@
         <v>0.9914143142159965</v>
       </c>
       <c r="D237">
-        <v>-0.07416594785044017</v>
+        <v>-0.357225322024789</v>
       </c>
       <c r="E237">
         <v>0.08696838490894215</v>
@@ -7114,7 +7114,7 @@
         <v>0.9952431325383582</v>
       </c>
       <c r="D238">
-        <v>-0.06999070473497393</v>
+        <v>-0.3302745422975026</v>
       </c>
       <c r="E238">
         <v>0.06473429688446934</v>
@@ -7140,7 +7140,7 @@
         <v>0.9975972156925101</v>
       </c>
       <c r="D239">
-        <v>-0.07278553995430492</v>
+        <v>-0.3202913679575323</v>
       </c>
       <c r="E239">
         <v>0.04600778268013082</v>
@@ -7166,7 +7166,7 @@
         <v>0.9986756834553476</v>
       </c>
       <c r="D240">
-        <v>-0.05424252938325336</v>
+        <v>-0.3110154444143614</v>
       </c>
       <c r="E240">
         <v>0.03415622077860433</v>
@@ -7192,7 +7192,7 @@
         <v>0.9992366348054028</v>
       </c>
       <c r="D241">
-        <v>-0.06374969329384905</v>
+        <v>-0.3052044756195094</v>
       </c>
       <c r="E241">
         <v>0.02593224326606949</v>
@@ -7218,7 +7218,7 @@
         <v>0.9993281143382855</v>
       </c>
       <c r="D242">
-        <v>-0.06581107976551959</v>
+        <v>-0.3057542245225111</v>
       </c>
       <c r="E242">
         <v>0.02432885087164166</v>
@@ -7244,7 +7244,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D243">
-        <v>-0.0767232330948735</v>
+        <v>-0.2845263172456334</v>
       </c>
       <c r="E243">
         <v>0.02397438301374079</v>
@@ -7270,7 +7270,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D244">
-        <v>-0.0767232330948735</v>
+        <v>-0.2845263172456334</v>
       </c>
       <c r="E244">
         <v>0.02397438301374079</v>
@@ -7296,7 +7296,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D245">
-        <v>-0.0767232330948735</v>
+        <v>-0.2845263172456334</v>
       </c>
       <c r="E245">
         <v>0.02397438301374079</v>
@@ -7322,7 +7322,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D246">
-        <v>-0.0767232330948735</v>
+        <v>-0.2845263172456334</v>
       </c>
       <c r="E246">
         <v>0.02397438301374079</v>
@@ -7348,7 +7348,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D247">
-        <v>-0.0767232330948735</v>
+        <v>-0.2845263172456334</v>
       </c>
       <c r="E247">
         <v>0.02397438301374079</v>
@@ -7374,7 +7374,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D248">
-        <v>-0.0767232330948735</v>
+        <v>-0.2845263172456334</v>
       </c>
       <c r="E248">
         <v>0.02397438301374079</v>
@@ -7400,7 +7400,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D249">
-        <v>-0.0767232330948735</v>
+        <v>-0.2845263172456334</v>
       </c>
       <c r="E249">
         <v>0.02397438301374079</v>
@@ -7426,7 +7426,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D250">
-        <v>-0.0767232330948735</v>
+        <v>-0.2845263172456334</v>
       </c>
       <c r="E250">
         <v>0.02397438301374079</v>
@@ -7452,7 +7452,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D251">
-        <v>-0.0767232330948735</v>
+        <v>-0.2845263172456334</v>
       </c>
       <c r="E251">
         <v>0.02397438301374079</v>
@@ -7478,7 +7478,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D252">
-        <v>-0.0767232330948735</v>
+        <v>-0.2845263172456334</v>
       </c>
       <c r="E252">
         <v>0.02397438301374079</v>
@@ -7504,7 +7504,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D253">
-        <v>-0.0767232330948735</v>
+        <v>-0.2845263172456334</v>
       </c>
       <c r="E253">
         <v>0.02397438301374079</v>
@@ -7530,7 +7530,7 @@
         <v>0.6068198483694991</v>
       </c>
       <c r="D254">
-        <v>-1.81105705723497</v>
+        <v>0.03104591034731119</v>
       </c>
       <c r="E254">
         <v>0.5885314865450215</v>
@@ -7556,7 +7556,7 @@
         <v>0.7013109877789429</v>
       </c>
       <c r="D255">
-        <v>-0.7533909353280854</v>
+        <v>-0.4686198857062196</v>
       </c>
       <c r="E255">
         <v>0.5129600382354474</v>
@@ -7582,7 +7582,7 @@
         <v>0.7694767719038369</v>
       </c>
       <c r="D256">
-        <v>-0.46863346169097</v>
+        <v>-0.404307548475219</v>
       </c>
       <c r="E256">
         <v>0.4506415748871549</v>
@@ -7608,7 +7608,7 @@
         <v>0.8132649826792298</v>
       </c>
       <c r="D257">
-        <v>-0.01515022595284576</v>
+        <v>-0.4646273755873909</v>
       </c>
       <c r="E257">
         <v>0.4055895835979705</v>
@@ -7634,7 +7634,7 @@
         <v>0.8422526324328801</v>
       </c>
       <c r="D258">
-        <v>-0.4115997006911807</v>
+        <v>-0.3503329651707783</v>
       </c>
       <c r="E258">
         <v>0.3727820309129528</v>
@@ -7660,7 +7660,7 @@
         <v>0.8874936974162549</v>
       </c>
       <c r="D259">
-        <v>-0.2277866298365256</v>
+        <v>-0.5397902213794634</v>
       </c>
       <c r="E259">
         <v>0.3148200154098156</v>
@@ -7686,7 +7686,7 @@
         <v>0.9100677494553122</v>
       </c>
       <c r="D260">
-        <v>-0.6276234332554851</v>
+        <v>-0.3657737363293321</v>
       </c>
       <c r="E260">
         <v>0.2814696937478863</v>
@@ -7712,7 +7712,7 @@
         <v>0.9297358060611638</v>
       </c>
       <c r="D261">
-        <v>-0.6490929497197369</v>
+        <v>-0.3473621030022882</v>
       </c>
       <c r="E261">
         <v>0.2487945965871348</v>
@@ -7738,7 +7738,7 @@
         <v>0.9405089857213436</v>
       </c>
       <c r="D262">
-        <v>-0.6473604053184745</v>
+        <v>-0.4369463489259837</v>
       </c>
       <c r="E262">
         <v>0.2289283596524049</v>
@@ -7764,7 +7764,7 @@
         <v>0.9526282262696624</v>
       </c>
       <c r="D263">
-        <v>-0.6670362786602928</v>
+        <v>-0.4574148911576981</v>
       </c>
       <c r="E263">
         <v>0.2042837082828796</v>
@@ -7790,7 +7790,7 @@
         <v>0.9695788419308506</v>
       </c>
       <c r="D264">
-        <v>-0.8968880636446361</v>
+        <v>-0.5999952131564075</v>
       </c>
       <c r="E264">
         <v>0.1637049385265043</v>
@@ -7816,7 +7816,7 @@
         <v>0.9813598769615162</v>
       </c>
       <c r="D265">
-        <v>-0.8388703856206912</v>
+        <v>-0.5846391659660446</v>
       </c>
       <c r="E265">
         <v>0.128144006122564</v>
@@ -7842,7 +7842,7 @@
         <v>0.9933320769788441</v>
       </c>
       <c r="D266">
-        <v>-0.8327192135721304</v>
+        <v>-0.5145065001787767</v>
       </c>
       <c r="E266">
         <v>0.07664241809477357</v>
@@ -7868,7 +7868,7 @@
         <v>0.9962038778369807</v>
       </c>
       <c r="D267">
-        <v>-0.9364673137493835</v>
+        <v>-0.5109785008145347</v>
       </c>
       <c r="E267">
         <v>0.05782877594373188</v>
@@ -7894,7 +7894,7 @@
         <v>0.9973176082175738</v>
       </c>
       <c r="D268">
-        <v>-0.9133951377534291</v>
+        <v>-0.5185018138582898</v>
       </c>
       <c r="E268">
         <v>0.04861105142726105</v>
@@ -7920,7 +7920,7 @@
         <v>0.9981004927183244</v>
       </c>
       <c r="D269">
-        <v>-0.8907901517657273</v>
+        <v>-0.52668350788535</v>
       </c>
       <c r="E269">
         <v>0.04090669484960455</v>
@@ -7946,7 +7946,7 @@
         <v>0.998696151585453</v>
       </c>
       <c r="D270">
-        <v>-0.8624542900544698</v>
+        <v>-0.5324982630789443</v>
       </c>
       <c r="E270">
         <v>0.033891240188333</v>
@@ -7972,7 +7972,7 @@
         <v>0.999311658756491</v>
       </c>
       <c r="D271">
-        <v>-0.8735045942636375</v>
+        <v>-0.5281054842677322</v>
       </c>
       <c r="E271">
         <v>0.02462497542488699</v>
@@ -7998,7 +7998,7 @@
         <v>0.9993418145743398</v>
       </c>
       <c r="D272">
-        <v>-0.8612515309637343</v>
+        <v>-0.5275314173752175</v>
       </c>
       <c r="E272">
         <v>0.02407953191807745</v>
@@ -8024,7 +8024,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D273">
-        <v>-0.8847464884680238</v>
+        <v>-0.5288977484026895</v>
       </c>
       <c r="E273">
         <v>0.02397438301374079</v>
@@ -8050,7 +8050,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D274">
-        <v>-0.8847464884680238</v>
+        <v>-0.5288977484026895</v>
       </c>
       <c r="E274">
         <v>0.02397438301374079</v>
@@ -8076,7 +8076,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D275">
-        <v>-0.8847464884680238</v>
+        <v>-0.5288977484026895</v>
       </c>
       <c r="E275">
         <v>0.02397438301374079</v>
@@ -8102,7 +8102,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D276">
-        <v>-0.8847464884680238</v>
+        <v>-0.5288977484026895</v>
       </c>
       <c r="E276">
         <v>0.02397438301374079</v>
@@ -8128,7 +8128,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D277">
-        <v>-0.8847464884680238</v>
+        <v>-0.5288977484026895</v>
       </c>
       <c r="E277">
         <v>0.02397438301374079</v>
@@ -8154,7 +8154,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D278">
-        <v>-0.8847464884680238</v>
+        <v>-0.5288977484026895</v>
       </c>
       <c r="E278">
         <v>0.02397438301374079</v>
@@ -8180,7 +8180,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D279">
-        <v>-0.8847464884680238</v>
+        <v>-0.5288977484026895</v>
       </c>
       <c r="E279">
         <v>0.02397438301374079</v>
@@ -8206,7 +8206,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D280">
-        <v>-0.8847464884680238</v>
+        <v>-0.5288977484026895</v>
       </c>
       <c r="E280">
         <v>0.02397438301374079</v>
@@ -8232,7 +8232,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D281">
-        <v>-0.8847464884680238</v>
+        <v>-0.5288977484026895</v>
       </c>
       <c r="E281">
         <v>0.02397438301374079</v>
@@ -8258,7 +8258,7 @@
         <v>0.6068198483694991</v>
       </c>
       <c r="D282">
-        <v>-1.81105705723497</v>
+        <v>0.03104591034731119</v>
       </c>
       <c r="E282">
         <v>0.5885314865450215</v>
@@ -8284,7 +8284,7 @@
         <v>0.7013109877789429</v>
       </c>
       <c r="D283">
-        <v>-1.050954696014937</v>
+        <v>0.03392411618935076</v>
       </c>
       <c r="E283">
         <v>0.5129600382354474</v>
@@ -8310,7 +8310,7 @@
         <v>0.7694767719038369</v>
       </c>
       <c r="D284">
-        <v>-0.4686334616909689</v>
+        <v>-0.4043075484752183</v>
       </c>
       <c r="E284">
         <v>0.4506415748871549</v>
@@ -8336,7 +8336,7 @@
         <v>0.8132358474352895</v>
       </c>
       <c r="D285">
-        <v>-0.7202378960127565</v>
+        <v>0.08419666891803135</v>
       </c>
       <c r="E285">
         <v>0.4056212233266343</v>
@@ -8362,7 +8362,7 @@
         <v>0.8422403484040044</v>
       </c>
       <c r="D286">
-        <v>-0.1603556709451643</v>
+        <v>-0.5150771906390996</v>
       </c>
       <c r="E286">
         <v>0.3727965451839594</v>
@@ -8388,7 +8388,7 @@
         <v>0.8874889906028781</v>
       </c>
       <c r="D287">
-        <v>-0.02621472843485062</v>
+        <v>-0.4147204566872658</v>
       </c>
       <c r="E287">
         <v>0.3148266007456056</v>
@@ -8414,7 +8414,7 @@
         <v>0.9100677494553122</v>
       </c>
       <c r="D288">
-        <v>-0.08158234923656793</v>
+        <v>0.2435084161791286</v>
       </c>
       <c r="E288">
         <v>0.2814696937478863</v>
@@ -8440,7 +8440,7 @@
         <v>0.9260995544108868</v>
       </c>
       <c r="D289">
-        <v>0.03580725532599649</v>
+        <v>0.2882800182614029</v>
       </c>
       <c r="E289">
         <v>0.2551510960305851</v>
@@ -8466,7 +8466,7 @@
         <v>0.9457878578810764</v>
       </c>
       <c r="D290">
-        <v>0.1757126308975362</v>
+        <v>0.4356219235622827</v>
       </c>
       <c r="E290">
         <v>0.2185355995351677</v>
@@ -8492,7 +8492,7 @@
         <v>0.9722094754937702</v>
       </c>
       <c r="D291">
-        <v>0.2374157648191568</v>
+        <v>0.4889881937310592</v>
       </c>
       <c r="E291">
         <v>0.1564668291343791</v>
@@ -8518,7 +8518,7 @@
         <v>0.9868262170010409</v>
       </c>
       <c r="D292">
-        <v>0.07784086764959086</v>
+        <v>0.4395371439754895</v>
       </c>
       <c r="E292">
         <v>0.1077281402224662</v>
@@ -8544,7 +8544,7 @@
         <v>0.9940241607709182</v>
       </c>
       <c r="D293">
-        <v>0.1382765474719536</v>
+        <v>0.4685442763930026</v>
       </c>
       <c r="E293">
         <v>0.07255600502162346</v>
@@ -8570,7 +8570,7 @@
         <v>0.9972792494890756</v>
       </c>
       <c r="D294">
-        <v>0.1372280112122903</v>
+        <v>0.4903872432315147</v>
       </c>
       <c r="E294">
         <v>0.04895739142393683</v>
@@ -8596,7 +8596,7 @@
         <v>0.9989089120624298</v>
       </c>
       <c r="D295">
-        <v>0.1537333853521925</v>
+        <v>0.4911829859205192</v>
       </c>
       <c r="E295">
         <v>0.03100300475957972</v>
@@ -8622,7 +8622,7 @@
         <v>0.9992877019296913</v>
       </c>
       <c r="D296">
-        <v>0.1192168627164768</v>
+        <v>0.4816374296206456</v>
       </c>
       <c r="E296">
         <v>0.02504983061930061</v>
@@ -8648,7 +8648,7 @@
         <v>0.9993419615641926</v>
       </c>
       <c r="D297">
-        <v>0.09526178164344934</v>
+        <v>0.4474159149772688</v>
       </c>
       <c r="E297">
         <v>0.02407684297636692</v>
@@ -8674,7 +8674,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D298">
-        <v>0.08134668205466788</v>
+        <v>0.4460495839497969</v>
       </c>
       <c r="E298">
         <v>0.02397438301374079</v>
@@ -8700,7 +8700,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D299">
-        <v>0.08134668205466788</v>
+        <v>0.4460495839497969</v>
       </c>
       <c r="E299">
         <v>0.02397438301374079</v>
@@ -8726,7 +8726,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D300">
-        <v>0.08134668205466788</v>
+        <v>0.4460495839497969</v>
       </c>
       <c r="E300">
         <v>0.02397438301374079</v>
@@ -8752,7 +8752,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D301">
-        <v>0.08134668205466788</v>
+        <v>0.4460495839497969</v>
       </c>
       <c r="E301">
         <v>0.02397438301374079</v>
@@ -8778,7 +8778,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D302">
-        <v>0.08134668205466788</v>
+        <v>0.4460495839497969</v>
       </c>
       <c r="E302">
         <v>0.02397438301374079</v>
@@ -8804,7 +8804,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D303">
-        <v>0.08134668205466788</v>
+        <v>0.4460495839497969</v>
       </c>
       <c r="E303">
         <v>0.02397438301374079</v>
@@ -8830,7 +8830,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D304">
-        <v>0.08134668205466788</v>
+        <v>0.4460495839497969</v>
       </c>
       <c r="E304">
         <v>0.02397438301374079</v>
@@ -8856,7 +8856,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D305">
-        <v>0.08134668205466788</v>
+        <v>0.4460495839497969</v>
       </c>
       <c r="E305">
         <v>0.02397438301374079</v>
@@ -8882,7 +8882,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D306">
-        <v>0.08134668205466788</v>
+        <v>0.4460495839497969</v>
       </c>
       <c r="E306">
         <v>0.02397438301374079</v>
@@ -8908,7 +8908,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D307">
-        <v>0.08134668205466788</v>
+        <v>0.4460495839497969</v>
       </c>
       <c r="E307">
         <v>0.02397438301374079</v>
@@ -8934,7 +8934,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D308">
-        <v>0.08134668205466788</v>
+        <v>0.4460495839497969</v>
       </c>
       <c r="E308">
         <v>0.02397438301374079</v>
@@ -8960,7 +8960,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D309">
-        <v>0.08134668205466788</v>
+        <v>0.4460495839497969</v>
       </c>
       <c r="E309">
         <v>0.02397438301374079</v>
@@ -8986,7 +8986,7 @@
         <v>0.6068198483694991</v>
       </c>
       <c r="D310">
-        <v>-1.81105705723497</v>
+        <v>0.03104591034731119</v>
       </c>
       <c r="E310">
         <v>0.5885314865450215</v>
@@ -9012,7 +9012,7 @@
         <v>0.7013109877789429</v>
       </c>
       <c r="D311">
-        <v>-1.050954696014937</v>
+        <v>0.03392411618935076</v>
       </c>
       <c r="E311">
         <v>0.5129600382354474</v>
@@ -9038,7 +9038,7 @@
         <v>0.7694767719038369</v>
       </c>
       <c r="D312">
-        <v>-0.4686334616909689</v>
+        <v>-0.4043075484752183</v>
       </c>
       <c r="E312">
         <v>0.4506415748871549</v>
@@ -9064,7 +9064,7 @@
         <v>0.8132358474352895</v>
       </c>
       <c r="D313">
-        <v>-0.7202378960127565</v>
+        <v>0.08419666891803135</v>
       </c>
       <c r="E313">
         <v>0.4056212233266343</v>
@@ -9090,7 +9090,7 @@
         <v>0.8422403484040044</v>
       </c>
       <c r="D314">
-        <v>-0.1603556709451643</v>
+        <v>-0.5150771906390996</v>
       </c>
       <c r="E314">
         <v>0.3727965451839594</v>
@@ -9116,7 +9116,7 @@
         <v>0.8874889906028781</v>
       </c>
       <c r="D315">
-        <v>-0.02621472843485062</v>
+        <v>-0.4147204566872658</v>
       </c>
       <c r="E315">
         <v>0.3148266007456056</v>
@@ -9142,7 +9142,7 @@
         <v>0.9100677494553122</v>
       </c>
       <c r="D316">
-        <v>-0.08158234923656793</v>
+        <v>0.2435084161791286</v>
       </c>
       <c r="E316">
         <v>0.2814696937478863</v>
@@ -9168,7 +9168,7 @@
         <v>0.9260995544108868</v>
       </c>
       <c r="D317">
-        <v>0.03580725532599649</v>
+        <v>0.2882800182614029</v>
       </c>
       <c r="E317">
         <v>0.2551510960305851</v>
@@ -9194,7 +9194,7 @@
         <v>0.9457878578810764</v>
       </c>
       <c r="D318">
-        <v>0.1757126308975362</v>
+        <v>0.4356219235622827</v>
       </c>
       <c r="E318">
         <v>0.2185355995351677</v>
@@ -9220,7 +9220,7 @@
         <v>0.9722094754937702</v>
       </c>
       <c r="D319">
-        <v>0.2374157648191568</v>
+        <v>0.4889881937310592</v>
       </c>
       <c r="E319">
         <v>0.1564668291343791</v>
@@ -9246,7 +9246,7 @@
         <v>0.9868262170010409</v>
       </c>
       <c r="D320">
-        <v>0.07784086764959086</v>
+        <v>0.4395371439754895</v>
       </c>
       <c r="E320">
         <v>0.1077281402224662</v>
@@ -9272,7 +9272,7 @@
         <v>0.9940241607709182</v>
       </c>
       <c r="D321">
-        <v>0.1382765474719536</v>
+        <v>0.4685442763930026</v>
       </c>
       <c r="E321">
         <v>0.07255600502162346</v>
@@ -9298,7 +9298,7 @@
         <v>0.9972792494890756</v>
       </c>
       <c r="D322">
-        <v>0.1372280112122903</v>
+        <v>0.4903872432315147</v>
       </c>
       <c r="E322">
         <v>0.04895739142393683</v>
@@ -9324,7 +9324,7 @@
         <v>0.9989089120624298</v>
       </c>
       <c r="D323">
-        <v>0.1537333853521925</v>
+        <v>0.4911829859205192</v>
       </c>
       <c r="E323">
         <v>0.03100300475957972</v>
@@ -9350,7 +9350,7 @@
         <v>0.9992877019296913</v>
       </c>
       <c r="D324">
-        <v>0.1192168627164768</v>
+        <v>0.4816374296206456</v>
       </c>
       <c r="E324">
         <v>0.02504983061930061</v>
@@ -9376,7 +9376,7 @@
         <v>0.9993419615641926</v>
       </c>
       <c r="D325">
-        <v>0.09526178164344934</v>
+        <v>0.4474159149772688</v>
       </c>
       <c r="E325">
         <v>0.02407684297636692</v>
@@ -9402,7 +9402,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D326">
-        <v>0.08134668205466788</v>
+        <v>0.4460495839497969</v>
       </c>
       <c r="E326">
         <v>0.02397438301374079</v>
@@ -9428,7 +9428,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D327">
-        <v>0.08134668205466788</v>
+        <v>0.4460495839497969</v>
       </c>
       <c r="E327">
         <v>0.02397438301374079</v>
@@ -9454,7 +9454,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D328">
-        <v>0.08134668205466788</v>
+        <v>0.4460495839497969</v>
       </c>
       <c r="E328">
         <v>0.02397438301374079</v>
@@ -9480,7 +9480,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D329">
-        <v>0.08134668205466788</v>
+        <v>0.4460495839497969</v>
       </c>
       <c r="E329">
         <v>0.02397438301374079</v>
@@ -9506,7 +9506,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D330">
-        <v>0.08134668205466788</v>
+        <v>0.4460495839497969</v>
       </c>
       <c r="E330">
         <v>0.02397438301374079</v>
@@ -9532,7 +9532,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D331">
-        <v>0.08134668205466788</v>
+        <v>0.4460495839497969</v>
       </c>
       <c r="E331">
         <v>0.02397438301374079</v>
@@ -9558,7 +9558,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D332">
-        <v>0.08134668205466788</v>
+        <v>0.4460495839497969</v>
       </c>
       <c r="E332">
         <v>0.02397438301374079</v>
@@ -9584,7 +9584,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D333">
-        <v>0.08134668205466788</v>
+        <v>0.4460495839497969</v>
       </c>
       <c r="E333">
         <v>0.02397438301374079</v>
@@ -9610,7 +9610,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D334">
-        <v>0.08134668205466788</v>
+        <v>0.4460495839497969</v>
       </c>
       <c r="E334">
         <v>0.02397438301374079</v>
@@ -9636,7 +9636,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D335">
-        <v>0.08134668205466788</v>
+        <v>0.4460495839497969</v>
       </c>
       <c r="E335">
         <v>0.02397438301374079</v>
@@ -9662,7 +9662,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D336">
-        <v>0.08134668205466788</v>
+        <v>0.4460495839497969</v>
       </c>
       <c r="E336">
         <v>0.02397438301374079</v>
@@ -9688,7 +9688,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D337">
-        <v>0.08134668205466788</v>
+        <v>0.4460495839497969</v>
       </c>
       <c r="E337">
         <v>0.02397438301374079</v>
@@ -9714,7 +9714,7 @@
         <v>0.6068198483694993</v>
       </c>
       <c r="D338">
-        <v>-1.811057057234966</v>
+        <v>0.03104591034730908</v>
       </c>
       <c r="E338">
         <v>0.5885314865450214</v>
@@ -9740,7 +9740,7 @@
         <v>0.701310987778943</v>
       </c>
       <c r="D339">
-        <v>-1.050954696014935</v>
+        <v>0.03392411618934865</v>
       </c>
       <c r="E339">
         <v>0.5129600382354474</v>
@@ -9766,7 +9766,7 @@
         <v>0.7690359871255171</v>
       </c>
       <c r="D340">
-        <v>-0.4842393133477829</v>
+        <v>0.09804289348808892</v>
       </c>
       <c r="E340">
         <v>0.4510722062941688</v>
@@ -9792,7 +9792,7 @@
         <v>0.8132408974580869</v>
       </c>
       <c r="D341">
-        <v>-0.1919723311565182</v>
+        <v>-0.1493370310749706</v>
       </c>
       <c r="E341">
         <v>0.4056157393773756</v>
@@ -9818,7 +9818,7 @@
         <v>0.8422412748510504</v>
       </c>
       <c r="D342">
-        <v>-0.1956139922579077</v>
+        <v>-0.5720968015259535</v>
       </c>
       <c r="E342">
         <v>0.3727954505543707</v>
@@ -9844,7 +9844,7 @@
         <v>0.8836994283458341</v>
       </c>
       <c r="D343">
-        <v>-0.02565305217928882</v>
+        <v>-0.4179133520237701</v>
       </c>
       <c r="E343">
         <v>0.3200846403075202</v>
@@ -9870,7 +9870,7 @@
         <v>0.9087726462632343</v>
       </c>
       <c r="D344">
-        <v>-0.03363060838665199</v>
+        <v>-0.3746429009590464</v>
       </c>
       <c r="E344">
         <v>0.2834891543204594</v>
@@ -9896,7 +9896,7 @@
         <v>0.9250720050546107</v>
       </c>
       <c r="D345">
-        <v>-0.008639382542249052</v>
+        <v>-0.4729551968157719</v>
       </c>
       <c r="E345">
         <v>0.2569188475763564</v>
@@ -9922,7 +9922,7 @@
         <v>0.946217146684346</v>
       </c>
       <c r="D346">
-        <v>0.03320507581939802</v>
+        <v>-0.4640762906868761</v>
       </c>
       <c r="E346">
         <v>0.2176686226558017</v>
@@ -9948,7 +9948,7 @@
         <v>0.9650678440434988</v>
       </c>
       <c r="D347">
-        <v>0.03900966479510182</v>
+        <v>-0.6544978377100907</v>
       </c>
       <c r="E347">
         <v>0.1754230287205645</v>
@@ -9974,7 +9974,7 @@
         <v>0.9822871115954988</v>
       </c>
       <c r="D348">
-        <v>0.01198168178105474</v>
+        <v>-0.7387581027325538</v>
       </c>
       <c r="E348">
         <v>0.1249161535803671</v>
@@ -10000,7 +10000,7 @@
         <v>0.9937686770198778</v>
       </c>
       <c r="D349">
-        <v>0.025656146311412</v>
+        <v>-0.7360249312149236</v>
       </c>
       <c r="E349">
         <v>0.07409075848044705</v>
@@ -10026,7 +10026,7 @@
         <v>0.9978701898597988</v>
       </c>
       <c r="D350">
-        <v>0.03439061849094949</v>
+        <v>-0.7003132060691186</v>
       </c>
       <c r="E350">
         <v>0.04331560203321827</v>
@@ -10052,7 +10052,7 @@
         <v>0.9992167821602411</v>
       </c>
       <c r="D351">
-        <v>0.006777132063399804</v>
+        <v>-0.4000576899292767</v>
       </c>
       <c r="E351">
         <v>0.02626728554720169</v>
@@ -10078,7 +10078,7 @@
         <v>0.9993405486026042</v>
       </c>
       <c r="D352">
-        <v>0.01426533127228691</v>
+        <v>-0.4011663442167259</v>
       </c>
       <c r="E352">
         <v>0.024102678406334</v>
@@ -10104,7 +10104,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D353">
-        <v>-0.002772659857622761</v>
+        <v>-0.4862212844571263</v>
       </c>
       <c r="E353">
         <v>0.02397438301374079</v>
@@ -10130,7 +10130,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D354">
-        <v>-0.002772659857622761</v>
+        <v>-0.4862212844571263</v>
       </c>
       <c r="E354">
         <v>0.02397438301374079</v>
@@ -10156,7 +10156,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D355">
-        <v>-0.002772659857622761</v>
+        <v>-0.4862212844571263</v>
       </c>
       <c r="E355">
         <v>0.02397438301374079</v>
@@ -10182,7 +10182,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D356">
-        <v>-0.002772659857622761</v>
+        <v>-0.4862212844571263</v>
       </c>
       <c r="E356">
         <v>0.02397438301374079</v>
@@ -10208,7 +10208,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D357">
-        <v>-0.002772659857622761</v>
+        <v>-0.4862212844571263</v>
       </c>
       <c r="E357">
         <v>0.02397438301374079</v>
@@ -10234,7 +10234,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D358">
-        <v>-0.002772659857622761</v>
+        <v>-0.4862212844571263</v>
       </c>
       <c r="E358">
         <v>0.02397438301374079</v>
@@ -10260,7 +10260,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D359">
-        <v>-0.002772659857622761</v>
+        <v>-0.4862212844571263</v>
       </c>
       <c r="E359">
         <v>0.02397438301374079</v>
@@ -10286,7 +10286,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D360">
-        <v>-0.002772659857622761</v>
+        <v>-0.4862212844571263</v>
       </c>
       <c r="E360">
         <v>0.02397438301374079</v>
@@ -10312,7 +10312,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D361">
-        <v>-0.002772659857622761</v>
+        <v>-0.4862212844571263</v>
       </c>
       <c r="E361">
         <v>0.02397438301374079</v>
@@ -10338,7 +10338,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D362">
-        <v>-0.002772659857622761</v>
+        <v>-0.4862212844571263</v>
       </c>
       <c r="E362">
         <v>0.02397438301374079</v>
@@ -10364,7 +10364,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D363">
-        <v>-0.002772659857622761</v>
+        <v>-0.4862212844571263</v>
       </c>
       <c r="E363">
         <v>0.02397438301374079</v>
@@ -10390,7 +10390,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D364">
-        <v>-0.002772659857622761</v>
+        <v>-0.4862212844571263</v>
       </c>
       <c r="E364">
         <v>0.02397438301374079</v>
@@ -10416,7 +10416,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D365">
-        <v>-0.002772659857622761</v>
+        <v>-0.4862212844571263</v>
       </c>
       <c r="E365">
         <v>0.02397438301374079</v>
@@ -10442,7 +10442,7 @@
         <v>0.6068198483694991</v>
       </c>
       <c r="D366">
-        <v>-1.81105705723497</v>
+        <v>0.03104591034731119</v>
       </c>
       <c r="E366">
         <v>0.5885314865450215</v>
@@ -10468,7 +10468,7 @@
         <v>0.701310987778943</v>
       </c>
       <c r="D367">
-        <v>-0.04257387555151304</v>
+        <v>0.1409182954188533</v>
       </c>
       <c r="E367">
         <v>0.5129600382354473</v>
@@ -10494,7 +10494,7 @@
         <v>0.7690359871255171</v>
       </c>
       <c r="D368">
-        <v>0.2034534539022742</v>
+        <v>0.2342049817359164</v>
       </c>
       <c r="E368">
         <v>0.4510722062941687</v>
@@ -10520,7 +10520,7 @@
         <v>0.8132408974580869</v>
       </c>
       <c r="D369">
-        <v>-0.7202378960127565</v>
+        <v>0.08419666891803135</v>
       </c>
       <c r="E369">
         <v>0.4056157393773756</v>
@@ -10546,7 +10546,7 @@
         <v>0.8422412748510504</v>
       </c>
       <c r="D370">
-        <v>0.3067528622849661</v>
+        <v>0.1011367945074638</v>
       </c>
       <c r="E370">
         <v>0.3727954505543706</v>
@@ -10572,7 +10572,7 @@
         <v>0.8836994283458341</v>
       </c>
       <c r="D371">
-        <v>-0.09996100955685905</v>
+        <v>-0.03236157386980221</v>
       </c>
       <c r="E371">
         <v>0.3200846403075202</v>
@@ -10598,7 +10598,7 @@
         <v>0.9076355565021715</v>
       </c>
       <c r="D372">
-        <v>-0.2121860767296497</v>
+        <v>-0.3348070146612725</v>
       </c>
       <c r="E372">
         <v>0.2852504371720055</v>
@@ -10624,7 +10624,7 @@
         <v>0.9222025922342301</v>
       </c>
       <c r="D373">
-        <v>-0.1823585060572748</v>
+        <v>-0.2867806952690559</v>
       </c>
       <c r="E373">
         <v>0.2617920614515102</v>
@@ -10650,7 +10650,7 @@
         <v>0.9333368038095093</v>
       </c>
       <c r="D374">
-        <v>-0.1449600241559579</v>
+        <v>-0.4194201815598633</v>
       </c>
       <c r="E374">
         <v>0.2423354647078675</v>
@@ -10676,7 +10676,7 @@
         <v>0.9479847168164048</v>
       </c>
       <c r="D375">
-        <v>-0.1656908585323917</v>
+        <v>-0.7036928389475461</v>
       </c>
       <c r="E375">
         <v>0.2140619086071773</v>
@@ -10702,7 +10702,7 @@
         <v>0.9678541026504426</v>
       </c>
       <c r="D376">
-        <v>-0.1519766435620131</v>
+        <v>-0.7080711644826938</v>
       </c>
       <c r="E376">
         <v>0.1682816208931882</v>
@@ -10728,7 +10728,7 @@
         <v>0.978023142210623</v>
       </c>
       <c r="D377">
-        <v>-0.155008851516214</v>
+        <v>-0.6953577229625671</v>
       </c>
       <c r="E377">
         <v>0.1391415088948962</v>
@@ -10754,7 +10754,7 @@
         <v>0.9895985936772717</v>
       </c>
       <c r="D378">
-        <v>-0.1464464520937225</v>
+        <v>-0.7195822549956588</v>
       </c>
       <c r="E378">
         <v>0.09572380221615026</v>
@@ -10780,7 +10780,7 @@
         <v>0.9962313575594539</v>
       </c>
       <c r="D379">
-        <v>-0.1454839528019087</v>
+        <v>-0.74802887003915</v>
       </c>
       <c r="E379">
         <v>0.05761908761350679</v>
@@ -10806,7 +10806,7 @@
         <v>0.9987994930162355</v>
       </c>
       <c r="D380">
-        <v>-0.1580922794405111</v>
+        <v>-0.7148057648315937</v>
       </c>
       <c r="E380">
         <v>0.03252042818374649</v>
@@ -10832,7 +10832,7 @@
         <v>0.9992946734106415</v>
       </c>
       <c r="D381">
-        <v>-0.1392264415684978</v>
+        <v>-0.7618216615569415</v>
       </c>
       <c r="E381">
         <v>0.0249269439876847</v>
@@ -10858,7 +10858,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D382">
-        <v>-0.1352638845653373</v>
+        <v>-0.7745580379376356</v>
       </c>
       <c r="E382">
         <v>0.02397438301374079</v>
@@ -10884,7 +10884,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D383">
-        <v>-0.1399281260008449</v>
+        <v>-0.7631801981706425</v>
       </c>
       <c r="E383">
         <v>0.02397438301374079</v>
@@ -10910,7 +10910,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D384">
-        <v>-0.1399281260008449</v>
+        <v>-0.7631801981706425</v>
       </c>
       <c r="E384">
         <v>0.02397438301374079</v>
@@ -10936,7 +10936,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D385">
-        <v>-0.1399281260008449</v>
+        <v>-0.7631801981706425</v>
       </c>
       <c r="E385">
         <v>0.02397438301374079</v>
@@ -10962,7 +10962,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D386">
-        <v>-0.1399281260008449</v>
+        <v>-0.7631801981706425</v>
       </c>
       <c r="E386">
         <v>0.02397438301374079</v>
@@ -10988,7 +10988,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D387">
-        <v>-0.1399281260008449</v>
+        <v>-0.7631801981706425</v>
       </c>
       <c r="E387">
         <v>0.02397438301374079</v>
@@ -11014,7 +11014,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D388">
-        <v>-0.1399281260008449</v>
+        <v>-0.7631801981706425</v>
       </c>
       <c r="E388">
         <v>0.02397438301374079</v>
@@ -11040,7 +11040,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D389">
-        <v>-0.1399281260008449</v>
+        <v>-0.7631801981706425</v>
       </c>
       <c r="E389">
         <v>0.02397438301374079</v>
@@ -11066,7 +11066,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D390">
-        <v>-0.1399281260008449</v>
+        <v>-0.7631801981706425</v>
       </c>
       <c r="E390">
         <v>0.02397438301374079</v>
@@ -11092,7 +11092,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D391">
-        <v>-0.1399281260008449</v>
+        <v>-0.7631801981706425</v>
       </c>
       <c r="E391">
         <v>0.02397438301374079</v>
@@ -11118,7 +11118,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D392">
-        <v>-0.1399281260008449</v>
+        <v>-0.7631801981706425</v>
       </c>
       <c r="E392">
         <v>0.02397438301374079</v>
@@ -11144,7 +11144,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D393">
-        <v>-0.1399281260008449</v>
+        <v>-0.7631801981706425</v>
       </c>
       <c r="E393">
         <v>0.02397438301374079</v>
@@ -11170,7 +11170,7 @@
         <v>0.6068198483694993</v>
       </c>
       <c r="D394">
-        <v>-1.811057057234964</v>
+        <v>0.03104591034730908</v>
       </c>
       <c r="E394">
         <v>0.5885314865450214</v>
@@ -11196,7 +11196,7 @@
         <v>0.701310987778943</v>
       </c>
       <c r="D395">
-        <v>-0.04257387555151304</v>
+        <v>0.1409182954188534</v>
       </c>
       <c r="E395">
         <v>0.5129600382354474</v>
@@ -11222,7 +11222,7 @@
         <v>0.7690359871255171</v>
       </c>
       <c r="D396">
-        <v>-0.4842393133477831</v>
+        <v>0.09804289348809092</v>
       </c>
       <c r="E396">
         <v>0.4510722062941687</v>
@@ -11248,7 +11248,7 @@
         <v>0.8132408974580869</v>
       </c>
       <c r="D397">
-        <v>-0.1713050738516784</v>
+        <v>0.1782396487877966</v>
       </c>
       <c r="E397">
         <v>0.4056157393773756</v>
@@ -11274,7 +11274,7 @@
         <v>0.8422412748510504</v>
       </c>
       <c r="D398">
-        <v>-0.02510446186776738</v>
+        <v>-0.0008700374285632861</v>
       </c>
       <c r="E398">
         <v>0.3727954505543706</v>
@@ -11300,7 +11300,7 @@
         <v>0.8809165967985834</v>
       </c>
       <c r="D399">
-        <v>0.1923833783556719</v>
+        <v>0.004006824754835492</v>
       </c>
       <c r="E399">
         <v>0.323891483357516</v>
@@ -11326,7 +11326,7 @@
         <v>0.903700843658001</v>
       </c>
       <c r="D400">
-        <v>0.02565562469528082</v>
+        <v>0.1896191838212223</v>
       </c>
       <c r="E400">
         <v>0.2912628876587863</v>
@@ -11352,7 +11352,7 @@
         <v>0.9159016364162109</v>
       </c>
       <c r="D401">
-        <v>0.1677667516347933</v>
+        <v>0.3550622759373199</v>
       </c>
       <c r="E401">
         <v>0.2721871901721886</v>
@@ -11378,7 +11378,7 @@
         <v>0.9260594080460031</v>
       </c>
       <c r="D402">
-        <v>0.1137952373859905</v>
+        <v>0.3182923729903281</v>
       </c>
       <c r="E402">
         <v>0.2552203919469992</v>
@@ -11404,7 +11404,7 @@
         <v>0.9349915471681906</v>
       </c>
       <c r="D403">
-        <v>0.1630381429778955</v>
+        <v>0.3410243875383072</v>
       </c>
       <c r="E403">
         <v>0.2393088858389174</v>
@@ -11430,7 +11430,7 @@
         <v>0.9442193987375324</v>
       </c>
       <c r="D404">
-        <v>0.1271327047893456</v>
+        <v>0.2906243056512153</v>
       </c>
       <c r="E404">
         <v>0.221674381471437</v>
@@ -11456,7 +11456,7 @@
         <v>0.9543344939435003</v>
       </c>
       <c r="D405">
-        <v>0.04351564226685989</v>
+        <v>0.2399251556721771</v>
       </c>
       <c r="E405">
         <v>0.2005709571952799</v>
@@ -11482,7 +11482,7 @@
         <v>0.9728399366080883</v>
       </c>
       <c r="D406">
-        <v>0.05753292307830427</v>
+        <v>0.245676462412147</v>
       </c>
       <c r="E406">
         <v>0.1546818292514276</v>
@@ -11508,7 +11508,7 @@
         <v>0.9889184545496581</v>
       </c>
       <c r="D407">
-        <v>0.03457511424278581</v>
+        <v>0.1612954163143034</v>
       </c>
       <c r="E407">
         <v>0.09880389733525533</v>
@@ -11534,7 +11534,7 @@
         <v>0.9950377084187643</v>
       </c>
       <c r="D408">
-        <v>0.02609154468281882</v>
+        <v>0.2268560342870766</v>
       </c>
       <c r="E408">
         <v>0.06611729076172092</v>
@@ -11560,7 +11560,7 @@
         <v>0.9977249191802658</v>
       </c>
       <c r="D409">
-        <v>0.04372707497751938</v>
+        <v>0.2485707172033702</v>
       </c>
       <c r="E409">
         <v>0.04476847742352043</v>
@@ -11586,7 +11586,7 @@
         <v>0.9990638327464315</v>
       </c>
       <c r="D410">
-        <v>0.0450667097057682</v>
+        <v>0.2358310608763432</v>
       </c>
       <c r="E410">
         <v>0.02871776468862244</v>
@@ -11612,7 +11612,7 @@
         <v>0.9993417410759621</v>
       </c>
       <c r="D411">
-        <v>0.05249256281484982</v>
+        <v>0.2452599333179527</v>
       </c>
       <c r="E411">
         <v>0.02408087633946552</v>
@@ -11638,7 +11638,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D412">
-        <v>0.05102319452608528</v>
+        <v>0.2220049335230939</v>
       </c>
       <c r="E412">
         <v>0.02397438301374079</v>
@@ -11664,7 +11664,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D413">
-        <v>0.05102319452608528</v>
+        <v>0.2220049335230939</v>
       </c>
       <c r="E413">
         <v>0.02397438301374079</v>
@@ -11690,7 +11690,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D414">
-        <v>0.05102319452608528</v>
+        <v>0.2220049335230939</v>
       </c>
       <c r="E414">
         <v>0.02397438301374079</v>
@@ -11716,7 +11716,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D415">
-        <v>0.05102319452608528</v>
+        <v>0.2220049335230939</v>
       </c>
       <c r="E415">
         <v>0.02397438301374079</v>
@@ -11742,7 +11742,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D416">
-        <v>0.05102319452608528</v>
+        <v>0.2220049335230939</v>
       </c>
       <c r="E416">
         <v>0.02397438301374079</v>
@@ -11768,7 +11768,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D417">
-        <v>0.05102319452608528</v>
+        <v>0.2220049335230939</v>
       </c>
       <c r="E417">
         <v>0.02397438301374079</v>
@@ -11794,7 +11794,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D418">
-        <v>0.05102319452608528</v>
+        <v>0.2220049335230939</v>
       </c>
       <c r="E418">
         <v>0.02397438301374079</v>
@@ -11820,7 +11820,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D419">
-        <v>0.05102319452608528</v>
+        <v>0.2220049335230939</v>
       </c>
       <c r="E419">
         <v>0.02397438301374079</v>
@@ -11846,7 +11846,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D420">
-        <v>0.05102319452608528</v>
+        <v>0.2220049335230939</v>
       </c>
       <c r="E420">
         <v>0.02397438301374079</v>
@@ -11872,7 +11872,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D421">
-        <v>0.05102319452608528</v>
+        <v>0.2220049335230939</v>
       </c>
       <c r="E421">
         <v>0.02397438301374079</v>
@@ -11898,7 +11898,7 @@
         <v>0.6054589293663872</v>
       </c>
       <c r="D422">
-        <v>0.2122668586017499</v>
+        <v>0.3865700740567602</v>
       </c>
       <c r="E422">
         <v>0.5895491521095663</v>
@@ -11924,7 +11924,7 @@
         <v>0.6984461507055959</v>
       </c>
       <c r="D423">
-        <v>0.4980323370989418</v>
+        <v>0.3456529508303194</v>
       </c>
       <c r="E423">
         <v>0.5154141626431735</v>
@@ -11950,7 +11950,7 @@
         <v>0.757495173559586</v>
       </c>
       <c r="D424">
-        <v>0.461986129113102</v>
+        <v>0.335974064005281</v>
       </c>
       <c r="E424">
         <v>0.4622044292961879</v>
@@ -11976,7 +11976,7 @@
         <v>0.7992829590251349</v>
       </c>
       <c r="D425">
-        <v>0.6184079223633259</v>
+        <v>0.4473991375631283</v>
       </c>
       <c r="E425">
         <v>0.4205000314905598</v>
@@ -12002,7 +12002,7 @@
         <v>0.8234233626317666</v>
       </c>
       <c r="D426">
-        <v>0.6473107038250767</v>
+        <v>0.4878526703485516</v>
       </c>
       <c r="E426">
         <v>0.3944032915649249</v>
@@ -12028,7 +12028,7 @@
         <v>0.8651757386183008</v>
       </c>
       <c r="D427">
-        <v>0.63485261580042</v>
+        <v>0.4471299738446717</v>
       </c>
       <c r="E427">
         <v>0.3446338523030155</v>
@@ -12054,7 +12054,7 @@
         <v>0.8824017171488876</v>
       </c>
       <c r="D428">
-        <v>0.6517680534793955</v>
+        <v>0.4721993047465456</v>
       </c>
       <c r="E428">
         <v>0.321865479017684</v>
@@ -12080,7 +12080,7 @@
         <v>0.8987964707090403</v>
       </c>
       <c r="D429">
-        <v>0.6695457334173045</v>
+        <v>0.5269256342518482</v>
       </c>
       <c r="E429">
         <v>0.2985875798657811</v>
@@ -12106,7 +12106,7 @@
         <v>0.9262446129424089</v>
       </c>
       <c r="D430">
-        <v>0.7067673566499734</v>
+        <v>0.5775421812425681</v>
       </c>
       <c r="E430">
         <v>0.2549005561088448</v>
@@ -12132,7 +12132,7 @@
         <v>0.9634593972522081</v>
       </c>
       <c r="D431">
-        <v>0.6607659449546694</v>
+        <v>0.4850374458958624</v>
       </c>
       <c r="E431">
         <v>0.1794162450316629</v>
@@ -12158,7 +12158,7 @@
         <v>0.9793962643479015</v>
       </c>
       <c r="D432">
-        <v>0.5464022517351237</v>
+        <v>0.1944610839578444</v>
       </c>
       <c r="E432">
         <v>0.1347245973586561</v>
@@ -12184,7 +12184,7 @@
         <v>0.9908803279356421</v>
       </c>
       <c r="D433">
-        <v>0.5336424681516905</v>
+        <v>0.1775319084744696</v>
       </c>
       <c r="E433">
         <v>0.08963208945889245</v>
@@ -12210,7 +12210,7 @@
         <v>0.9948476288534268</v>
       </c>
       <c r="D434">
-        <v>0.532738808146215</v>
+        <v>0.1810550759434869</v>
       </c>
       <c r="E434">
         <v>0.06737169586872106</v>
@@ -12236,7 +12236,7 @@
         <v>0.997580088595318</v>
       </c>
       <c r="D435">
-        <v>0.5299437951397578</v>
+        <v>0.1627206367920121</v>
       </c>
       <c r="E435">
         <v>0.04617146373992314</v>
@@ -12262,7 +12262,7 @@
         <v>0.999096484683247</v>
       </c>
       <c r="D436">
-        <v>0.5314700802310393</v>
+        <v>0.1632730661945974</v>
       </c>
       <c r="E436">
         <v>0.02821250631979837</v>
@@ -12288,7 +12288,7 @@
         <v>0.9993422261738449</v>
       </c>
       <c r="D437">
-        <v>0.5312337861069087</v>
+        <v>0.1643385626174636</v>
       </c>
       <c r="E437">
         <v>0.02407200161353628</v>
@@ -12314,7 +12314,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D438">
-        <v>0.5312337861069087</v>
+        <v>0.1643385626174636</v>
       </c>
       <c r="E438">
         <v>0.02397438301374079</v>
@@ -12340,7 +12340,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D439">
-        <v>0.5312337861069087</v>
+        <v>0.1643385626174636</v>
       </c>
       <c r="E439">
         <v>0.02397438301374079</v>
@@ -12366,7 +12366,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D440">
-        <v>0.5312337861069087</v>
+        <v>0.1643385626174636</v>
       </c>
       <c r="E440">
         <v>0.02397438301374079</v>
@@ -12392,7 +12392,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D441">
-        <v>0.5312337861069087</v>
+        <v>0.1643385626174636</v>
       </c>
       <c r="E441">
         <v>0.02397438301374079</v>
@@ -12418,7 +12418,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D442">
-        <v>0.5312337861069087</v>
+        <v>0.1643385626174636</v>
       </c>
       <c r="E442">
         <v>0.02397438301374079</v>
@@ -12444,7 +12444,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D443">
-        <v>0.5312337861069087</v>
+        <v>0.1643385626174636</v>
       </c>
       <c r="E443">
         <v>0.02397438301374079</v>
@@ -12470,7 +12470,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D444">
-        <v>0.5312337861069087</v>
+        <v>0.1643385626174636</v>
       </c>
       <c r="E444">
         <v>0.02397438301374079</v>
@@ -12496,7 +12496,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D445">
-        <v>0.5312337861069087</v>
+        <v>0.1643385626174636</v>
       </c>
       <c r="E445">
         <v>0.02397438301374079</v>
@@ -12522,7 +12522,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D446">
-        <v>0.5312337861069087</v>
+        <v>0.1643385626174636</v>
       </c>
       <c r="E446">
         <v>0.02397438301374079</v>
@@ -12548,7 +12548,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D447">
-        <v>0.5312337861069087</v>
+        <v>0.1643385626174636</v>
       </c>
       <c r="E447">
         <v>0.02397438301374079</v>
@@ -12574,7 +12574,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D448">
-        <v>0.5312337861069087</v>
+        <v>0.1643385626174636</v>
       </c>
       <c r="E448">
         <v>0.02397438301374079</v>
@@ -12600,7 +12600,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D449">
-        <v>0.5312337861069087</v>
+        <v>0.1643385626174636</v>
       </c>
       <c r="E449">
         <v>0.02397438301374079</v>
@@ -12626,7 +12626,7 @@
         <v>0.595159690201799</v>
       </c>
       <c r="D450">
-        <v>0.1810945785238226</v>
+        <v>0.392013388740814</v>
       </c>
       <c r="E450">
         <v>0.597194478891814</v>
@@ -12652,7 +12652,7 @@
         <v>0.674917536059185</v>
       </c>
       <c r="D451">
-        <v>0.4618270240795387</v>
+        <v>0.4093441932380307</v>
       </c>
       <c r="E451">
         <v>0.5351440254029955</v>
@@ -12678,7 +12678,7 @@
         <v>0.7267675913151452</v>
       </c>
       <c r="D452">
-        <v>0.4835430314900449</v>
+        <v>0.3756589360915743</v>
       </c>
       <c r="E452">
         <v>0.4906140882585134</v>
@@ -12704,7 +12704,7 @@
         <v>0.7741874734750118</v>
       </c>
       <c r="D453">
-        <v>0.6232258883793269</v>
+        <v>0.4952336657186828</v>
       </c>
       <c r="E453">
         <v>0.4460134183437457</v>
@@ -12730,7 +12730,7 @@
         <v>0.8165312308364702</v>
       </c>
       <c r="D454">
-        <v>0.6051668281236735</v>
+        <v>0.5815025560867868</v>
       </c>
       <c r="E454">
         <v>0.4020267799581678</v>
@@ -12756,7 +12756,7 @@
         <v>0.8315657645180761</v>
       </c>
       <c r="D455">
-        <v>0.632473649651228</v>
+        <v>0.4540595680124506</v>
       </c>
       <c r="E455">
         <v>0.3852024977588581</v>
@@ -12782,7 +12782,7 @@
         <v>0.8603611005881746</v>
       </c>
       <c r="D456">
-        <v>0.6341089619242065</v>
+        <v>0.6335105291305598</v>
       </c>
       <c r="E456">
         <v>0.3507333943688293</v>
@@ -12808,7 +12808,7 @@
         <v>0.8933168771463676</v>
       </c>
       <c r="D457">
-        <v>0.6687080677115778</v>
+        <v>0.5349944757559112</v>
       </c>
       <c r="E457">
         <v>0.3065644345943868</v>
@@ -12834,7 +12834,7 @@
         <v>0.9193693256760196</v>
       </c>
       <c r="D458">
-        <v>0.6400694505003511</v>
+        <v>0.6445996890821575</v>
       </c>
       <c r="E458">
         <v>0.266516471987564</v>
@@ -12860,7 +12860,7 @@
         <v>0.9605135496584778</v>
       </c>
       <c r="D459">
-        <v>0.6116305424773117</v>
+        <v>0.4656925184412495</v>
       </c>
       <c r="E459">
         <v>0.1865082112414614</v>
@@ -12886,7 +12886,7 @@
         <v>0.9727076144026866</v>
       </c>
       <c r="D460">
-        <v>0.6220425510959117</v>
+        <v>0.5055266449512464</v>
       </c>
       <c r="E460">
         <v>0.1550581717419848</v>
@@ -12912,7 +12912,7 @@
         <v>0.9873508232209383</v>
       </c>
       <c r="D461">
-        <v>0.6330453861015888</v>
+        <v>0.4970391335691032</v>
       </c>
       <c r="E461">
         <v>0.1055613755475574</v>
@@ -12938,7 +12938,7 @@
         <v>0.9926722589395394</v>
       </c>
       <c r="D462">
-        <v>0.5796760815628343</v>
+        <v>0.5964211737946312</v>
       </c>
       <c r="E462">
         <v>0.08034502068208157</v>
@@ -12964,7 +12964,7 @@
         <v>0.9968279755616792</v>
       </c>
       <c r="D463">
-        <v>0.4959049753147671</v>
+        <v>0.5050478531391749</v>
       </c>
       <c r="E463">
         <v>0.05286182736179059</v>
@@ -12990,7 +12990,7 @@
         <v>0.9988182003927998</v>
       </c>
       <c r="D464">
-        <v>0.548711661800332</v>
+        <v>0.3755302429360433</v>
       </c>
       <c r="E464">
         <v>0.03226605207373271</v>
@@ -13016,7 +13016,7 @@
         <v>0.9989991609365398</v>
       </c>
       <c r="D465">
-        <v>0.5481778469587588</v>
+        <v>0.3701714544050411</v>
       </c>
       <c r="E465">
         <v>0.02969313368952147</v>
@@ -13042,7 +13042,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D466">
-        <v>0.4742101181226999</v>
+        <v>0.4679647894438684</v>
       </c>
       <c r="E466">
         <v>0.02397438301374079</v>
@@ -13068,7 +13068,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D467">
-        <v>0.4742101181226999</v>
+        <v>0.4679647894438684</v>
       </c>
       <c r="E467">
         <v>0.02397438301374079</v>
@@ -13094,7 +13094,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D468">
-        <v>0.4742101181226999</v>
+        <v>0.4679647894438684</v>
       </c>
       <c r="E468">
         <v>0.02397438301374079</v>
@@ -13120,7 +13120,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D469">
-        <v>0.4742101181226999</v>
+        <v>0.4679647894438684</v>
       </c>
       <c r="E469">
         <v>0.02397438301374079</v>
@@ -13146,7 +13146,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D470">
-        <v>0.4742101181226999</v>
+        <v>0.4679647894438684</v>
       </c>
       <c r="E470">
         <v>0.02397438301374079</v>
@@ -13172,7 +13172,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D471">
-        <v>0.4742101181226999</v>
+        <v>0.4679647894438684</v>
       </c>
       <c r="E471">
         <v>0.02397438301374079</v>
@@ -13198,7 +13198,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D472">
-        <v>0.4742101181226999</v>
+        <v>0.4679647894438684</v>
       </c>
       <c r="E472">
         <v>0.02397438301374079</v>
@@ -13224,7 +13224,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D473">
-        <v>0.4742101181226999</v>
+        <v>0.4679647894438684</v>
       </c>
       <c r="E473">
         <v>0.02397438301374079</v>
@@ -13250,7 +13250,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D474">
-        <v>0.4742101181226999</v>
+        <v>0.4679647894438684</v>
       </c>
       <c r="E474">
         <v>0.02397438301374079</v>
@@ -13276,7 +13276,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D475">
-        <v>0.4742101181226999</v>
+        <v>0.4679647894438684</v>
       </c>
       <c r="E475">
         <v>0.02397438301374079</v>
@@ -13302,7 +13302,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D476">
-        <v>0.4742101181226999</v>
+        <v>0.4679647894438684</v>
       </c>
       <c r="E476">
         <v>0.02397438301374079</v>
@@ -13328,7 +13328,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D477">
-        <v>0.4742101181226999</v>
+        <v>0.4679647894438684</v>
       </c>
       <c r="E477">
         <v>0.02397438301374079</v>
@@ -13354,7 +13354,7 @@
         <v>0.595159690201799</v>
       </c>
       <c r="D478">
-        <v>0.1810945785238226</v>
+        <v>0.392013388740814</v>
       </c>
       <c r="E478">
         <v>0.597194478891814</v>
@@ -13380,7 +13380,7 @@
         <v>0.674917536059185</v>
       </c>
       <c r="D479">
-        <v>0.4618270240795387</v>
+        <v>0.4093441932380307</v>
       </c>
       <c r="E479">
         <v>0.5351440254029955</v>
@@ -13406,7 +13406,7 @@
         <v>0.7267675913151452</v>
       </c>
       <c r="D480">
-        <v>0.4835430314900449</v>
+        <v>0.3756589360915743</v>
       </c>
       <c r="E480">
         <v>0.4906140882585134</v>
@@ -13432,7 +13432,7 @@
         <v>0.7741874734750118</v>
       </c>
       <c r="D481">
-        <v>0.6232258883793269</v>
+        <v>0.4952336657186828</v>
       </c>
       <c r="E481">
         <v>0.4460134183437457</v>
@@ -13458,7 +13458,7 @@
         <v>0.8165312308364702</v>
       </c>
       <c r="D482">
-        <v>0.6051668281236735</v>
+        <v>0.5815025560867868</v>
       </c>
       <c r="E482">
         <v>0.4020267799581678</v>
@@ -13484,7 +13484,7 @@
         <v>0.8315657645180761</v>
       </c>
       <c r="D483">
-        <v>0.632473649651228</v>
+        <v>0.4540595680124506</v>
       </c>
       <c r="E483">
         <v>0.3852024977588581</v>
@@ -13510,7 +13510,7 @@
         <v>0.8603611005881746</v>
       </c>
       <c r="D484">
-        <v>0.6341089619242065</v>
+        <v>0.6335105291305598</v>
       </c>
       <c r="E484">
         <v>0.3507333943688293</v>
@@ -13536,7 +13536,7 @@
         <v>0.8933168771463676</v>
       </c>
       <c r="D485">
-        <v>0.6687080677115778</v>
+        <v>0.5349944757559112</v>
       </c>
       <c r="E485">
         <v>0.3065644345943868</v>
@@ -13562,7 +13562,7 @@
         <v>0.9193693256760196</v>
       </c>
       <c r="D486">
-        <v>0.6400694505003511</v>
+        <v>0.6445996890821575</v>
       </c>
       <c r="E486">
         <v>0.266516471987564</v>
@@ -13588,7 +13588,7 @@
         <v>0.9605135496584778</v>
       </c>
       <c r="D487">
-        <v>0.6116305424773117</v>
+        <v>0.4656925184412495</v>
       </c>
       <c r="E487">
         <v>0.1865082112414614</v>
@@ -13614,7 +13614,7 @@
         <v>0.9727076144026866</v>
       </c>
       <c r="D488">
-        <v>0.6220425510959117</v>
+        <v>0.5055266449512464</v>
       </c>
       <c r="E488">
         <v>0.1550581717419848</v>
@@ -13640,7 +13640,7 @@
         <v>0.9873508232209383</v>
       </c>
       <c r="D489">
-        <v>0.6330453861015888</v>
+        <v>0.4970391335691032</v>
       </c>
       <c r="E489">
         <v>0.1055613755475574</v>
@@ -13666,7 +13666,7 @@
         <v>0.9926722589395394</v>
       </c>
       <c r="D490">
-        <v>0.5796760815628343</v>
+        <v>0.5964211737946312</v>
       </c>
       <c r="E490">
         <v>0.08034502068208157</v>
@@ -13692,7 +13692,7 @@
         <v>0.9968279755616792</v>
       </c>
       <c r="D491">
-        <v>0.4959049753147671</v>
+        <v>0.5050478531391749</v>
       </c>
       <c r="E491">
         <v>0.05286182736179059</v>
@@ -13718,7 +13718,7 @@
         <v>0.9988182003927998</v>
       </c>
       <c r="D492">
-        <v>0.548711661800332</v>
+        <v>0.3755302429360433</v>
       </c>
       <c r="E492">
         <v>0.03226605207373271</v>
@@ -13744,7 +13744,7 @@
         <v>0.9989991609365398</v>
       </c>
       <c r="D493">
-        <v>0.5481778469587588</v>
+        <v>0.3701714544050411</v>
       </c>
       <c r="E493">
         <v>0.02969313368952147</v>
@@ -13770,7 +13770,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D494">
-        <v>0.4742101181226999</v>
+        <v>0.4679647894438684</v>
       </c>
       <c r="E494">
         <v>0.02397438301374079</v>
@@ -13796,7 +13796,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D495">
-        <v>0.4742101181226999</v>
+        <v>0.4679647894438684</v>
       </c>
       <c r="E495">
         <v>0.02397438301374079</v>
@@ -13822,7 +13822,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D496">
-        <v>0.4742101181226999</v>
+        <v>0.4679647894438684</v>
       </c>
       <c r="E496">
         <v>0.02397438301374079</v>
@@ -13848,7 +13848,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D497">
-        <v>0.4742101181226999</v>
+        <v>0.4679647894438684</v>
       </c>
       <c r="E497">
         <v>0.02397438301374079</v>
@@ -13874,7 +13874,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D498">
-        <v>0.4742101181226999</v>
+        <v>0.4679647894438684</v>
       </c>
       <c r="E498">
         <v>0.02397438301374079</v>
@@ -13900,7 +13900,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D499">
-        <v>0.4742101181226999</v>
+        <v>0.4679647894438684</v>
       </c>
       <c r="E499">
         <v>0.02397438301374079</v>
@@ -13926,7 +13926,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D500">
-        <v>0.4742101181226999</v>
+        <v>0.4679647894438684</v>
       </c>
       <c r="E500">
         <v>0.02397438301374079</v>
@@ -13952,7 +13952,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D501">
-        <v>0.4742101181226999</v>
+        <v>0.4679647894438684</v>
       </c>
       <c r="E501">
         <v>0.02397438301374079</v>
@@ -13978,7 +13978,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D502">
-        <v>0.4742101181226999</v>
+        <v>0.4679647894438684</v>
       </c>
       <c r="E502">
         <v>0.02397438301374079</v>
@@ -14004,7 +14004,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D503">
-        <v>0.4742101181226999</v>
+        <v>0.4679647894438684</v>
       </c>
       <c r="E503">
         <v>0.02397438301374079</v>
@@ -14030,7 +14030,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D504">
-        <v>0.4742101181226999</v>
+        <v>0.4679647894438684</v>
       </c>
       <c r="E504">
         <v>0.02397438301374079</v>
@@ -14056,7 +14056,7 @@
         <v>0.9993475502648244</v>
       </c>
       <c r="D505">
-        <v>0.4742101181226999</v>
+        <v>0.4679647894438684</v>
       </c>
       <c r="E505">
         <v>0.02397438301374079</v>
@@ -14082,7 +14082,7 @@
         <v>0.5951596902017989</v>
       </c>
       <c r="D506">
-        <v>0.1810945785238215</v>
+        <v>0.3920133887408142</v>
       </c>
       <c r="E506">
         <v>0.597194478891814</v>
@@ -14108,7 +14108,7 @@
         <v>0.6452930876344857</v>
       </c>
       <c r="D507">
-        <v>0.3381641853108851</v>
+        <v>0.4302891585520457</v>
       </c>
       <c r="E507">
         <v>0.5589960456222245</v>
@@ -14134,7 +14134,7 @@
         <v>0.6915334812071681</v>
       </c>
       <c r="D508">
-        <v>0.5230185754664785</v>
+        <v>0.5331347929295627</v>
       </c>
       <c r="E508">
         <v>0.5212882379314679</v>
@@ -14160,7 +14160,7 @@
         <v>0.7538429298685227</v>
       </c>
       <c r="D509">
-        <v>0.6383212601068697</v>
+        <v>0.6951277366853265</v>
       </c>
       <c r="E509">
         <v>0.4656719371536081</v>
@@ -14186,7 +14186,7 @@
         <v>0.8180229617017184</v>
       </c>
       <c r="D510">
-        <v>0.3835066769007519</v>
+        <v>0.3324047022285024</v>
       </c>
       <c r="E510">
         <v>0.4003890631726568</v>
@@ -14212,7 +14212,7 @@
         <v>0.8305162893302005</v>
       </c>
       <c r="D511">
-        <v>0.4488159766274999</v>
+        <v>0.4806398646796921</v>
       </c>
       <c r="E511">
         <v>0.3864006885635028</v>
@@ -14238,7 +14238,7 @@
         <v>0.8479992598028183</v>
       </c>
       <c r="D512">
-        <v>0.5420185105064129</v>
+        <v>0.4475789986871381</v>
       </c>
       <c r="E512">
         <v>0.3659289429582985</v>
@@ -14264,7 +14264,7 @@
         <v>0.8557875956447414</v>
       </c>
       <c r="D513">
-        <v>0.5460823713521317</v>
+        <v>0.4450997658329592</v>
       </c>
       <c r="E513">
         <v>0.3564307943876919</v>
@@ -14290,7 +14290,7 @@
         <v>0.8747550363139656</v>
       </c>
       <c r="D514">
-        <v>0.3470957465342124</v>
+        <v>0.2775967020904586</v>
       </c>
       <c r="E514">
         <v>0.3321651346848185</v>
@@ -14316,7 +14316,7 @@
         <v>0.8866237286712912</v>
       </c>
       <c r="D515">
-        <v>0.5381880474727211</v>
+        <v>0.4565411045586336</v>
       </c>
       <c r="E515">
         <v>0.3160348635786535</v>
@@ -14342,7 +14342,7 @@
         <v>0.8987592636605862</v>
       </c>
       <c r="D516">
-        <v>0.362171281895409</v>
+        <v>0.3526140772370649</v>
       </c>
       <c r="E516">
         <v>0.2986424620508266</v>
@@ -14368,7 +14368,7 @@
         <v>0.9107469069110773</v>
       </c>
       <c r="D517">
-        <v>0.2852376727422512</v>
+        <v>0.3567773072657083</v>
       </c>
       <c r="E517">
         <v>0.2804048670718358</v>
@@ -14394,7 +14394,7 @@
         <v>0.941805929400031</v>
       </c>
       <c r="D518">
-        <v>0.0387467938417605</v>
+        <v>0.2390637966872791</v>
       </c>
       <c r="E518">
         <v>0.226419213783871</v>
@@ -14420,7 +14420,7 @@
         <v>0.9518938970171819</v>
       </c>
       <c r="D519">
-        <v>0.2930969452750148</v>
+        <v>0.2337557424837939</v>
       </c>
       <c r="E519">
         <v>0.2058609620594527</v>
@@ -14446,7 +14446,7 @@
         <v>0.9573214824706835</v>
       </c>
       <c r="D520">
-        <v>0.3128810212222255</v>
+        <v>0.2326846366482164</v>
       </c>
       <c r="E520">
         <v>0.1939003408269099</v>
@@ -14472,7 +14472,7 @@
         <v>0.9644565965383779</v>
       </c>
       <c r="D521">
-        <v>0.2341295252046089</v>
+        <v>0.1916308218170589</v>
       </c>
       <c r="E521">
         <v>0.1769511605764729</v>
@@ -14498,7 +14498,7 @@
         <v>0.9646933631356528</v>
       </c>
       <c r="D522">
-        <v>0.442302278539016</v>
+        <v>0.3697668507048568</v>
       </c>
       <c r="E522">
         <v>0.1763608101246903</v>
@@ -14524,7 +14524,7 @@
         <v>0.965302867945291</v>
       </c>
       <c r="D523">
-        <v>0.07625012952477084</v>
+        <v>0.2576526701668675</v>
       </c>
       <c r="E523">
         <v>0.1748319088135685</v>
@@ -14550,7 +14550,7 @@
         <v>0.965310813838408</v>
       </c>
       <c r="D524">
-        <v>0.07625012952477084</v>
+        <v>0.2576526701668675</v>
       </c>
       <c r="E524">
         <v>0.1748118887842222</v>
@@ -14576,7 +14576,7 @@
         <v>0.965310813838408</v>
       </c>
       <c r="D525">
-        <v>0.07625012952477084</v>
+        <v>0.2576526701668675</v>
       </c>
       <c r="E525">
         <v>0.1748118887842222</v>
@@ -14602,7 +14602,7 @@
         <v>0.965310813838408</v>
       </c>
       <c r="D526">
-        <v>0.07625012952477084</v>
+        <v>0.2576526701668675</v>
       </c>
       <c r="E526">
         <v>0.1748118887842222</v>
@@ -14628,7 +14628,7 @@
         <v>0.965310813838408</v>
       </c>
       <c r="D527">
-        <v>0.07625012952477084</v>
+        <v>0.2576526701668675</v>
       </c>
       <c r="E527">
         <v>0.1748118887842222</v>
@@ -14654,7 +14654,7 @@
         <v>0.965310813838408</v>
       </c>
       <c r="D528">
-        <v>0.07625012952477084</v>
+        <v>0.2576526701668675</v>
       </c>
       <c r="E528">
         <v>0.1748118887842222</v>
@@ -14680,7 +14680,7 @@
         <v>0.965310813838408</v>
       </c>
       <c r="D529">
-        <v>0.07625012952477084</v>
+        <v>0.2576526701668675</v>
       </c>
       <c r="E529">
         <v>0.1748118887842222</v>
@@ -14706,7 +14706,7 @@
         <v>0.965310813838408</v>
       </c>
       <c r="D530">
-        <v>0.07625012952477084</v>
+        <v>0.2576526701668675</v>
       </c>
       <c r="E530">
         <v>0.1748118887842222</v>
@@ -14732,7 +14732,7 @@
         <v>0.965310813838408</v>
       </c>
       <c r="D531">
-        <v>0.07625012952477084</v>
+        <v>0.2576526701668675</v>
       </c>
       <c r="E531">
         <v>0.1748118887842222</v>
@@ -14758,7 +14758,7 @@
         <v>0.965310813838408</v>
       </c>
       <c r="D532">
-        <v>0.07625012952477084</v>
+        <v>0.2576526701668675</v>
       </c>
       <c r="E532">
         <v>0.1748118887842222</v>
@@ -14784,7 +14784,7 @@
         <v>0.965310813838408</v>
       </c>
       <c r="D533">
-        <v>0.07625012952477084</v>
+        <v>0.2576526701668675</v>
       </c>
       <c r="E533">
         <v>0.1748118887842222</v>
@@ -14810,7 +14810,7 @@
         <v>0.5951596902017989</v>
       </c>
       <c r="D534">
-        <v>0.1810945785238215</v>
+        <v>0.3920133887408142</v>
       </c>
       <c r="E534">
         <v>0.597194478891814</v>
@@ -14836,7 +14836,7 @@
         <v>0.6452930876344857</v>
       </c>
       <c r="D535">
-        <v>0.3381641853108851</v>
+        <v>0.4302891585520457</v>
       </c>
       <c r="E535">
         <v>0.5589960456222245</v>
@@ -14862,7 +14862,7 @@
         <v>0.6915334812071681</v>
       </c>
       <c r="D536">
-        <v>0.5230185754664785</v>
+        <v>0.5331347929295627</v>
       </c>
       <c r="E536">
         <v>0.5212882379314679</v>
@@ -14888,7 +14888,7 @@
         <v>0.7538429298685227</v>
       </c>
       <c r="D537">
-        <v>0.6383212601068697</v>
+        <v>0.6951277366853265</v>
       </c>
       <c r="E537">
         <v>0.4656719371536081</v>
@@ -14914,7 +14914,7 @@
         <v>0.8180229617017184</v>
       </c>
       <c r="D538">
-        <v>0.3835066769007519</v>
+        <v>0.3324047022285024</v>
       </c>
       <c r="E538">
         <v>0.4003890631726568</v>
@@ -14940,7 +14940,7 @@
         <v>0.8305162893302005</v>
       </c>
       <c r="D539">
-        <v>0.4488159766274999</v>
+        <v>0.4806398646796921</v>
       </c>
       <c r="E539">
         <v>0.3864006885635028</v>
@@ -14966,7 +14966,7 @@
         <v>0.8479992598028183</v>
       </c>
       <c r="D540">
-        <v>0.5420185105064129</v>
+        <v>0.4475789986871381</v>
       </c>
       <c r="E540">
         <v>0.3659289429582985</v>
@@ -14992,7 +14992,7 @@
         <v>0.8557875956447414</v>
       </c>
       <c r="D541">
-        <v>0.5460823713521317</v>
+        <v>0.4450997658329592</v>
       </c>
       <c r="E541">
         <v>0.3564307943876919</v>
@@ -15018,7 +15018,7 @@
         <v>0.8747550363139656</v>
       </c>
       <c r="D542">
-        <v>0.3470957465342124</v>
+        <v>0.2775967020904586</v>
       </c>
       <c r="E542">
         <v>0.3321651346848185</v>
@@ -15044,7 +15044,7 @@
         <v>0.8866237286712912</v>
       </c>
       <c r="D543">
-        <v>0.5381880474727211</v>
+        <v>0.4565411045586336</v>
       </c>
       <c r="E543">
         <v>0.3160348635786535</v>
@@ -15070,7 +15070,7 @@
         <v>0.8987592636605862</v>
       </c>
       <c r="D544">
-        <v>0.362171281895409</v>
+        <v>0.3526140772370649</v>
       </c>
       <c r="E544">
         <v>0.2986424620508266</v>
@@ -15096,7 +15096,7 @@
         <v>0.9107469069110773</v>
       </c>
       <c r="D545">
-        <v>0.2852376727422512</v>
+        <v>0.3567773072657083</v>
       </c>
       <c r="E545">
         <v>0.2804048670718358</v>
@@ -15122,7 +15122,7 @@
         <v>0.941805929400031</v>
       </c>
       <c r="D546">
-        <v>0.0387467938417605</v>
+        <v>0.2390637966872791</v>
       </c>
       <c r="E546">
         <v>0.226419213783871</v>
@@ -15148,7 +15148,7 @@
         <v>0.9518938970171819</v>
       </c>
       <c r="D547">
-        <v>0.2930969452750148</v>
+        <v>0.2337557424837939</v>
       </c>
       <c r="E547">
         <v>0.2058609620594527</v>
@@ -15174,7 +15174,7 @@
         <v>0.9573214824706835</v>
       </c>
       <c r="D548">
-        <v>0.3128810212222255</v>
+        <v>0.2326846366482164</v>
       </c>
       <c r="E548">
         <v>0.1939003408269099</v>
@@ -15200,7 +15200,7 @@
         <v>0.9644565965383779</v>
       </c>
       <c r="D549">
-        <v>0.2341295252046089</v>
+        <v>0.1916308218170589</v>
       </c>
       <c r="E549">
         <v>0.1769511605764729</v>
@@ -15226,7 +15226,7 @@
         <v>0.9646933631356528</v>
       </c>
       <c r="D550">
-        <v>0.442302278539016</v>
+        <v>0.3697668507048568</v>
       </c>
       <c r="E550">
         <v>0.1763608101246903</v>
@@ -15252,7 +15252,7 @@
         <v>0.965302867945291</v>
       </c>
       <c r="D551">
-        <v>0.07625012952477084</v>
+        <v>0.2576526701668675</v>
       </c>
       <c r="E551">
         <v>0.1748319088135685</v>
@@ -15278,7 +15278,7 @@
         <v>0.965310813838408</v>
       </c>
       <c r="D552">
-        <v>0.07625012952477084</v>
+        <v>0.2576526701668675</v>
       </c>
       <c r="E552">
         <v>0.1748118887842222</v>
@@ -15304,7 +15304,7 @@
         <v>0.965310813838408</v>
       </c>
       <c r="D553">
-        <v>0.07625012952477084</v>
+        <v>0.2576526701668675</v>
       </c>
       <c r="E553">
         <v>0.1748118887842222</v>
@@ -15330,7 +15330,7 @@
         <v>0.965310813838408</v>
       </c>
       <c r="D554">
-        <v>0.07625012952477084</v>
+        <v>0.2576526701668675</v>
       </c>
       <c r="E554">
         <v>0.1748118887842222</v>
@@ -15356,7 +15356,7 @@
         <v>0.965310813838408</v>
       </c>
       <c r="D555">
-        <v>0.07625012952477084</v>
+        <v>0.2576526701668675</v>
       </c>
       <c r="E555">
         <v>0.1748118887842222</v>
@@ -15382,7 +15382,7 @@
         <v>0.965310813838408</v>
       </c>
       <c r="D556">
-        <v>0.07625012952477084</v>
+        <v>0.2576526701668675</v>
       </c>
       <c r="E556">
         <v>0.1748118887842222</v>
@@ -15408,7 +15408,7 @@
         <v>0.965310813838408</v>
       </c>
       <c r="D557">
-        <v>0.07625012952477084</v>
+        <v>0.2576526701668675</v>
       </c>
       <c r="E557">
         <v>0.1748118887842222</v>
@@ -15434,7 +15434,7 @@
         <v>0.965310813838408</v>
       </c>
       <c r="D558">
-        <v>0.07625012952477084</v>
+        <v>0.2576526701668675</v>
       </c>
       <c r="E558">
         <v>0.1748118887842222</v>
@@ -15460,7 +15460,7 @@
         <v>0.965310813838408</v>
       </c>
       <c r="D559">
-        <v>0.07625012952477084</v>
+        <v>0.2576526701668675</v>
       </c>
       <c r="E559">
         <v>0.1748118887842222</v>
@@ -15486,7 +15486,7 @@
         <v>0.965310813838408</v>
       </c>
       <c r="D560">
-        <v>0.07625012952477084</v>
+        <v>0.2576526701668675</v>
       </c>
       <c r="E560">
         <v>0.1748118887842222</v>
@@ -15512,7 +15512,7 @@
         <v>0.965310813838408</v>
       </c>
       <c r="D561">
-        <v>0.07625012952477084</v>
+        <v>0.2576526701668675</v>
       </c>
       <c r="E561">
         <v>0.1748118887842222</v>
@@ -15538,7 +15538,7 @@
         <v>0.5594442999804277</v>
       </c>
       <c r="D562">
-        <v>0.1374804336349482</v>
+        <v>0.08357119968653504</v>
       </c>
       <c r="E562">
         <v>0.6229803121961131</v>
@@ -15564,7 +15564,7 @@
         <v>0.6330348091048364</v>
       </c>
       <c r="D563">
-        <v>0.592948999119766</v>
+        <v>0.428069245401007</v>
       </c>
       <c r="E563">
         <v>0.5685731473996601</v>
@@ -15590,7 +15590,7 @@
         <v>0.6925005759190546</v>
       </c>
       <c r="D564">
-        <v>0.6282212684481729</v>
+        <v>0.5758840597456863</v>
       </c>
       <c r="E564">
         <v>0.5204704330395866</v>
@@ -15616,7 +15616,7 @@
         <v>0.7424198121413621</v>
       </c>
       <c r="D565">
-        <v>0.2592668943080486</v>
+        <v>0.1486087311288989</v>
       </c>
       <c r="E565">
         <v>0.4763543522363681</v>
@@ -15642,7 +15642,7 @@
         <v>0.7750285637107859</v>
       </c>
       <c r="D566">
-        <v>0.4079865906284913</v>
+        <v>0.1332130406250881</v>
       </c>
       <c r="E566">
         <v>0.4451820040941288</v>
@@ -15668,7 +15668,7 @@
         <v>0.792121380524909</v>
       </c>
       <c r="D567">
-        <v>0.4473798951737959</v>
+        <v>0.1335572570788923</v>
       </c>
       <c r="E567">
         <v>0.4279359988177458</v>
@@ -15694,7 +15694,7 @@
         <v>0.8281817785757445</v>
       </c>
       <c r="D568">
-        <v>0.4532916589005392</v>
+        <v>0.1643404132160787</v>
       </c>
       <c r="E568">
         <v>0.3890527767275452</v>
@@ -15720,7 +15720,7 @@
         <v>0.8323913887822043</v>
       </c>
       <c r="D569">
-        <v>0.4524606713177465</v>
+        <v>0.1650811243172903</v>
       </c>
       <c r="E569">
         <v>0.3842572528216514</v>
@@ -15746,7 +15746,7 @@
         <v>0.8329711977848741</v>
       </c>
       <c r="D570">
-        <v>0.3046285623869966</v>
+        <v>0.04889128051405911</v>
       </c>
       <c r="E570">
         <v>0.383592045865799</v>
@@ -15772,7 +15772,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D571">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E571">
         <v>0.3828493701888022</v>
@@ -15798,7 +15798,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D572">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E572">
         <v>0.3828493701888022</v>
@@ -15824,7 +15824,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D573">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E573">
         <v>0.3828493701888022</v>
@@ -15850,7 +15850,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D574">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E574">
         <v>0.3828493701888022</v>
@@ -15876,7 +15876,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D575">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E575">
         <v>0.3828493701888022</v>
@@ -15902,7 +15902,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D576">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E576">
         <v>0.3828493701888022</v>
@@ -15928,7 +15928,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D577">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E577">
         <v>0.3828493701888022</v>
@@ -15954,7 +15954,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D578">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E578">
         <v>0.3828493701888022</v>
@@ -15980,7 +15980,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D579">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E579">
         <v>0.3828493701888022</v>
@@ -16006,7 +16006,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D580">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E580">
         <v>0.3828493701888022</v>
@@ -16032,7 +16032,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D581">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E581">
         <v>0.3828493701888022</v>
@@ -16058,7 +16058,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D582">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E582">
         <v>0.3828493701888022</v>
@@ -16084,7 +16084,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D583">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E583">
         <v>0.3828493701888022</v>
@@ -16110,7 +16110,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D584">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E584">
         <v>0.3828493701888022</v>
@@ -16136,7 +16136,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D585">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E585">
         <v>0.3828493701888022</v>
@@ -16162,7 +16162,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D586">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E586">
         <v>0.3828493701888022</v>
@@ -16188,7 +16188,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D587">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E587">
         <v>0.3828493701888022</v>
@@ -16214,7 +16214,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D588">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E588">
         <v>0.3828493701888022</v>
@@ -16240,7 +16240,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D589">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E589">
         <v>0.3828493701888022</v>
@@ -16266,7 +16266,7 @@
         <v>0.5594442999804277</v>
       </c>
       <c r="D590">
-        <v>0.1374804336349482</v>
+        <v>0.08357119968653504</v>
       </c>
       <c r="E590">
         <v>0.6229803121961131</v>
@@ -16292,7 +16292,7 @@
         <v>0.6330348091048364</v>
       </c>
       <c r="D591">
-        <v>0.592948999119766</v>
+        <v>0.428069245401007</v>
       </c>
       <c r="E591">
         <v>0.5685731473996601</v>
@@ -16318,7 +16318,7 @@
         <v>0.6925005759190546</v>
       </c>
       <c r="D592">
-        <v>0.6282212684481729</v>
+        <v>0.5758840597456863</v>
       </c>
       <c r="E592">
         <v>0.5204704330395866</v>
@@ -16344,7 +16344,7 @@
         <v>0.7424198121413621</v>
       </c>
       <c r="D593">
-        <v>0.2592668943080486</v>
+        <v>0.1486087311288989</v>
       </c>
       <c r="E593">
         <v>0.4763543522363681</v>
@@ -16370,7 +16370,7 @@
         <v>0.7750285637107859</v>
       </c>
       <c r="D594">
-        <v>0.4079865906284913</v>
+        <v>0.1332130406250881</v>
       </c>
       <c r="E594">
         <v>0.4451820040941288</v>
@@ -16396,7 +16396,7 @@
         <v>0.792121380524909</v>
       </c>
       <c r="D595">
-        <v>0.4473798951737959</v>
+        <v>0.1335572570788923</v>
       </c>
       <c r="E595">
         <v>0.4279359988177458</v>
@@ -16422,7 +16422,7 @@
         <v>0.8281817785757445</v>
       </c>
       <c r="D596">
-        <v>0.4532916589005392</v>
+        <v>0.1643404132160787</v>
       </c>
       <c r="E596">
         <v>0.3890527767275452</v>
@@ -16448,7 +16448,7 @@
         <v>0.8323913887822043</v>
       </c>
       <c r="D597">
-        <v>0.4524606713177465</v>
+        <v>0.1650811243172903</v>
       </c>
       <c r="E597">
         <v>0.3842572528216514</v>
@@ -16474,7 +16474,7 @@
         <v>0.8329711977848741</v>
       </c>
       <c r="D598">
-        <v>0.3046285623869966</v>
+        <v>0.04889128051405911</v>
       </c>
       <c r="E598">
         <v>0.383592045865799</v>
@@ -16500,7 +16500,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D599">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E599">
         <v>0.3828493701888022</v>
@@ -16526,7 +16526,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D600">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E600">
         <v>0.3828493701888022</v>
@@ -16552,7 +16552,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D601">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E601">
         <v>0.3828493701888022</v>
@@ -16578,7 +16578,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D602">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E602">
         <v>0.3828493701888022</v>
@@ -16604,7 +16604,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D603">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E603">
         <v>0.3828493701888022</v>
@@ -16630,7 +16630,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D604">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E604">
         <v>0.3828493701888022</v>
@@ -16656,7 +16656,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D605">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E605">
         <v>0.3828493701888022</v>
@@ -16682,7 +16682,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D606">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E606">
         <v>0.3828493701888022</v>
@@ -16708,7 +16708,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D607">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E607">
         <v>0.3828493701888022</v>
@@ -16734,7 +16734,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D608">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E608">
         <v>0.3828493701888022</v>
@@ -16760,7 +16760,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D609">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E609">
         <v>0.3828493701888022</v>
@@ -16786,7 +16786,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D610">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E610">
         <v>0.3828493701888022</v>
@@ -16812,7 +16812,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D611">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E611">
         <v>0.3828493701888022</v>
@@ -16838,7 +16838,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D612">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E612">
         <v>0.3828493701888022</v>
@@ -16864,7 +16864,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D613">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E613">
         <v>0.3828493701888022</v>
@@ -16890,7 +16890,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D614">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E614">
         <v>0.3828493701888022</v>
@@ -16916,7 +16916,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D615">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E615">
         <v>0.3828493701888022</v>
@@ -16942,7 +16942,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D616">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E616">
         <v>0.3828493701888022</v>
@@ -16968,7 +16968,7 @@
         <v>0.8336173433173838</v>
       </c>
       <c r="D617">
-        <v>0.3040206068022696</v>
+        <v>0.0455695084371246</v>
       </c>
       <c r="E617">
         <v>0.3828493701888022</v>
@@ -17030,7 +17030,7 @@
         <v>0.8881701186261174</v>
       </c>
       <c r="D2">
-        <v>0.05196602811208495</v>
+        <v>-0.07122155120818841</v>
       </c>
       <c r="E2">
         <v>0.3138721930315168</v>
@@ -17056,7 +17056,7 @@
         <v>0.8855662136365925</v>
       </c>
       <c r="D3">
-        <v>0.1208902672875551</v>
+        <v>0.3615887461899927</v>
       </c>
       <c r="E3">
         <v>0.3175053471783025</v>
@@ -17082,7 +17082,7 @@
         <v>0.8990601216444319</v>
       </c>
       <c r="D4">
-        <v>0.1369975578455278</v>
+        <v>0.3088188800013063</v>
       </c>
       <c r="E4">
         <v>0.2981983926826853</v>
@@ -17108,7 +17108,7 @@
         <v>0.9197574710650935</v>
       </c>
       <c r="D5">
-        <v>0.01986615759106902</v>
+        <v>0.3968692803109325</v>
       </c>
       <c r="E5">
         <v>0.2658742106128021</v>
@@ -17134,7 +17134,7 @@
         <v>0.9167011750133539</v>
       </c>
       <c r="D6">
-        <v>-0.2579941211960572</v>
+        <v>0.2495270484411777</v>
       </c>
       <c r="E6">
         <v>0.2708902333907494</v>
@@ -17160,7 +17160,7 @@
         <v>0.9123808636847195</v>
       </c>
       <c r="D7">
-        <v>-0.1300830504704267</v>
+        <v>0.3192375099209593</v>
       </c>
       <c r="E7">
         <v>0.2778263246362455</v>
@@ -17186,7 +17186,7 @@
         <v>0.9161093245338217</v>
       </c>
       <c r="D8">
-        <v>0.1293820552536725</v>
+        <v>0.4558442626410377</v>
       </c>
       <c r="E8">
         <v>0.2718508876131084</v>
@@ -17212,7 +17212,7 @@
         <v>0.9133918583198388</v>
       </c>
       <c r="D9">
-        <v>0.2478030141830975</v>
+        <v>0.5005601133411992</v>
       </c>
       <c r="E9">
         <v>0.2762188226616739</v>
@@ -17238,7 +17238,7 @@
         <v>0.9184150772067436</v>
       </c>
       <c r="D10">
-        <v>0.2779491219270215</v>
+        <v>0.5435074719292395</v>
       </c>
       <c r="E10">
         <v>0.2680889187754715</v>
@@ -17264,7 +17264,7 @@
         <v>0.9223048650204313</v>
       </c>
       <c r="D11">
-        <v>0.197092533457905</v>
+        <v>0.5081421340847103</v>
       </c>
       <c r="E11">
         <v>0.2616199284109835</v>
@@ -17290,7 +17290,7 @@
         <v>0.9266187302207194</v>
       </c>
       <c r="D12">
-        <v>0.2972721016300575</v>
+        <v>0.5527612192969996</v>
       </c>
       <c r="E12">
         <v>0.2542532546481142</v>
@@ -17316,7 +17316,7 @@
         <v>0.9291936312807535</v>
       </c>
       <c r="D13">
-        <v>0.1853680814251535</v>
+        <v>0.4990953984095938</v>
       </c>
       <c r="E13">
         <v>0.2497526303765998</v>
@@ -17342,7 +17342,7 @@
         <v>0.9301068677579312</v>
       </c>
       <c r="D14">
-        <v>0.09367634067376329</v>
+        <v>0.4264186880399398</v>
       </c>
       <c r="E14">
         <v>0.2481367910624133</v>
@@ -17368,7 +17368,7 @@
         <v>0.9279661229817575</v>
       </c>
       <c r="D15">
-        <v>0.08340831369963142</v>
+        <v>0.4486046450348388</v>
       </c>
       <c r="E15">
         <v>0.2519082000441851</v>
@@ -17394,7 +17394,7 @@
         <v>0.9291716284008711</v>
       </c>
       <c r="D16">
-        <v>0.2175971829214957</v>
+        <v>0.5108083220703926</v>
       </c>
       <c r="E16">
         <v>0.2497914323260693</v>
@@ -17420,7 +17420,7 @@
         <v>0.9257954489027992</v>
       </c>
       <c r="D17">
-        <v>0.2355460461132662</v>
+        <v>0.5084240303572363</v>
       </c>
       <c r="E17">
         <v>0.2556755393671212</v>
@@ -17446,7 +17446,7 @@
         <v>0.9236459054188536</v>
       </c>
       <c r="D18">
-        <v>0.1401032310695195</v>
+        <v>0.4972216602088929</v>
       </c>
       <c r="E18">
         <v>0.2593522831239878</v>
@@ -17472,7 +17472,7 @@
         <v>0.9223956795876986</v>
       </c>
       <c r="D19">
-        <v>0.09815932289557128</v>
+        <v>0.4959882969534662</v>
       </c>
       <c r="E19">
         <v>0.2614669854542067</v>
@@ -17498,7 +17498,7 @@
         <v>0.9183029009558074</v>
       </c>
       <c r="D20">
-        <v>0.001659435852411462</v>
+        <v>0.4404175068342396</v>
       </c>
       <c r="E20">
         <v>0.2682731616386711</v>
@@ -17524,7 +17524,7 @@
         <v>0.8800238790121245</v>
       </c>
       <c r="D21">
-        <v>0.1233425367660681</v>
+        <v>0.01921414819842793</v>
       </c>
       <c r="E21">
         <v>0.3251032551289171</v>
@@ -17550,7 +17550,7 @@
         <v>0.8794354259598601</v>
       </c>
       <c r="D22">
-        <v>-0.188770365227344</v>
+        <v>0.2919765210493986</v>
       </c>
       <c r="E22">
         <v>0.3258995552392123</v>
@@ -17576,7 +17576,7 @@
         <v>0.8888178157099282</v>
       </c>
       <c r="D23">
-        <v>-0.09037386733281116</v>
+        <v>0.1951676283531507</v>
       </c>
       <c r="E23">
         <v>0.312961929525903</v>
@@ -17602,7 +17602,7 @@
         <v>0.8977155604613644</v>
       </c>
       <c r="D24">
-        <v>-0.3158188045283215</v>
+        <v>0.1893034257743801</v>
       </c>
       <c r="E24">
         <v>0.3001778859099091</v>
@@ -17628,7 +17628,7 @@
         <v>0.8989740970607502</v>
       </c>
       <c r="D25">
-        <v>-0.3748842950222278</v>
+        <v>0.08923509186787781</v>
       </c>
       <c r="E25">
         <v>0.298325433302599</v>
@@ -17654,7 +17654,7 @@
         <v>0.9045881866880594</v>
       </c>
       <c r="D26">
-        <v>-0.2541573229697078</v>
+        <v>0.2232364095679791</v>
       </c>
       <c r="E26">
         <v>0.2899178695382376</v>
@@ -17680,7 +17680,7 @@
         <v>0.9100320645545361</v>
       </c>
       <c r="D27">
-        <v>-0.07804044268306121</v>
+        <v>0.3918138928068114</v>
       </c>
       <c r="E27">
         <v>0.2815255314582143</v>
@@ -17706,7 +17706,7 @@
         <v>0.9059622632714832</v>
       </c>
       <c r="D28">
-        <v>-0.01293435727225511</v>
+        <v>0.4134578543672739</v>
       </c>
       <c r="E28">
         <v>0.2878226674548468</v>
@@ -17732,7 +17732,7 @@
         <v>0.9140462954740826</v>
       </c>
       <c r="D29">
-        <v>-0.0388850382466186</v>
+        <v>0.4229875707486798</v>
       </c>
       <c r="E29">
         <v>0.2751732475164573</v>
@@ -17758,7 +17758,7 @@
         <v>0.9200688973827021</v>
       </c>
       <c r="D30">
-        <v>0.02972884734365822</v>
+        <v>0.4591433471168974</v>
       </c>
       <c r="E30">
         <v>0.2653577717495083</v>
@@ -17784,7 +17784,7 @@
         <v>0.9254255026452174</v>
       </c>
       <c r="D31">
-        <v>0.159984341403936</v>
+        <v>0.517875617097765</v>
       </c>
       <c r="E31">
         <v>0.2563120812691156</v>
@@ -17810,7 +17810,7 @@
         <v>0.9258423701468171</v>
       </c>
       <c r="D32">
-        <v>0.01583324897695282</v>
+        <v>0.4466039241984978</v>
       </c>
       <c r="E32">
         <v>0.2555946918232155</v>
@@ -17836,7 +17836,7 @@
         <v>0.9294974613440623</v>
       </c>
       <c r="D33">
-        <v>-0.02174367182122516</v>
+        <v>0.3936847820290768</v>
       </c>
       <c r="E33">
         <v>0.2492162101592242</v>
@@ -17862,7 +17862,7 @@
         <v>0.9254644645496486</v>
       </c>
       <c r="D34">
-        <v>-0.07233609702571631</v>
+        <v>0.3848718259492588</v>
       </c>
       <c r="E34">
         <v>0.2562451166104521</v>
@@ -17888,7 +17888,7 @@
         <v>0.9271260205653349</v>
       </c>
       <c r="D35">
-        <v>0.009378865768949196</v>
+        <v>0.4102353217019495</v>
       </c>
       <c r="E35">
         <v>0.2533728943875913</v>
@@ -17914,7 +17914,7 @@
         <v>0.9271006700671816</v>
       </c>
       <c r="D36">
-        <v>-0.02715340378241549</v>
+        <v>0.3994306260896191</v>
       </c>
       <c r="E36">
         <v>0.2534169606691267</v>
@@ -17940,7 +17940,7 @@
         <v>0.9233600960412761</v>
       </c>
       <c r="D37">
-        <v>-0.1380512052648033</v>
+        <v>0.3933919703368094</v>
       </c>
       <c r="E37">
         <v>0.2598372347031825</v>
@@ -17966,7 +17966,7 @@
         <v>0.923947109719115</v>
       </c>
       <c r="D38">
-        <v>-0.1807150917357137</v>
+        <v>0.3910364785305795</v>
       </c>
       <c r="E38">
         <v>0.2588402266560459</v>
@@ -17992,7 +17992,7 @@
         <v>0.9227489548906431</v>
       </c>
       <c r="D39">
-        <v>-0.1892955248502595</v>
+        <v>0.3671245924221715</v>
       </c>
       <c r="E39">
         <v>0.2608711733208894</v>
@@ -18018,7 +18018,7 @@
         <v>0.880945845148288</v>
       </c>
       <c r="D40">
-        <v>0.4388059313738112</v>
+        <v>0.4190781686053567</v>
       </c>
       <c r="E40">
         <v>0.3238517050471991</v>
@@ -18044,7 +18044,7 @@
         <v>0.8751411625069864</v>
       </c>
       <c r="D41">
-        <v>0.4923498460487514</v>
+        <v>0.6142596986280056</v>
       </c>
       <c r="E41">
         <v>0.3316527122234006</v>
@@ -18070,7 +18070,7 @@
         <v>0.8877843992455707</v>
       </c>
       <c r="D42">
-        <v>0.3201113590323609</v>
+        <v>0.4880197966960275</v>
       </c>
       <c r="E42">
         <v>0.3144130251036834</v>
@@ -18096,7 +18096,7 @@
         <v>0.9093769045797871</v>
       </c>
       <c r="D43">
-        <v>0.4743835895573403</v>
+        <v>0.6415639699785174</v>
       </c>
       <c r="E43">
         <v>0.282548727603501</v>
@@ -18122,7 +18122,7 @@
         <v>0.9028928174043089</v>
       </c>
       <c r="D44">
-        <v>0.2898607530166217</v>
+        <v>0.5209426857992463</v>
       </c>
       <c r="E44">
         <v>0.2924822982959387</v>
@@ -18148,7 +18148,7 @@
         <v>0.9049959574305766</v>
       </c>
       <c r="D45">
-        <v>0.3146115289645447</v>
+        <v>0.5514856071668506</v>
       </c>
       <c r="E45">
         <v>0.2892976810963386</v>
@@ -18174,7 +18174,7 @@
         <v>0.9064317141743069</v>
       </c>
       <c r="D46">
-        <v>0.417230817040356</v>
+        <v>0.6095487200001074</v>
       </c>
       <c r="E46">
         <v>0.2871033409840135</v>
@@ -18200,7 +18200,7 @@
         <v>0.9038544881859834</v>
       </c>
       <c r="D47">
-        <v>0.5067125632095633</v>
+        <v>0.6474778312768852</v>
       </c>
       <c r="E47">
         <v>0.2910304411099678</v>
@@ -18226,7 +18226,7 @@
         <v>0.9096854349906277</v>
       </c>
       <c r="D48">
-        <v>0.5173539897663507</v>
+        <v>0.6654788261913465</v>
       </c>
       <c r="E48">
         <v>0.2820673425941013</v>
@@ -18252,7 +18252,7 @@
         <v>0.916027387827848</v>
       </c>
       <c r="D49">
-        <v>0.500238005632077</v>
+        <v>0.6511453447152019</v>
       </c>
       <c r="E49">
         <v>0.2719836147001191</v>
@@ -18278,7 +18278,7 @@
         <v>0.9216601612813288</v>
       </c>
       <c r="D50">
-        <v>0.5321339024433169</v>
+        <v>0.6668526188167698</v>
       </c>
       <c r="E50">
         <v>0.2627031294093673</v>
@@ -18304,7 +18304,7 @@
         <v>0.9269508060567805</v>
       </c>
       <c r="D51">
-        <v>0.3996732704984849</v>
+        <v>0.5999002545267309</v>
       </c>
       <c r="E51">
         <v>0.2536773100000673</v>
@@ -18330,7 +18330,7 @@
         <v>0.9284027414893565</v>
       </c>
       <c r="D52">
-        <v>0.3271773167404011</v>
+        <v>0.5813156695482781</v>
       </c>
       <c r="E52">
         <v>0.2511435948263529</v>
@@ -18356,7 +18356,7 @@
         <v>0.9264135666873159</v>
       </c>
       <c r="D53">
-        <v>0.3259593005599172</v>
+        <v>0.5844588476765786</v>
       </c>
       <c r="E53">
         <v>0.2546084344284693</v>
@@ -18382,7 +18382,7 @@
         <v>0.9255991674214409</v>
       </c>
       <c r="D54">
-        <v>0.3712262439350873</v>
+        <v>0.6256986842587179</v>
       </c>
       <c r="E54">
         <v>0.2560134649424959</v>
@@ -18408,7 +18408,7 @@
         <v>0.9236871351907268</v>
       </c>
       <c r="D55">
-        <v>0.324753484544039</v>
+        <v>0.6060580307366987</v>
       </c>
       <c r="E55">
         <v>0.2592822509965302</v>
@@ -18434,7 +18434,7 @@
         <v>0.9222934399963351</v>
       </c>
       <c r="D56">
-        <v>0.220724074826116</v>
+        <v>0.5837733915511085</v>
       </c>
       <c r="E56">
         <v>0.2616391632325192</v>
@@ -18460,7 +18460,7 @@
         <v>0.9239488402234303</v>
       </c>
       <c r="D57">
-        <v>0.1698422139719511</v>
+        <v>0.5809157259297998</v>
       </c>
       <c r="E57">
         <v>0.2588372818193961</v>
@@ -18486,7 +18486,7 @@
         <v>0.9190839962678596</v>
       </c>
       <c r="D58">
-        <v>0.1369888604311336</v>
+        <v>0.5636344396489203</v>
       </c>
       <c r="E58">
         <v>0.2669876191728014</v>
@@ -18512,7 +18512,7 @@
         <v>0.8550949788765977</v>
       </c>
       <c r="D59">
-        <v>0.3030475308740479</v>
+        <v>0.3012490750051744</v>
       </c>
       <c r="E59">
         <v>0.3572856939426853</v>
@@ -18538,7 +18538,7 @@
         <v>0.8876204014076208</v>
       </c>
       <c r="D60">
-        <v>0.1945903505588549</v>
+        <v>0.4598030490789005</v>
       </c>
       <c r="E60">
         <v>0.3146426911683857</v>
@@ -18564,7 +18564,7 @@
         <v>0.9048755088453109</v>
       </c>
       <c r="D61">
-        <v>0.1557322553889242</v>
+        <v>0.4112136309648931</v>
       </c>
       <c r="E61">
         <v>0.2894810125523305</v>
@@ -18590,7 +18590,7 @@
         <v>0.9222149947092403</v>
       </c>
       <c r="D62">
-        <v>-0.1802119345661737</v>
+        <v>0.2841674597847099</v>
       </c>
       <c r="E62">
         <v>0.2617711931539171</v>
@@ -18616,7 +18616,7 @@
         <v>0.909225731099876</v>
       </c>
       <c r="D63">
-        <v>-0.1865674983727519</v>
+        <v>0.296753396586283</v>
       </c>
       <c r="E63">
         <v>0.2827842971108478</v>
@@ -18642,7 +18642,7 @@
         <v>0.9107642446090252</v>
       </c>
       <c r="D64">
-        <v>-0.1047227688725998</v>
+        <v>0.3768154084864006</v>
       </c>
       <c r="E64">
         <v>0.2803776309792972</v>
@@ -18668,7 +18668,7 @@
         <v>0.9078224048774283</v>
       </c>
       <c r="D65">
-        <v>0.2107556700735032</v>
+        <v>0.5164994729400276</v>
       </c>
       <c r="E65">
         <v>0.2849617678472227</v>
@@ -18694,7 +18694,7 @@
         <v>0.9032303289625907</v>
       </c>
       <c r="D66">
-        <v>0.2723332227411386</v>
+        <v>0.5334585749680707</v>
       </c>
       <c r="E66">
         <v>0.2919735713461586</v>
@@ -18720,7 +18720,7 @@
         <v>0.9121614462781639</v>
       </c>
       <c r="D67">
-        <v>0.3497372145005302</v>
+        <v>0.5904854362977285</v>
       </c>
       <c r="E67">
         <v>0.2781739759465654</v>
@@ -18746,7 +18746,7 @@
         <v>0.9166743820908168</v>
       </c>
       <c r="D68">
-        <v>0.3779142317925192</v>
+        <v>0.5892312373213726</v>
       </c>
       <c r="E68">
         <v>0.2709337955748994</v>
@@ -18772,7 +18772,7 @@
         <v>0.9233620546201293</v>
       </c>
       <c r="D69">
-        <v>0.3851021613761912</v>
+        <v>0.6013952672419418</v>
       </c>
       <c r="E69">
         <v>0.2598339145335431</v>
@@ -18798,7 +18798,7 @@
         <v>0.9262161193708982</v>
       </c>
       <c r="D70">
-        <v>0.2737226491068374</v>
+        <v>0.5469433572866627</v>
       </c>
       <c r="E70">
         <v>0.254949788620367</v>
@@ -18824,7 +18824,7 @@
         <v>0.9289834187855966</v>
       </c>
       <c r="D71">
-        <v>0.1798611756895545</v>
+        <v>0.524733325689559</v>
       </c>
       <c r="E71">
         <v>0.250123092917485</v>
@@ -18850,7 +18850,7 @@
         <v>0.9309263020547328</v>
       </c>
       <c r="D72">
-        <v>0.2058299145388268</v>
+        <v>0.5355633729187744</v>
       </c>
       <c r="E72">
         <v>0.2466779117668401</v>
@@ -18876,7 +18876,7 @@
         <v>0.9321049665394852</v>
       </c>
       <c r="D73">
-        <v>0.2993218656562976</v>
+        <v>0.5738006418735997</v>
       </c>
       <c r="E73">
         <v>0.2445642163143766</v>
@@ -18902,7 +18902,7 @@
         <v>0.9302343394654781</v>
       </c>
       <c r="D74">
-        <v>0.2698648162400979</v>
+        <v>0.550332808010222</v>
       </c>
       <c r="E74">
         <v>0.2479104107688649</v>
@@ -18928,7 +18928,7 @@
         <v>0.927429809807635</v>
       </c>
       <c r="D75">
-        <v>0.1842105375486388</v>
+        <v>0.5341700678185615</v>
       </c>
       <c r="E75">
         <v>0.2528442259523129</v>
@@ -18954,7 +18954,7 @@
         <v>0.9273631435356534</v>
       </c>
       <c r="D76">
-        <v>0.1647565564491225</v>
+        <v>0.5390041430728383</v>
       </c>
       <c r="E76">
         <v>0.2529603363859169</v>
@@ -18980,7 +18980,7 @@
         <v>0.9222874821150886</v>
       </c>
       <c r="D77">
-        <v>0.07494206854840146</v>
+        <v>0.4949836888307296</v>
       </c>
       <c r="E77">
         <v>0.2616491931784198</v>
@@ -19006,7 +19006,7 @@
         <v>0.7607703284798633</v>
       </c>
       <c r="D78">
-        <v>0.2282960080522727</v>
+        <v>0.3525987358661581</v>
       </c>
       <c r="E78">
         <v>0.4590726626479014</v>
@@ -19032,7 +19032,7 @@
         <v>0.8061195522501623</v>
       </c>
       <c r="D79">
-        <v>0.2623191992868381</v>
+        <v>0.4381978118707625</v>
       </c>
       <c r="E79">
         <v>0.4132766959231577</v>
@@ -19058,7 +19058,7 @@
         <v>0.8530119014927231</v>
       </c>
       <c r="D80">
-        <v>0.08973614082420533</v>
+        <v>0.2841271799907537</v>
       </c>
       <c r="E80">
         <v>0.359844604767195</v>
@@ -19084,7 +19084,7 @@
         <v>0.8887021006684346</v>
       </c>
       <c r="D81">
-        <v>0.1818713541378024</v>
+        <v>0.4950626114661943</v>
       </c>
       <c r="E81">
         <v>0.3131247478096045</v>
@@ -19110,7 +19110,7 @@
         <v>0.8931937032389321</v>
       </c>
       <c r="D82">
-        <v>0.1299329412984199</v>
+        <v>0.4760742571521632</v>
       </c>
       <c r="E82">
         <v>0.3067413597028054</v>
@@ -19136,7 +19136,7 @@
         <v>0.8965897449552406</v>
       </c>
       <c r="D83">
-        <v>0.1530888795184681</v>
+        <v>0.4527172320706553</v>
       </c>
       <c r="E83">
         <v>0.3018253509939575</v>
@@ -19162,7 +19162,7 @@
         <v>0.9005829394066472</v>
       </c>
       <c r="D84">
-        <v>0.3469200483390877</v>
+        <v>0.5411369441394895</v>
       </c>
       <c r="E84">
         <v>0.2959404766474968</v>
@@ -19188,7 +19188,7 @@
         <v>0.8946634672779432</v>
       </c>
       <c r="D85">
-        <v>0.4773580854391445</v>
+        <v>0.6411742263987571</v>
       </c>
       <c r="E85">
         <v>0.3046235108775128</v>
@@ -19214,7 +19214,7 @@
         <v>0.9003992515287472</v>
       </c>
       <c r="D86">
-        <v>0.4992782650369554</v>
+        <v>0.6720877202070552</v>
       </c>
       <c r="E86">
         <v>0.296213747608823</v>
@@ -19240,7 +19240,7 @@
         <v>0.9086995907709916</v>
       </c>
       <c r="D87">
-        <v>0.479162030016709</v>
+        <v>0.6564399441251541</v>
       </c>
       <c r="E87">
         <v>0.2836026416368174</v>
@@ -19266,7 +19266,7 @@
         <v>0.9166294603693385</v>
       </c>
       <c r="D88">
-        <v>0.5168823214107456</v>
+        <v>0.6777974661087902</v>
       </c>
       <c r="E88">
         <v>0.2710068173711839</v>
@@ -19292,7 +19292,7 @@
         <v>0.9207767585419638</v>
       </c>
       <c r="D89">
-        <v>0.4494160988362051</v>
+        <v>0.658405674999599</v>
       </c>
       <c r="E89">
         <v>0.264180168974946</v>
@@ -19318,7 +19318,7 @@
         <v>0.9238446668437341</v>
       </c>
       <c r="D90">
-        <v>0.4275498684820743</v>
+        <v>0.6477436991014183</v>
       </c>
       <c r="E90">
         <v>0.2590144962574336</v>
@@ -19344,7 +19344,7 @@
         <v>0.920916007568476</v>
       </c>
       <c r="D91">
-        <v>0.4453794118062497</v>
+        <v>0.6607623266569871</v>
       </c>
       <c r="E91">
         <v>0.2639478948988145</v>
@@ -19370,7 +19370,7 @@
         <v>0.9219152126938097</v>
       </c>
       <c r="D92">
-        <v>0.4661907089292269</v>
+        <v>0.6671737859686802</v>
       </c>
       <c r="E92">
         <v>0.2622751388134252</v>
@@ -19396,7 +19396,7 @@
         <v>0.917197267378786</v>
       </c>
       <c r="D93">
-        <v>0.4493941876678085</v>
+        <v>0.6525180213573163</v>
       </c>
       <c r="E93">
         <v>0.2700823752844574</v>
@@ -19422,7 +19422,7 @@
         <v>0.9160966283539904</v>
       </c>
       <c r="D94">
-        <v>0.3907658799259278</v>
+        <v>0.6406229865329285</v>
       </c>
       <c r="E94">
         <v>0.271871458058865</v>
@@ -19448,7 +19448,7 @@
         <v>0.9185825044609056</v>
       </c>
       <c r="D95">
-        <v>0.3545133338916385</v>
+        <v>0.6396188390041446</v>
       </c>
       <c r="E95">
         <v>0.2678136936362441</v>
@@ -19474,7 +19474,7 @@
         <v>0.9160559918460459</v>
       </c>
       <c r="D96">
-        <v>0.337850288650083</v>
+        <v>0.6294530944599125</v>
       </c>
       <c r="E96">
         <v>0.271937287173225</v>
@@ -19500,7 +19500,7 @@
         <v>0.7844852509067911</v>
       </c>
       <c r="D97">
-        <v>0.41923758626662</v>
+        <v>0.385981852154666</v>
       </c>
       <c r="E97">
         <v>0.43572492949134</v>
@@ -19526,7 +19526,7 @@
         <v>0.8415440033241104</v>
       </c>
       <c r="D98">
-        <v>0.60438596968493</v>
+        <v>0.5450700868997955</v>
       </c>
       <c r="E98">
         <v>0.3736183941397672</v>
@@ -19552,7 +19552,7 @@
         <v>0.8677892679739432</v>
       </c>
       <c r="D99">
-        <v>0.5617721960690347</v>
+        <v>0.5728949405800225</v>
       </c>
       <c r="E99">
         <v>0.3412771918934099</v>
@@ -19578,7 +19578,7 @@
         <v>0.8999471691084753</v>
       </c>
       <c r="D100">
-        <v>0.3850188414670268</v>
+        <v>0.5591011010425968</v>
       </c>
       <c r="E100">
         <v>0.2968852356140519</v>
@@ -19604,7 +19604,7 @@
         <v>0.8976674988951528</v>
       </c>
       <c r="D101">
-        <v>0.253515708416915</v>
+        <v>0.5317591275301118</v>
       </c>
       <c r="E101">
         <v>0.3002484016455118</v>
@@ -19630,7 +19630,7 @@
         <v>0.900426518629011</v>
       </c>
       <c r="D102">
-        <v>0.2657962580292842</v>
+        <v>0.5342278817363209</v>
       </c>
       <c r="E102">
         <v>0.2961731985017848</v>
@@ -19656,7 +19656,7 @@
         <v>0.9018953192067114</v>
       </c>
       <c r="D103">
-        <v>0.4578622321624786</v>
+        <v>0.6376375506699481</v>
       </c>
       <c r="E103">
         <v>0.2939806692493774</v>
@@ -19682,7 +19682,7 @@
         <v>0.900804537813768</v>
       </c>
       <c r="D104">
-        <v>0.4748290832322852</v>
+        <v>0.6746522138525048</v>
       </c>
       <c r="E104">
         <v>0.2956104702950906</v>
@@ -19708,7 +19708,7 @@
         <v>0.9048449122097152</v>
       </c>
       <c r="D105">
-        <v>0.4744488537767159</v>
+        <v>0.6968953018029089</v>
       </c>
       <c r="E105">
         <v>0.2895275643542821</v>
@@ -19734,7 +19734,7 @@
         <v>0.9154821020005086</v>
       </c>
       <c r="D106">
-        <v>0.4531414922733545</v>
+        <v>0.6803136193306436</v>
       </c>
       <c r="E106">
         <v>0.272865264204697</v>
@@ -19760,7 +19760,7 @@
         <v>0.9215522245726819</v>
       </c>
       <c r="D107">
-        <v>0.5050535062061194</v>
+        <v>0.7026365490330863</v>
       </c>
       <c r="E107">
         <v>0.2628840434330106</v>
@@ -19786,7 +19786,7 @@
         <v>0.9260145541618169</v>
       </c>
       <c r="D108">
-        <v>0.493988830989659</v>
+        <v>0.6963524527411793</v>
       </c>
       <c r="E108">
         <v>0.2552977911808632</v>
@@ -19812,7 +19812,7 @@
         <v>0.927875482978876</v>
       </c>
       <c r="D109">
-        <v>0.4987323192610023</v>
+        <v>0.697327716330514</v>
       </c>
       <c r="E109">
         <v>0.2520666378707853</v>
@@ -19838,7 +19838,7 @@
         <v>0.9262242032174041</v>
       </c>
       <c r="D110">
-        <v>0.4608945102309654</v>
+        <v>0.6715097900608351</v>
       </c>
       <c r="E110">
         <v>0.2549358219423195</v>
@@ -19864,7 +19864,7 @@
         <v>0.9270843040650889</v>
       </c>
       <c r="D111">
-        <v>0.48716315688333</v>
+        <v>0.6735909738521842</v>
       </c>
       <c r="E111">
         <v>0.2534454053047841</v>
@@ -19890,7 +19890,7 @@
         <v>0.9266590440958278</v>
       </c>
       <c r="D112">
-        <v>0.463512520886347</v>
+        <v>0.6694753086714708</v>
       </c>
       <c r="E112">
         <v>0.2541834047931226</v>
@@ -19916,7 +19916,7 @@
         <v>0.9237279460439959</v>
       </c>
       <c r="D113">
-        <v>0.4245866815368189</v>
+        <v>0.6613016565328277</v>
       </c>
       <c r="E113">
         <v>0.2592129118031177</v>
@@ -19942,7 +19942,7 @@
         <v>0.9258361700369249</v>
       </c>
       <c r="D114">
-        <v>0.3760877388249343</v>
+        <v>0.6401839007427466</v>
       </c>
       <c r="E114">
         <v>0.2556053763748816</v>
@@ -19968,7 +19968,7 @@
         <v>0.9234780250172233</v>
       </c>
       <c r="D115">
-        <v>0.3590835799746902</v>
+        <v>0.6278340346648317</v>
       </c>
       <c r="E115">
         <v>0.2596372466150386</v>
@@ -19994,7 +19994,7 @@
         <v>0.7909543784745049</v>
       </c>
       <c r="D116">
-        <v>0.3490558017116263</v>
+        <v>0.3089915543580617</v>
       </c>
       <c r="E116">
         <v>0.4291355047023914</v>
@@ -20020,7 +20020,7 @@
         <v>0.8447586816143456</v>
       </c>
       <c r="D117">
-        <v>0.3693475680944888</v>
+        <v>0.4535087027650222</v>
       </c>
       <c r="E117">
         <v>0.3698090805190957</v>
@@ -20046,7 +20046,7 @@
         <v>0.8684642380996106</v>
       </c>
       <c r="D118">
-        <v>0.23276211602333</v>
+        <v>0.3302240832630717</v>
       </c>
       <c r="E118">
         <v>0.3404049228270992</v>
@@ -20072,7 +20072,7 @@
         <v>0.898527264344287</v>
       </c>
       <c r="D119">
-        <v>0.1863540355359605</v>
+        <v>0.3729751324351932</v>
       </c>
       <c r="E119">
         <v>0.2989844449438757</v>
@@ -20098,7 +20098,7 @@
         <v>0.9034472874893028</v>
       </c>
       <c r="D120">
-        <v>0.2370283918302883</v>
+        <v>0.4297854137971561</v>
       </c>
       <c r="E120">
         <v>0.2916460839178758</v>
@@ -20124,7 +20124,7 @@
         <v>0.9128698712714396</v>
       </c>
       <c r="D121">
-        <v>0.3143836663697006</v>
+        <v>0.4915969082480043</v>
       </c>
       <c r="E121">
         <v>0.2770499573002087</v>
@@ -20150,7 +20150,7 @@
         <v>0.918651696639133</v>
       </c>
       <c r="D122">
-        <v>0.4823616218413062</v>
+        <v>0.6095114399522295</v>
       </c>
       <c r="E122">
         <v>0.2676998695041831</v>
@@ -20176,7 +20176,7 @@
         <v>0.9200646308366927</v>
       </c>
       <c r="D123">
-        <v>0.5284503876437749</v>
+        <v>0.6543079653280024</v>
       </c>
       <c r="E123">
         <v>0.2653648537613747</v>
@@ -20202,7 +20202,7 @@
         <v>0.9215156972806424</v>
       </c>
       <c r="D124">
-        <v>0.5605804377578284</v>
+        <v>0.7009418568818182</v>
       </c>
       <c r="E124">
         <v>0.2629452390797267</v>
@@ -20228,7 +20228,7 @@
         <v>0.9279579171047826</v>
       </c>
       <c r="D125">
-        <v>0.4885067168039264</v>
+        <v>0.666431051341966</v>
       </c>
       <c r="E125">
         <v>0.2519225479379628</v>
@@ -20254,7 +20254,7 @@
         <v>0.9346120835174505</v>
       </c>
       <c r="D126">
-        <v>0.5122830702816632</v>
+        <v>0.6849213747244747</v>
       </c>
       <c r="E126">
         <v>0.2400063097011912</v>
@@ -20280,7 +20280,7 @@
         <v>0.935621129898923</v>
       </c>
       <c r="D127">
-        <v>0.4391947708818976</v>
+        <v>0.6615716795107529</v>
       </c>
       <c r="E127">
         <v>0.238147257654911</v>
@@ -20306,7 +20306,7 @@
         <v>0.938912498929923</v>
       </c>
       <c r="D128">
-        <v>0.3845680684871937</v>
+        <v>0.6467841562281342</v>
       </c>
       <c r="E128">
         <v>0.2319797571998201</v>
@@ -20332,7 +20332,7 @@
         <v>0.9389896589645031</v>
       </c>
       <c r="D129">
-        <v>0.3867802960812304</v>
+        <v>0.6445806925221154</v>
       </c>
       <c r="E129">
         <v>0.2318332033089915</v>
@@ -20358,7 +20358,7 @@
         <v>0.9394105981211697</v>
       </c>
       <c r="D130">
-        <v>0.403775338952718</v>
+        <v>0.6463957823918294</v>
       </c>
       <c r="E130">
         <v>0.2310320556634755</v>
@@ -20384,7 +20384,7 @@
         <v>0.938485628965705</v>
       </c>
       <c r="D131">
-        <v>0.3595012192922332</v>
+        <v>0.6301645704358809</v>
       </c>
       <c r="E131">
         <v>0.2327888654262205</v>
@@ -20410,7 +20410,7 @@
         <v>0.9363132544891739</v>
       </c>
       <c r="D132">
-        <v>0.3406002402142427</v>
+        <v>0.6379744308176949</v>
       </c>
       <c r="E132">
         <v>0.2368636612082343</v>
@@ -20436,7 +20436,7 @@
         <v>0.9367986958671023</v>
       </c>
       <c r="D133">
-        <v>0.2905554906139809</v>
+        <v>0.6195957358756849</v>
       </c>
       <c r="E133">
         <v>0.2359592079298442</v>
@@ -20462,7 +20462,7 @@
         <v>0.9349426096824407</v>
       </c>
       <c r="D134">
-        <v>0.2579427347888533</v>
+        <v>0.6133454052493106</v>
       </c>
       <c r="E134">
         <v>0.2393989431430526</v>
@@ -20488,7 +20488,7 @@
         <v>0.9033503440319952</v>
       </c>
       <c r="D135">
-        <v>0.4291644290226285</v>
+        <v>0.2281261957576046</v>
       </c>
       <c r="E135">
         <v>0.2917924603666092</v>
@@ -20514,7 +20514,7 @@
         <v>0.9078140371823327</v>
       </c>
       <c r="D136">
-        <v>0.3669381267582558</v>
+        <v>0.3650426682723934</v>
       </c>
       <c r="E136">
         <v>0.2849747016793113</v>
@@ -20540,7 +20540,7 @@
         <v>0.899108807441598</v>
       </c>
       <c r="D137">
-        <v>0.3715687627077177</v>
+        <v>0.4394449240703652</v>
       </c>
       <c r="E137">
         <v>0.2981264697830298</v>
@@ -20566,7 +20566,7 @@
         <v>0.9140285810831236</v>
       </c>
       <c r="D138">
-        <v>0.3615257430909282</v>
+        <v>0.5033624206764854</v>
       </c>
       <c r="E138">
         <v>0.2752016015902592</v>
@@ -20592,7 +20592,7 @@
         <v>0.9093043999689663</v>
       </c>
       <c r="D139">
-        <v>0.41653696081648</v>
+        <v>0.5902195371129966</v>
       </c>
       <c r="E139">
         <v>0.2826617340590431</v>
@@ -20618,7 +20618,7 @@
         <v>0.918012582218218</v>
       </c>
       <c r="D140">
-        <v>0.4595637760056952</v>
+        <v>0.613488610351262</v>
       </c>
       <c r="E140">
         <v>0.2687494065508103</v>
@@ -20644,7 +20644,7 @@
         <v>0.9232917793419162</v>
       </c>
       <c r="D141">
-        <v>0.5829702300006251</v>
+        <v>0.6776612320675788</v>
       </c>
       <c r="E141">
         <v>0.2599530181739186</v>
@@ -20670,7 +20670,7 @@
         <v>0.9212112876140087</v>
       </c>
       <c r="D142">
-        <v>0.5886251540389608</v>
+        <v>0.6712322729057149</v>
       </c>
       <c r="E142">
         <v>0.2634546760376493</v>
@@ -20696,7 +20696,7 @@
         <v>0.9220360892076699</v>
       </c>
       <c r="D143">
-        <v>0.6264192932833813</v>
+        <v>0.6979443701125927</v>
       </c>
       <c r="E143">
         <v>0.2620720571108046</v>
@@ -20722,7 +20722,7 @@
         <v>0.9282289775847491</v>
       </c>
       <c r="D144">
-        <v>0.6665273482104972</v>
+        <v>0.7175587097738932</v>
       </c>
       <c r="E144">
         <v>0.2514481682601891</v>
@@ -20748,7 +20748,7 @@
         <v>0.9355855304669103</v>
       </c>
       <c r="D145">
-        <v>0.6448142275840993</v>
+        <v>0.7113512881584717</v>
       </c>
       <c r="E145">
         <v>0.2382130924188362</v>
@@ -20774,7 +20774,7 @@
         <v>0.9363392562161829</v>
       </c>
       <c r="D146">
-        <v>0.6109241527082239</v>
+        <v>0.7186669133628061</v>
       </c>
       <c r="E146">
         <v>0.2368153034772487</v>
@@ -20800,7 +20800,7 @@
         <v>0.9402840934503675</v>
       </c>
       <c r="D147">
-        <v>0.5833258422838494</v>
+        <v>0.6991302045095322</v>
       </c>
       <c r="E147">
         <v>0.2293606573276683</v>
@@ -20826,7 +20826,7 @@
         <v>0.94124653869391</v>
       </c>
       <c r="D148">
-        <v>0.6130098962673008</v>
+        <v>0.7105987984332496</v>
       </c>
       <c r="E148">
         <v>0.2275048388698361</v>
@@ -20852,7 +20852,7 @@
         <v>0.942357720488435</v>
       </c>
       <c r="D149">
-        <v>0.6144134601500822</v>
+        <v>0.7033146505359036</v>
       </c>
       <c r="E149">
         <v>0.2253432134811566</v>
@@ -20878,7 +20878,7 @@
         <v>0.94202906084764</v>
       </c>
       <c r="D150">
-        <v>0.5378885344667038</v>
+        <v>0.6667083938703559</v>
       </c>
       <c r="E150">
         <v>0.2259847213395718</v>
@@ -20904,7 +20904,7 @@
         <v>0.938767724384364</v>
       </c>
       <c r="D151">
-        <v>0.5096459089688727</v>
+        <v>0.6624227754418135</v>
       </c>
       <c r="E151">
         <v>0.2322544851580821</v>
@@ -20930,7 +20930,7 @@
         <v>0.9392789337953491</v>
       </c>
       <c r="D152">
-        <v>0.5200808719293042</v>
+        <v>0.6603339436300345</v>
       </c>
       <c r="E152">
         <v>0.2312829425467094</v>
@@ -20956,7 +20956,7 @@
         <v>0.9383113663894996</v>
       </c>
       <c r="D153">
-        <v>0.5043465304497403</v>
+        <v>0.645572941189589</v>
       </c>
       <c r="E153">
         <v>0.2331183632123223</v>
@@ -20982,7 +20982,7 @@
         <v>0.883795882361996</v>
       </c>
       <c r="D154">
-        <v>0.5574651311852106</v>
+        <v>0.2780843064135532</v>
       </c>
       <c r="E154">
         <v>0.3199518814890602</v>
@@ -21008,7 +21008,7 @@
         <v>0.8974639225243622</v>
       </c>
       <c r="D155">
-        <v>0.5217562786773242</v>
+        <v>0.4327137037601501</v>
       </c>
       <c r="E155">
         <v>0.3005469046152608</v>
@@ -21034,7 +21034,7 @@
         <v>0.8989587742356838</v>
       </c>
       <c r="D156">
-        <v>0.3461209796107343</v>
+        <v>0.3554266418262146</v>
       </c>
       <c r="E156">
         <v>0.2983480562882734</v>
@@ -21060,7 +21060,7 @@
         <v>0.9174574014544199</v>
       </c>
       <c r="D157">
-        <v>0.2978513429102608</v>
+        <v>0.3939033227841379</v>
       </c>
       <c r="E157">
         <v>0.269657794511465</v>
@@ -21086,7 +21086,7 @@
         <v>0.9147128591773691</v>
       </c>
       <c r="D158">
-        <v>0.3410779360096624</v>
+        <v>0.4730790836699849</v>
       </c>
       <c r="E158">
         <v>0.2741041982643739</v>
@@ -21112,7 +21112,7 @@
         <v>0.9213294375135497</v>
       </c>
       <c r="D159">
-        <v>0.3444644796663584</v>
+        <v>0.4809514842111043</v>
       </c>
       <c r="E159">
         <v>0.2632570663755223</v>
@@ -21138,7 +21138,7 @@
         <v>0.9239892429616968</v>
       </c>
       <c r="D160">
-        <v>0.3988754447141594</v>
+        <v>0.521869213097873</v>
       </c>
       <c r="E160">
         <v>0.2587685180800401</v>
@@ -21164,7 +21164,7 @@
         <v>0.915627361646668</v>
       </c>
       <c r="D161">
-        <v>0.438808802716379</v>
+        <v>0.5533714115969153</v>
       </c>
       <c r="E161">
         <v>0.2726306786441179</v>
@@ -21190,7 +21190,7 @@
         <v>0.9182209121023702</v>
       </c>
       <c r="D162">
-        <v>0.4929177522087589</v>
+        <v>0.6053317601324906</v>
       </c>
       <c r="E162">
         <v>0.268407743487144</v>
@@ -21216,7 +21216,7 @@
         <v>0.9219679910543073</v>
       </c>
       <c r="D163">
-        <v>0.5103537119526005</v>
+        <v>0.6158024380457245</v>
       </c>
       <c r="E163">
         <v>0.2621864865153247</v>
@@ -21242,7 +21242,7 @@
         <v>0.9247802268357939</v>
       </c>
       <c r="D164">
-        <v>0.4917980292872047</v>
+        <v>0.611167754320558</v>
       </c>
       <c r="E164">
         <v>0.2574185972799348</v>
@@ -21268,7 +21268,7 @@
         <v>0.9271098567201194</v>
       </c>
       <c r="D165">
-        <v>0.4354521571562719</v>
+        <v>0.5821609561814041</v>
       </c>
       <c r="E165">
         <v>0.2534009925730045</v>
@@ -21294,7 +21294,7 @@
         <v>0.93130848131209</v>
       </c>
       <c r="D166">
-        <v>0.4116085626374174</v>
+        <v>0.5604243574606165</v>
       </c>
       <c r="E166">
         <v>0.2459945405980204</v>
@@ -21320,7 +21320,7 @@
         <v>0.9325768420479115</v>
       </c>
       <c r="D167">
-        <v>0.4646191453297428</v>
+        <v>0.5958005242294706</v>
       </c>
       <c r="E167">
         <v>0.2437128647926486</v>
@@ -21346,7 +21346,7 @@
         <v>0.9347834335227099</v>
       </c>
       <c r="D168">
-        <v>0.4780728288668005</v>
+        <v>0.5882074406243252</v>
       </c>
       <c r="E168">
         <v>0.239691633364762</v>
@@ -21372,7 +21372,7 @@
         <v>0.9343543428792236</v>
       </c>
       <c r="D169">
-        <v>0.4394831497632532</v>
+        <v>0.5644102245360058</v>
       </c>
       <c r="E169">
         <v>0.2404788629233572</v>
@@ -21398,7 +21398,7 @@
         <v>0.9310925108021573</v>
       </c>
       <c r="D170">
-        <v>0.3922630116581434</v>
+        <v>0.5513474713574276</v>
       </c>
       <c r="E170">
         <v>0.2463809483656199</v>
@@ -21424,7 +21424,7 @@
         <v>0.9319256639144751</v>
       </c>
       <c r="D171">
-        <v>0.3915040267047312</v>
+        <v>0.5409024093793535</v>
       </c>
       <c r="E171">
         <v>0.2448869357431127</v>
@@ -21450,7 +21450,7 @@
         <v>0.9322004896964876</v>
       </c>
       <c r="D172">
-        <v>0.3633822049562245</v>
+        <v>0.526815608268018</v>
       </c>
       <c r="E172">
         <v>0.244392114117744</v>
@@ -21476,7 +21476,7 @@
         <v>0.8955829188704801</v>
       </c>
       <c r="D173">
-        <v>0.4037570689461213</v>
+        <v>0.2616237407701181</v>
       </c>
       <c r="E173">
         <v>0.3032911124902305</v>
@@ -21502,7 +21502,7 @@
         <v>0.9051009986558605</v>
       </c>
       <c r="D174">
-        <v>0.1884625275569182</v>
+        <v>0.3898108707237119</v>
       </c>
       <c r="E174">
         <v>0.289137705865849</v>
@@ -21528,7 +21528,7 @@
         <v>0.8959062064052585</v>
       </c>
       <c r="D175">
-        <v>0.3817067220069222</v>
+        <v>0.5551463943882744</v>
       </c>
       <c r="E175">
         <v>0.302821236074943</v>
@@ -21554,7 +21554,7 @@
         <v>0.9155901443790863</v>
       </c>
       <c r="D176">
-        <v>0.433530821409324</v>
+        <v>0.6107667381911934</v>
       </c>
       <c r="E176">
         <v>0.2726908015135398</v>
@@ -21580,7 +21580,7 @@
         <v>0.9155086693029763</v>
       </c>
       <c r="D177">
-        <v>0.4486413076728362</v>
+        <v>0.6434133816185931</v>
       </c>
       <c r="E177">
         <v>0.2728223746868976</v>
@@ -21606,7 +21606,7 @@
         <v>0.9243326643217479</v>
       </c>
       <c r="D178">
-        <v>0.4627278020961941</v>
+        <v>0.6655787814207712</v>
       </c>
       <c r="E178">
         <v>0.2581832901232584</v>
@@ -21632,7 +21632,7 @@
         <v>0.9269089446107027</v>
       </c>
       <c r="D179">
-        <v>0.5364570255635567</v>
+        <v>0.6776775583474093</v>
       </c>
       <c r="E179">
         <v>0.2537499855323147</v>
@@ -21658,7 +21658,7 @@
         <v>0.9218387760485427</v>
       </c>
       <c r="D180">
-        <v>0.5440164851433349</v>
+        <v>0.6884976463798288</v>
       </c>
       <c r="E180">
         <v>0.262403477051684</v>
@@ -21684,7 +21684,7 @@
         <v>0.9214081481201037</v>
       </c>
       <c r="D181">
-        <v>0.578541696379968</v>
+        <v>0.7044677350515351</v>
       </c>
       <c r="E181">
         <v>0.2631253378850232</v>
@@ -21710,7 +21710,7 @@
         <v>0.9258482004941101</v>
       </c>
       <c r="D182">
-        <v>0.5876895647225431</v>
+        <v>0.7068876897844635</v>
       </c>
       <c r="E182">
         <v>0.2555846440701116</v>
@@ -21736,7 +21736,7 @@
         <v>0.9281213276867737</v>
       </c>
       <c r="D183">
-        <v>0.5852363884093241</v>
+        <v>0.7044639719915164</v>
       </c>
       <c r="E183">
         <v>0.2516366721043639</v>
@@ -21762,7 +21762,7 @@
         <v>0.9281518465218566</v>
       </c>
       <c r="D184">
-        <v>0.5034115535101575</v>
+        <v>0.6569623714892259</v>
       </c>
       <c r="E184">
         <v>0.2515832454536224</v>
@@ -21788,7 +21788,7 @@
         <v>0.9320054447446862</v>
       </c>
       <c r="D185">
-        <v>0.4809373480114886</v>
+        <v>0.6365972341672896</v>
       </c>
       <c r="E185">
         <v>0.2447433940519153</v>
@@ -21814,7 +21814,7 @@
         <v>0.9345321928901441</v>
       </c>
       <c r="D186">
-        <v>0.5324525029724918</v>
+        <v>0.6493907066564608</v>
       </c>
       <c r="E186">
         <v>0.2401528841945673</v>
@@ -21840,7 +21840,7 @@
         <v>0.9348170525656326</v>
       </c>
       <c r="D187">
-        <v>0.5356109011380736</v>
+        <v>0.6380858978106005</v>
       </c>
       <c r="E187">
         <v>0.239629845060721</v>
@@ -21866,7 +21866,7 @@
         <v>0.9328857548176014</v>
       </c>
       <c r="D188">
-        <v>0.5229965185891534</v>
+        <v>0.640029414855438</v>
       </c>
       <c r="E188">
         <v>0.2431539140479145</v>
@@ -21892,7 +21892,7 @@
         <v>0.9287387360547915</v>
       </c>
       <c r="D189">
-        <v>0.4866354164333946</v>
+        <v>0.636802637962399</v>
       </c>
       <c r="E189">
         <v>0.2505536133339945</v>
@@ -21918,7 +21918,7 @@
         <v>0.9295621189195096</v>
       </c>
       <c r="D190">
-        <v>0.4910799754785786</v>
+        <v>0.621949431640067</v>
       </c>
       <c r="E190">
         <v>0.2491019063882658</v>
@@ -21944,7 +21944,7 @@
         <v>0.9312684855564365</v>
       </c>
       <c r="D191">
-        <v>0.4754656394132395</v>
+        <v>0.6179543093753479</v>
       </c>
       <c r="E191">
         <v>0.2460661455500369</v>
@@ -21970,7 +21970,7 @@
         <v>0.8897168427475808</v>
       </c>
       <c r="D192">
-        <v>0.5604480218174028</v>
+        <v>0.4336712328497845</v>
       </c>
       <c r="E192">
         <v>0.3116940450792769</v>
@@ -21996,7 +21996,7 @@
         <v>0.8910318345644047</v>
       </c>
       <c r="D193">
-        <v>0.4608513137899031</v>
+        <v>0.4714721513586235</v>
       </c>
       <c r="E193">
         <v>0.3098301871572728</v>
@@ -22022,7 +22022,7 @@
         <v>0.8961115301387792</v>
       </c>
       <c r="D194">
-        <v>0.2933972769204145</v>
+        <v>0.3899679103132667</v>
       </c>
       <c r="E194">
         <v>0.3025224330654236</v>
@@ -22048,7 +22048,7 @@
         <v>0.9105380176658138</v>
       </c>
       <c r="D195">
-        <v>0.3858069558336633</v>
+        <v>0.5102820123748408</v>
       </c>
       <c r="E195">
         <v>0.2807328071323217</v>
@@ -22074,7 +22074,7 @@
         <v>0.9092271665211271</v>
       </c>
       <c r="D196">
-        <v>0.4132738852555933</v>
+        <v>0.5509922395959012</v>
       </c>
       <c r="E196">
         <v>0.2827820612559124</v>
@@ -22100,7 +22100,7 @@
         <v>0.9213209810225177</v>
       </c>
       <c r="D197">
-        <v>0.4456136843879989</v>
+        <v>0.6060423447769565</v>
       </c>
       <c r="E197">
         <v>0.2632712150680446</v>
@@ -22126,7 +22126,7 @@
         <v>0.9273712961883636</v>
       </c>
       <c r="D198">
-        <v>0.5232440438764439</v>
+        <v>0.639172357043745</v>
       </c>
       <c r="E198">
         <v>0.2529461400416438</v>
@@ -22152,7 +22152,7 @@
         <v>0.9181905498923914</v>
       </c>
       <c r="D199">
-        <v>0.4725500238501444</v>
+        <v>0.6136849668486598</v>
       </c>
       <c r="E199">
         <v>0.2684575648791626</v>
@@ -22178,7 +22178,7 @@
         <v>0.9198819552825077</v>
       </c>
       <c r="D200">
-        <v>0.4959183351172411</v>
+        <v>0.6243287634960049</v>
       </c>
       <c r="E200">
         <v>0.265667898637377</v>
@@ -22204,7 +22204,7 @@
         <v>0.9231253507607193</v>
       </c>
       <c r="D201">
-        <v>0.5227714323150771</v>
+        <v>0.6291334742176099</v>
       </c>
       <c r="E201">
         <v>0.2602348665241916</v>
@@ -22230,7 +22230,7 @@
         <v>0.9280312252328058</v>
       </c>
       <c r="D202">
-        <v>0.5141106264756101</v>
+        <v>0.6277991886585264</v>
       </c>
       <c r="E202">
         <v>0.2517943404363481</v>
@@ -22256,7 +22256,7 @@
         <v>0.9295409937799203</v>
       </c>
       <c r="D203">
-        <v>0.5115054452694079</v>
+        <v>0.6278927693337735</v>
       </c>
       <c r="E203">
         <v>0.2491392578670841</v>
@@ -22282,7 +22282,7 @@
         <v>0.9317509358785131</v>
       </c>
       <c r="D204">
-        <v>0.4912593093139871</v>
+        <v>0.6082683254629699</v>
       </c>
       <c r="E204">
         <v>0.2452010129292715</v>
@@ -22308,7 +22308,7 @@
         <v>0.9346284823616786</v>
       </c>
       <c r="D205">
-        <v>0.5378053013398161</v>
+        <v>0.6240885315657901</v>
       </c>
       <c r="E205">
         <v>0.2399762118398519</v>
@@ -22334,7 +22334,7 @@
         <v>0.9329230945160262</v>
       </c>
       <c r="D206">
-        <v>0.529779705198425</v>
+        <v>0.605110303359595</v>
       </c>
       <c r="E206">
         <v>0.2430862640506028</v>
@@ -22360,7 +22360,7 @@
         <v>0.9314396856853389</v>
       </c>
       <c r="D207">
-        <v>0.5177616844829247</v>
+        <v>0.6102793746817732</v>
       </c>
       <c r="E207">
         <v>0.2457594971248641</v>
@@ -22386,7 +22386,7 @@
         <v>0.9263426944293437</v>
       </c>
       <c r="D208">
-        <v>0.4514826700587466</v>
+        <v>0.5847753377644731</v>
       </c>
       <c r="E208">
         <v>0.2547310136264797</v>
@@ -22412,7 +22412,7 @@
         <v>0.9259074370863979</v>
       </c>
       <c r="D209">
-        <v>0.4252550661207464</v>
+        <v>0.557125512329677</v>
       </c>
       <c r="E209">
         <v>0.2554825360408609</v>
@@ -22438,7 +22438,7 @@
         <v>0.9260197247227561</v>
       </c>
       <c r="D210">
-        <v>0.4002044220119508</v>
+        <v>0.5405794490323661</v>
       </c>
       <c r="E210">
         <v>0.255288870130001</v>
@@ -22464,7 +22464,7 @@
         <v>0.8897168427475808</v>
       </c>
       <c r="D211">
-        <v>0.5604480218174028</v>
+        <v>0.4336712328497845</v>
       </c>
       <c r="E211">
         <v>0.3116940450792769</v>
@@ -22490,7 +22490,7 @@
         <v>0.8910318345644047</v>
       </c>
       <c r="D212">
-        <v>0.4608513137899031</v>
+        <v>0.4714721513586235</v>
       </c>
       <c r="E212">
         <v>0.3098301871572728</v>
@@ -22516,7 +22516,7 @@
         <v>0.8961115301387792</v>
       </c>
       <c r="D213">
-        <v>0.2933972769204145</v>
+        <v>0.3899679103132667</v>
       </c>
       <c r="E213">
         <v>0.3025224330654236</v>
@@ -22542,7 +22542,7 @@
         <v>0.9105380176658138</v>
       </c>
       <c r="D214">
-        <v>0.3858069558336633</v>
+        <v>0.5102820123748408</v>
       </c>
       <c r="E214">
         <v>0.2807328071323217</v>
@@ -22568,7 +22568,7 @@
         <v>0.9092271665211271</v>
       </c>
       <c r="D215">
-        <v>0.4132738852555933</v>
+        <v>0.5509922395959012</v>
       </c>
       <c r="E215">
         <v>0.2827820612559124</v>
@@ -22594,7 +22594,7 @@
         <v>0.9213209810225177</v>
       </c>
       <c r="D216">
-        <v>0.4456136843879989</v>
+        <v>0.6060423447769565</v>
       </c>
       <c r="E216">
         <v>0.2632712150680446</v>
@@ -22620,7 +22620,7 @@
         <v>0.9273712961883636</v>
       </c>
       <c r="D217">
-        <v>0.5232440438764439</v>
+        <v>0.639172357043745</v>
       </c>
       <c r="E217">
         <v>0.2529461400416438</v>
@@ -22646,7 +22646,7 @@
         <v>0.9181905498923914</v>
       </c>
       <c r="D218">
-        <v>0.4725500238501444</v>
+        <v>0.6136849668486598</v>
       </c>
       <c r="E218">
         <v>0.2684575648791626</v>
@@ -22672,7 +22672,7 @@
         <v>0.9198819552825077</v>
       </c>
       <c r="D219">
-        <v>0.4959183351172411</v>
+        <v>0.6243287634960049</v>
       </c>
       <c r="E219">
         <v>0.265667898637377</v>
@@ -22698,7 +22698,7 @@
         <v>0.9231253507607193</v>
       </c>
       <c r="D220">
-        <v>0.5227714323150771</v>
+        <v>0.6291334742176099</v>
       </c>
       <c r="E220">
         <v>0.2602348665241916</v>
@@ -22724,7 +22724,7 @@
         <v>0.9280312252328058</v>
       </c>
       <c r="D221">
-        <v>0.5141106264756101</v>
+        <v>0.6277991886585264</v>
       </c>
       <c r="E221">
         <v>0.2517943404363481</v>
@@ -22750,7 +22750,7 @@
         <v>0.9295409937799203</v>
       </c>
       <c r="D222">
-        <v>0.5115054452694079</v>
+        <v>0.6278927693337735</v>
       </c>
       <c r="E222">
         <v>0.2491392578670841</v>
@@ -22776,7 +22776,7 @@
         <v>0.9317509358785131</v>
       </c>
       <c r="D223">
-        <v>0.4912593093139871</v>
+        <v>0.6082683254629699</v>
       </c>
       <c r="E223">
         <v>0.2452010129292715</v>
@@ -22802,7 +22802,7 @@
         <v>0.9346284823616786</v>
       </c>
       <c r="D224">
-        <v>0.5378053013398161</v>
+        <v>0.6240885315657901</v>
       </c>
       <c r="E224">
         <v>0.2399762118398519</v>
@@ -22828,7 +22828,7 @@
         <v>0.9329230945160262</v>
       </c>
       <c r="D225">
-        <v>0.529779705198425</v>
+        <v>0.605110303359595</v>
       </c>
       <c r="E225">
         <v>0.2430862640506028</v>
@@ -22854,7 +22854,7 @@
         <v>0.9314396856853389</v>
       </c>
       <c r="D226">
-        <v>0.5177616844829247</v>
+        <v>0.6102793746817732</v>
       </c>
       <c r="E226">
         <v>0.2457594971248641</v>
@@ -22880,7 +22880,7 @@
         <v>0.9263426944293437</v>
       </c>
       <c r="D227">
-        <v>0.4514826700587466</v>
+        <v>0.5847753377644731</v>
       </c>
       <c r="E227">
         <v>0.2547310136264797</v>
@@ -22906,7 +22906,7 @@
         <v>0.9259074370863979</v>
       </c>
       <c r="D228">
-        <v>0.4252550661207464</v>
+        <v>0.557125512329677</v>
       </c>
       <c r="E228">
         <v>0.2554825360408609</v>
@@ -22932,7 +22932,7 @@
         <v>0.9260197247227561</v>
       </c>
       <c r="D229">
-        <v>0.4002044220119508</v>
+        <v>0.5405794490323661</v>
       </c>
       <c r="E229">
         <v>0.255288870130001</v>
@@ -22958,7 +22958,7 @@
         <v>0.8957694342521697</v>
       </c>
       <c r="D230">
-        <v>0.4000368132975921</v>
+        <v>-0.002449784152045442</v>
       </c>
       <c r="E230">
         <v>0.3030201140051845</v>
@@ -22984,7 +22984,7 @@
         <v>0.8649560912805973</v>
       </c>
       <c r="D231">
-        <v>0.2637503014089437</v>
+        <v>0.1082565273010075</v>
       </c>
       <c r="E231">
         <v>0.3449144661252885</v>
@@ -23010,7 +23010,7 @@
         <v>0.8759002138043734</v>
       </c>
       <c r="D232">
-        <v>0.1137782132549215</v>
+        <v>0.04946964732407633</v>
       </c>
       <c r="E232">
         <v>0.3306430712747035</v>
@@ -23036,7 +23036,7 @@
         <v>0.8971197043269711</v>
       </c>
       <c r="D233">
-        <v>0.1691659751686561</v>
+        <v>0.2430162116003303</v>
       </c>
       <c r="E233">
         <v>0.301050956637872</v>
@@ -23062,7 +23062,7 @@
         <v>0.899574290102665</v>
       </c>
       <c r="D234">
-        <v>0.2227798400978707</v>
+        <v>0.3202860865237551</v>
       </c>
       <c r="E234">
         <v>0.2974379402220458</v>
@@ -23088,7 +23088,7 @@
         <v>0.9128765872430141</v>
       </c>
       <c r="D235">
-        <v>0.2671900862355683</v>
+        <v>0.3912259450162107</v>
       </c>
       <c r="E235">
         <v>0.2770392796188986</v>
@@ -23114,7 +23114,7 @@
         <v>0.9206397843916305</v>
       </c>
       <c r="D236">
-        <v>0.3804354151801402</v>
+        <v>0.4917491842591635</v>
       </c>
       <c r="E236">
         <v>0.26440844937606</v>
@@ -23140,7 +23140,7 @@
         <v>0.9161896766064161</v>
       </c>
       <c r="D237">
-        <v>0.3397134068704749</v>
+        <v>0.4763686583194882</v>
       </c>
       <c r="E237">
         <v>0.2717206644671021</v>
@@ -23166,7 +23166,7 @@
         <v>0.917329173115237</v>
       </c>
       <c r="D238">
-        <v>0.4205783700877961</v>
+        <v>0.5478383753512641</v>
       </c>
       <c r="E238">
         <v>0.2698671673273932</v>
@@ -23192,7 +23192,7 @@
         <v>0.9213003430875393</v>
       </c>
       <c r="D239">
-        <v>0.2955985957506255</v>
+        <v>0.4786897445644215</v>
       </c>
       <c r="E239">
         <v>0.2633057415405063</v>
@@ -23218,7 +23218,7 @@
         <v>0.9271075400363246</v>
       </c>
       <c r="D240">
-        <v>0.3167145710896445</v>
+        <v>0.5121772144607387</v>
       </c>
       <c r="E240">
         <v>0.2534050194913379</v>
@@ -23244,7 +23244,7 @@
         <v>0.9281142279091146</v>
       </c>
       <c r="D241">
-        <v>0.2851880414015558</v>
+        <v>0.4758945342811454</v>
       </c>
       <c r="E241">
         <v>0.2516490994367753</v>
@@ -23270,7 +23270,7 @@
         <v>0.9293705604992911</v>
       </c>
       <c r="D242">
-        <v>0.3133905732944182</v>
+        <v>0.463835147732008</v>
       </c>
       <c r="E242">
         <v>0.2494403973291269</v>
@@ -23296,7 +23296,7 @@
         <v>0.9310929671831366</v>
       </c>
       <c r="D243">
-        <v>0.3876682581181262</v>
+        <v>0.5006682892435771</v>
       </c>
       <c r="E243">
         <v>0.2463801324618191</v>
@@ -23322,7 +23322,7 @@
         <v>0.9327956800089657</v>
       </c>
       <c r="D244">
-        <v>0.4076350363683421</v>
+        <v>0.5022677604752264</v>
       </c>
       <c r="E244">
         <v>0.2433170291838911</v>
@@ -23348,7 +23348,7 @@
         <v>0.9311633014869037</v>
       </c>
       <c r="D245">
-        <v>0.3789702616560815</v>
+        <v>0.4815542879969275</v>
       </c>
       <c r="E245">
         <v>0.2462543586575649</v>
@@ -23374,7 +23374,7 @@
         <v>0.9261009327278725</v>
       </c>
       <c r="D246">
-        <v>0.3382200143403042</v>
+        <v>0.480655152840607</v>
       </c>
       <c r="E246">
         <v>0.2551487166083326</v>
@@ -23400,7 +23400,7 @@
         <v>0.9266472145195881</v>
       </c>
       <c r="D247">
-        <v>0.330742046459272</v>
+        <v>0.4517893231417562</v>
       </c>
       <c r="E247">
         <v>0.2542039033037387</v>
@@ -23426,7 +23426,7 @@
         <v>0.9264281669069243</v>
       </c>
       <c r="D248">
-        <v>0.3340209196689526</v>
+        <v>0.456558298338218</v>
       </c>
       <c r="E248">
         <v>0.2545831748575387</v>
@@ -23452,7 +23452,7 @@
         <v>0.8406914680916961</v>
       </c>
       <c r="D249">
-        <v>0.4041552545856556</v>
+        <v>0.1619943679682113</v>
       </c>
       <c r="E249">
         <v>0.3746221288217028</v>
@@ -23478,7 +23478,7 @@
         <v>0.8462639816531219</v>
       </c>
       <c r="D250">
-        <v>0.4142161101933327</v>
+        <v>0.1677346231803245</v>
       </c>
       <c r="E250">
         <v>0.3680117830591852</v>
@@ -23504,7 +23504,7 @@
         <v>0.8426471143174055</v>
       </c>
       <c r="D251">
-        <v>0.3583079317266216</v>
+        <v>0.2503841790113173</v>
       </c>
       <c r="E251">
         <v>0.3723156275372033</v>
@@ -23530,7 +23530,7 @@
         <v>0.8730074146762752</v>
       </c>
       <c r="D252">
-        <v>0.3670069881925899</v>
+        <v>0.2948203778635136</v>
       </c>
       <c r="E252">
         <v>0.3344745607450773</v>
@@ -23556,7 +23556,7 @@
         <v>0.888145136322207</v>
       </c>
       <c r="D253">
-        <v>0.4322693906825248</v>
+        <v>0.4010429835866599</v>
       </c>
       <c r="E253">
         <v>0.3139072499078304</v>
@@ -23582,7 +23582,7 @@
         <v>0.9027645505111985</v>
       </c>
       <c r="D254">
-        <v>0.4854078824992096</v>
+        <v>0.479774959588561</v>
       </c>
       <c r="E254">
         <v>0.2926754014959434</v>
@@ -23608,7 +23608,7 @@
         <v>0.9081533736392619</v>
       </c>
       <c r="D255">
-        <v>0.5359218286473677</v>
+        <v>0.5060064817170862</v>
       </c>
       <c r="E255">
         <v>0.2844497222948909</v>
@@ -23634,7 +23634,7 @@
         <v>0.9125612412185459</v>
       </c>
       <c r="D256">
-        <v>0.5801931216739366</v>
+        <v>0.5520456316213469</v>
       </c>
       <c r="E256">
         <v>0.2775402030900715</v>
@@ -23660,7 +23660,7 @@
         <v>0.9088385896651024</v>
       </c>
       <c r="D257">
-        <v>0.6039548014570808</v>
+        <v>0.5985324355442299</v>
       </c>
       <c r="E257">
         <v>0.2833866761823128</v>
@@ -23686,7 +23686,7 @@
         <v>0.9156312502253527</v>
       </c>
       <c r="D258">
-        <v>0.5610364623490272</v>
+        <v>0.5575533514584412</v>
       </c>
       <c r="E258">
         <v>0.272624396050129</v>
@@ -23712,7 +23712,7 @@
         <v>0.9230143143227151</v>
       </c>
       <c r="D259">
-        <v>0.5310602187150469</v>
+        <v>0.5411302975982919</v>
       </c>
       <c r="E259">
         <v>0.2604227381202016</v>
@@ -23738,7 +23738,7 @@
         <v>0.9243926241513891</v>
       </c>
       <c r="D260">
-        <v>0.5220105324180193</v>
+        <v>0.5448014499774005</v>
       </c>
       <c r="E260">
         <v>0.2580809758688067</v>
@@ -23764,7 +23764,7 @@
         <v>0.9255454467093192</v>
       </c>
       <c r="D261">
-        <v>0.5228278490919757</v>
+        <v>0.5556349967416627</v>
       </c>
       <c r="E261">
         <v>0.2561058748219188</v>
@@ -23790,7 +23790,7 @@
         <v>0.92713147383855</v>
       </c>
       <c r="D262">
-        <v>0.575295073716683</v>
+        <v>0.5978244881826662</v>
       </c>
       <c r="E262">
         <v>0.2533634140663643</v>
@@ -23816,7 +23816,7 @@
         <v>0.9290208259236873</v>
       </c>
       <c r="D263">
-        <v>0.591982049297</v>
+        <v>0.6004859843972441</v>
       </c>
       <c r="E263">
         <v>0.2500572095608616</v>
@@ -23842,7 +23842,7 @@
         <v>0.9271516312318258</v>
       </c>
       <c r="D264">
-        <v>0.6063446549509801</v>
+        <v>0.6193154209540784</v>
       </c>
       <c r="E264">
         <v>0.2533283680767554</v>
@@ -23868,7 +23868,7 @@
         <v>0.9213785528612745</v>
       </c>
       <c r="D265">
-        <v>0.6054486181888312</v>
+        <v>0.6291541240210419</v>
       </c>
       <c r="E265">
         <v>0.2631748756508379</v>
@@ -23894,7 +23894,7 @@
         <v>0.9204022603980573</v>
       </c>
       <c r="D266">
-        <v>0.57255067291599</v>
+        <v>0.5908955855687128</v>
       </c>
       <c r="E266">
         <v>0.2648038391072897</v>
@@ -23920,7 +23920,7 @@
         <v>0.9218846935948201</v>
       </c>
       <c r="D267">
-        <v>0.556064124478336</v>
+        <v>0.5801039718647216</v>
       </c>
       <c r="E267">
         <v>0.2623263883540309</v>
@@ -23946,7 +23946,7 @@
         <v>0.8747756537762027</v>
       </c>
       <c r="D268">
-        <v>0.3182520485144078</v>
+        <v>0.2748582625771928</v>
       </c>
       <c r="E268">
         <v>0.3321377935295994</v>
@@ -23972,7 +23972,7 @@
         <v>0.8621124871117822</v>
       </c>
       <c r="D269">
-        <v>0.2934385017134923</v>
+        <v>0.2049408072418362</v>
       </c>
       <c r="E269">
         <v>0.3485269604924094</v>
@@ -23998,7 +23998,7 @@
         <v>0.8515842025638493</v>
       </c>
       <c r="D270">
-        <v>0.2031097824549581</v>
+        <v>0.1890862859775769</v>
       </c>
       <c r="E270">
         <v>0.3615879712985913</v>
@@ -24024,7 +24024,7 @@
         <v>0.8674101004776386</v>
       </c>
       <c r="D271">
-        <v>0.3463726991959257</v>
+        <v>0.3932250823168232</v>
       </c>
       <c r="E271">
         <v>0.3417662163912465</v>
@@ -24050,7 +24050,7 @@
         <v>0.8872883430088914</v>
       </c>
       <c r="D272">
-        <v>0.4261934211885514</v>
+        <v>0.4735842406639573</v>
       </c>
       <c r="E272">
         <v>0.3151072002266482</v>
@@ -24076,7 +24076,7 @@
         <v>0.9063270596805049</v>
       </c>
       <c r="D273">
-        <v>0.4855894790410886</v>
+        <v>0.5696288665871611</v>
       </c>
       <c r="E273">
         <v>0.2872638561499432</v>
@@ -24102,7 +24102,7 @@
         <v>0.9134586508646828</v>
       </c>
       <c r="D274">
-        <v>0.5600385765909089</v>
+        <v>0.6239630724459113</v>
       </c>
       <c r="E274">
         <v>0.2761122915886804</v>
@@ -24128,7 +24128,7 @@
         <v>0.9129801654901694</v>
       </c>
       <c r="D275">
-        <v>0.5878448686115935</v>
+        <v>0.6451525084244156</v>
       </c>
       <c r="E275">
         <v>0.2768745490610836</v>
@@ -24154,7 +24154,7 @@
         <v>0.9081325806328979</v>
       </c>
       <c r="D276">
-        <v>0.6414184743287576</v>
+        <v>0.6735654162676191</v>
       </c>
       <c r="E276">
         <v>0.2844819185246871</v>
@@ -24180,7 +24180,7 @@
         <v>0.9186013732615053</v>
       </c>
       <c r="D277">
-        <v>0.6256151560566554</v>
+        <v>0.6444783169312548</v>
       </c>
       <c r="E277">
         <v>0.2677826584394167</v>
@@ -24206,7 +24206,7 @@
         <v>0.9244227688754341</v>
       </c>
       <c r="D278">
-        <v>0.6390160475782951</v>
+        <v>0.6558809375729115</v>
       </c>
       <c r="E278">
         <v>0.2580295221890743</v>
@@ -24232,7 +24232,7 @@
         <v>0.9246652720184836</v>
       </c>
       <c r="D279">
-        <v>0.6190960514216919</v>
+        <v>0.651784342859453</v>
       </c>
       <c r="E279">
         <v>0.2576152225114666</v>
@@ -24258,7 +24258,7 @@
         <v>0.9256169193876624</v>
       </c>
       <c r="D280">
-        <v>0.6223463498025266</v>
+        <v>0.6554294631403623</v>
       </c>
       <c r="E280">
         <v>0.25598292083869</v>
@@ -24284,7 +24284,7 @@
         <v>0.9266184872870638</v>
       </c>
       <c r="D281">
-        <v>0.6523048359357241</v>
+        <v>0.6776016688254149</v>
       </c>
       <c r="E281">
         <v>0.2542536755090617</v>
@@ -24310,7 +24310,7 @@
         <v>0.9286508527761929</v>
       </c>
       <c r="D282">
-        <v>0.6660397030670533</v>
+        <v>0.6897623232710829</v>
       </c>
       <c r="E282">
         <v>0.2507080639223295</v>
@@ -24336,7 +24336,7 @@
         <v>0.9256651461028993</v>
       </c>
       <c r="D283">
-        <v>0.6470615764049485</v>
+        <v>0.6801421736002486</v>
       </c>
       <c r="E283">
         <v>0.2558999233545871</v>
@@ -24362,7 +24362,7 @@
         <v>0.9204627247898595</v>
       </c>
       <c r="D284">
-        <v>0.6124870216560152</v>
+        <v>0.6633504412506255</v>
       </c>
       <c r="E284">
         <v>0.2647032442603791</v>
@@ -24388,7 +24388,7 @@
         <v>0.9211016743486808</v>
       </c>
       <c r="D285">
-        <v>0.5691127872984321</v>
+        <v>0.6226466423995323</v>
       </c>
       <c r="E285">
         <v>0.2636378754413423</v>
@@ -24414,7 +24414,7 @@
         <v>0.9232366912133648</v>
       </c>
       <c r="D286">
-        <v>0.5231142978647756</v>
+        <v>0.5940953291077071</v>
       </c>
       <c r="E286">
         <v>0.2600463442544966</v>
@@ -24440,7 +24440,7 @@
         <v>0.8638828135818896</v>
       </c>
       <c r="D287">
-        <v>0.3655518719456679</v>
+        <v>0.1898533110403314</v>
       </c>
       <c r="E287">
         <v>0.3462823781843127</v>
@@ -24466,7 +24466,7 @@
         <v>0.8637889161547891</v>
       </c>
       <c r="D288">
-        <v>0.3667678853735225</v>
+        <v>0.16131137723071</v>
       </c>
       <c r="E288">
         <v>0.3464017952091135</v>
@@ -24492,7 +24492,7 @@
         <v>0.837018619749712</v>
       </c>
       <c r="D289">
-        <v>0.2467348191976338</v>
+        <v>0.04171900398287021</v>
       </c>
       <c r="E289">
         <v>0.3789159663008628</v>
@@ -24518,7 +24518,7 @@
         <v>0.8524780198450406</v>
       </c>
       <c r="D290">
-        <v>0.3302831934037084</v>
+        <v>0.1856102942175356</v>
       </c>
       <c r="E290">
         <v>0.3604975157913486</v>
@@ -24544,7 +24544,7 @@
         <v>0.8744697573057238</v>
       </c>
       <c r="D291">
-        <v>0.3501353542664986</v>
+        <v>0.3055602217554131</v>
       </c>
       <c r="E291">
         <v>0.3325432171186027</v>
@@ -24570,7 +24570,7 @@
         <v>0.884472780569047</v>
       </c>
       <c r="D292">
-        <v>0.3489452921666222</v>
+        <v>0.3993481021940891</v>
       </c>
       <c r="E292">
         <v>0.319018647913915</v>
@@ -24596,7 +24596,7 @@
         <v>0.8856697536035257</v>
       </c>
       <c r="D293">
-        <v>0.402915597472034</v>
+        <v>0.4487306977399654</v>
       </c>
       <c r="E293">
         <v>0.3173616748687983</v>
@@ -24622,7 +24622,7 @@
         <v>0.8929388527276465</v>
       </c>
       <c r="D294">
-        <v>0.4511946987348925</v>
+        <v>0.4871409095750692</v>
       </c>
       <c r="E294">
         <v>0.3071070994485365</v>
@@ -24648,7 +24648,7 @@
         <v>0.8899720496481002</v>
       </c>
       <c r="D295">
-        <v>0.4607311125407656</v>
+        <v>0.5254630901713716</v>
       </c>
       <c r="E295">
         <v>0.3113331896857556</v>
@@ -24674,7 +24674,7 @@
         <v>0.8892364152519984</v>
       </c>
       <c r="D296">
-        <v>0.4287152177803371</v>
+        <v>0.4869912235313042</v>
       </c>
       <c r="E296">
         <v>0.3123722250573989</v>
@@ -24700,7 +24700,7 @@
         <v>0.9008689673194019</v>
       </c>
       <c r="D297">
-        <v>0.4115664615191882</v>
+        <v>0.4666817516765838</v>
       </c>
       <c r="E297">
         <v>0.2955144521419162</v>
@@ -24726,7 +24726,7 @@
         <v>0.8980717659097218</v>
       </c>
       <c r="D298">
-        <v>0.4645473990994803</v>
+        <v>0.4972169508735368</v>
       </c>
       <c r="E298">
         <v>0.299654745474683</v>
@@ -24752,7 +24752,7 @@
         <v>0.9019944649335747</v>
       </c>
       <c r="D299">
-        <v>0.4600776917400984</v>
+        <v>0.5117683681571152</v>
       </c>
       <c r="E299">
         <v>0.2938320815638573</v>
@@ -24778,7 +24778,7 @@
         <v>0.9043359363695784</v>
       </c>
       <c r="D300">
-        <v>0.526260853668341</v>
+        <v>0.5719483233835071</v>
       </c>
       <c r="E300">
         <v>0.2903008598596514</v>
@@ -24804,7 +24804,7 @@
         <v>0.9087294960133078</v>
       </c>
       <c r="D301">
-        <v>0.5645180065773654</v>
+        <v>0.6195106747064698</v>
       </c>
       <c r="E301">
         <v>0.2835561911312557</v>
@@ -24830,7 +24830,7 @@
         <v>0.9119522242488315</v>
       </c>
       <c r="D302">
-        <v>0.5596405810568243</v>
+        <v>0.620044418497816</v>
       </c>
       <c r="E302">
         <v>0.278505069218754</v>
@@ -24856,7 +24856,7 @@
         <v>0.9062935733555049</v>
       </c>
       <c r="D303">
-        <v>0.5267704517736929</v>
+        <v>0.6154513882609614</v>
       </c>
       <c r="E303">
         <v>0.2873151972911455</v>
@@ -24882,7 +24882,7 @@
         <v>0.9078060151008409</v>
       </c>
       <c r="D304">
-        <v>0.4916664271437855</v>
+        <v>0.5996786233950597</v>
       </c>
       <c r="E304">
         <v>0.2849871007500483</v>
@@ -24908,7 +24908,7 @@
         <v>0.9106801409156214</v>
       </c>
       <c r="D305">
-        <v>0.4781131232090108</v>
+        <v>0.5959189372704403</v>
       </c>
       <c r="E305">
         <v>0.280509726240151</v>
@@ -24934,7 +24934,7 @@
         <v>0.8479359798807719</v>
       </c>
       <c r="D306">
-        <v>0.1287632349626169</v>
+        <v>-0.01582637661475195</v>
       </c>
       <c r="E306">
         <v>0.3660051055658743</v>
@@ -24960,7 +24960,7 @@
         <v>0.8789846386471826</v>
       </c>
       <c r="D307">
-        <v>0.271382896703408</v>
+        <v>0.2531233372972739</v>
       </c>
       <c r="E307">
         <v>0.3265082511090142</v>
@@ -24986,7 +24986,7 @@
         <v>0.8613428355385357</v>
       </c>
       <c r="D308">
-        <v>0.173204804477294</v>
+        <v>0.2467635995698587</v>
       </c>
       <c r="E308">
         <v>0.3494982995270333</v>
@@ -25012,7 +25012,7 @@
         <v>0.8713282761139955</v>
       </c>
       <c r="D309">
-        <v>0.262366423480153</v>
+        <v>0.3231422778907533</v>
       </c>
       <c r="E309">
         <v>0.3366785665641451</v>
@@ -25038,7 +25038,7 @@
         <v>0.8811539498915991</v>
       </c>
       <c r="D310">
-        <v>0.2769829523409975</v>
+        <v>0.3875775972448614</v>
       </c>
       <c r="E310">
         <v>0.3235685374703149</v>
@@ -25064,7 +25064,7 @@
         <v>0.8858607012447692</v>
       </c>
       <c r="D311">
-        <v>0.3212062845731958</v>
+        <v>0.4583117875058559</v>
       </c>
       <c r="E311">
         <v>0.3170965447360787</v>
@@ -25090,7 +25090,7 @@
         <v>0.8884681857039353</v>
       </c>
       <c r="D312">
-        <v>0.384176614636648</v>
+        <v>0.5267760437802762</v>
       </c>
       <c r="E312">
         <v>0.3134536224808374</v>
@@ -25116,7 +25116,7 @@
         <v>0.8840391593958731</v>
       </c>
       <c r="D313">
-        <v>0.4437277591964668</v>
+        <v>0.5701246898253152</v>
       </c>
       <c r="E313">
         <v>0.3196167912722617</v>
@@ -25142,7 +25142,7 @@
         <v>0.8842483585479421</v>
       </c>
       <c r="D314">
-        <v>0.3708932011258091</v>
+        <v>0.5383669635093393</v>
       </c>
       <c r="E314">
         <v>0.3193283587940778</v>
@@ -25168,7 +25168,7 @@
         <v>0.8860971968320611</v>
       </c>
       <c r="D315">
-        <v>0.4122030764204169</v>
+        <v>0.5383783552030981</v>
       </c>
       <c r="E315">
         <v>0.3167678638157438</v>
@@ -25194,7 +25194,7 @@
         <v>0.8956653627358289</v>
       </c>
       <c r="D316">
-        <v>0.39427043457088</v>
+        <v>0.5325679351654988</v>
       </c>
       <c r="E316">
         <v>0.3031713551240315</v>
@@ -25220,7 +25220,7 @@
         <v>0.9008908033709023</v>
       </c>
       <c r="D317">
-        <v>0.4426298158879414</v>
+        <v>0.5504273796019158</v>
       </c>
       <c r="E317">
         <v>0.2954819031811541</v>
@@ -25246,7 +25246,7 @@
         <v>0.9044307064378628</v>
       </c>
       <c r="D318">
-        <v>0.4196766935258353</v>
+        <v>0.5607232144414378</v>
       </c>
       <c r="E318">
         <v>0.2901570302525492</v>
@@ -25272,7 +25272,7 @@
         <v>0.9036455202470298</v>
       </c>
       <c r="D319">
-        <v>0.4687570152293902</v>
+        <v>0.599629359767057</v>
       </c>
       <c r="E319">
         <v>0.2913465402233893</v>
@@ -25298,7 +25298,7 @@
         <v>0.9055664688017018</v>
       </c>
       <c r="D320">
-        <v>0.4638986234936864</v>
+        <v>0.6089779437108516</v>
       </c>
       <c r="E320">
         <v>0.2884277383970003</v>
@@ -25324,7 +25324,7 @@
         <v>0.9085607062299121</v>
       </c>
       <c r="D321">
-        <v>0.3833711046958903</v>
+        <v>0.5646465071803553</v>
       </c>
       <c r="E321">
         <v>0.2838182652871344</v>
@@ -25350,7 +25350,7 @@
         <v>0.9053052677524642</v>
       </c>
       <c r="D322">
-        <v>0.418179116181327</v>
+        <v>0.5830906729555281</v>
       </c>
       <c r="E322">
         <v>0.2888263553041264</v>
@@ -25376,7 +25376,7 @@
         <v>0.9087016802439327</v>
       </c>
       <c r="D323">
-        <v>0.3928718560379749</v>
+        <v>0.59383674105227</v>
       </c>
       <c r="E323">
         <v>0.283599396397058</v>
@@ -25402,7 +25402,7 @@
         <v>0.9104969262848996</v>
       </c>
       <c r="D324">
-        <v>0.3966751804164309</v>
+        <v>0.5932337887930318</v>
       </c>
       <c r="E324">
         <v>0.2807972723614697</v>
@@ -25428,7 +25428,7 @@
         <v>0.8479359798807719</v>
       </c>
       <c r="D325">
-        <v>0.1287632349626169</v>
+        <v>-0.01582637661475195</v>
       </c>
       <c r="E325">
         <v>0.3660051055658743</v>
@@ -25454,7 +25454,7 @@
         <v>0.8789846386471826</v>
       </c>
       <c r="D326">
-        <v>0.271382896703408</v>
+        <v>0.2531233372972739</v>
       </c>
       <c r="E326">
         <v>0.3265082511090142</v>
@@ -25480,7 +25480,7 @@
         <v>0.8613428355385357</v>
       </c>
       <c r="D327">
-        <v>0.173204804477294</v>
+        <v>0.2467635995698587</v>
       </c>
       <c r="E327">
         <v>0.3494982995270333</v>
@@ -25506,7 +25506,7 @@
         <v>0.8713282761139955</v>
       </c>
       <c r="D328">
-        <v>0.262366423480153</v>
+        <v>0.3231422778907533</v>
       </c>
       <c r="E328">
         <v>0.3366785665641451</v>
@@ -25532,7 +25532,7 @@
         <v>0.8811539498915991</v>
       </c>
       <c r="D329">
-        <v>0.2769829523409975</v>
+        <v>0.3875775972448614</v>
       </c>
       <c r="E329">
         <v>0.3235685374703149</v>
@@ -25558,7 +25558,7 @@
         <v>0.8858607012447692</v>
       </c>
       <c r="D330">
-        <v>0.3212062845731958</v>
+        <v>0.4583117875058559</v>
       </c>
       <c r="E330">
         <v>0.3170965447360787</v>
@@ -25584,7 +25584,7 @@
         <v>0.8884681857039353</v>
       </c>
       <c r="D331">
-        <v>0.384176614636648</v>
+        <v>0.5267760437802762</v>
       </c>
       <c r="E331">
         <v>0.3134536224808374</v>
@@ -25610,7 +25610,7 @@
         <v>0.8840391593958731</v>
       </c>
       <c r="D332">
-        <v>0.4437277591964668</v>
+        <v>0.5701246898253152</v>
       </c>
       <c r="E332">
         <v>0.3196167912722617</v>
@@ -25636,7 +25636,7 @@
         <v>0.8842483585479421</v>
       </c>
       <c r="D333">
-        <v>0.3708932011258091</v>
+        <v>0.5383669635093393</v>
       </c>
       <c r="E333">
         <v>0.3193283587940778</v>
@@ -25662,7 +25662,7 @@
         <v>0.8860971968320611</v>
       </c>
       <c r="D334">
-        <v>0.4122030764204169</v>
+        <v>0.5383783552030981</v>
       </c>
       <c r="E334">
         <v>0.3167678638157438</v>
@@ -25688,7 +25688,7 @@
         <v>0.8956653627358289</v>
       </c>
       <c r="D335">
-        <v>0.39427043457088</v>
+        <v>0.5325679351654988</v>
       </c>
       <c r="E335">
         <v>0.3031713551240315</v>
@@ -25714,7 +25714,7 @@
         <v>0.9008908033709023</v>
       </c>
       <c r="D336">
-        <v>0.4426298158879414</v>
+        <v>0.5504273796019158</v>
       </c>
       <c r="E336">
         <v>0.2954819031811541</v>
@@ -25740,7 +25740,7 @@
         <v>0.9044307064378628</v>
       </c>
       <c r="D337">
-        <v>0.4196766935258353</v>
+        <v>0.5607232144414378</v>
       </c>
       <c r="E337">
         <v>0.2901570302525492</v>
@@ -25766,7 +25766,7 @@
         <v>0.9036455202470298</v>
       </c>
       <c r="D338">
-        <v>0.4687570152293902</v>
+        <v>0.599629359767057</v>
       </c>
       <c r="E338">
         <v>0.2913465402233893</v>
@@ -25792,7 +25792,7 @@
         <v>0.9055664688017018</v>
       </c>
       <c r="D339">
-        <v>0.4638986234936864</v>
+        <v>0.6089779437108516</v>
       </c>
       <c r="E339">
         <v>0.2884277383970003</v>
@@ -25818,7 +25818,7 @@
         <v>0.9085607062299121</v>
       </c>
       <c r="D340">
-        <v>0.3833711046958903</v>
+        <v>0.5646465071803553</v>
       </c>
       <c r="E340">
         <v>0.2838182652871344</v>
@@ -25844,7 +25844,7 @@
         <v>0.9053052677524642</v>
       </c>
       <c r="D341">
-        <v>0.418179116181327</v>
+        <v>0.5830906729555281</v>
       </c>
       <c r="E341">
         <v>0.2888263553041264</v>
@@ -25870,7 +25870,7 @@
         <v>0.9087016802439327</v>
       </c>
       <c r="D342">
-        <v>0.3928718560379749</v>
+        <v>0.59383674105227</v>
       </c>
       <c r="E342">
         <v>0.283599396397058</v>
@@ -25896,7 +25896,7 @@
         <v>0.9104969262848996</v>
       </c>
       <c r="D343">
-        <v>0.3966751804164309</v>
+        <v>0.5932337887930318</v>
       </c>
       <c r="E343">
         <v>0.2807972723614697</v>
@@ -25922,7 +25922,7 @@
         <v>0.8359689030422526</v>
       </c>
       <c r="D344">
-        <v>0.1485991939322986</v>
+        <v>-0.1029634348120274</v>
       </c>
       <c r="E344">
         <v>0.3801342527652494</v>
@@ -25948,7 +25948,7 @@
         <v>0.8572346540466935</v>
       </c>
       <c r="D345">
-        <v>0.2224251206999719</v>
+        <v>0.1369542390661399</v>
       </c>
       <c r="E345">
         <v>0.3546380340394505</v>
@@ -25974,7 +25974,7 @@
         <v>0.8373984247029691</v>
       </c>
       <c r="D346">
-        <v>0.2077082545267513</v>
+        <v>0.1313512010951906</v>
       </c>
       <c r="E346">
         <v>0.3784742038695982</v>
@@ -26000,7 +26000,7 @@
         <v>0.842265911400237</v>
       </c>
       <c r="D347">
-        <v>0.2329605848020831</v>
+        <v>0.1795259825158918</v>
       </c>
       <c r="E347">
         <v>0.3727663404305219</v>
@@ -26026,7 +26026,7 @@
         <v>0.8553548630861595</v>
       </c>
       <c r="D348">
-        <v>0.3380890418031911</v>
+        <v>0.2899465482400219</v>
       </c>
       <c r="E348">
         <v>0.3569651578450921</v>
@@ -26052,7 +26052,7 @@
         <v>0.8564314061665995</v>
       </c>
       <c r="D349">
-        <v>0.3471687222176065</v>
+        <v>0.3740752038059234</v>
       </c>
       <c r="E349">
         <v>0.3556342936242683</v>
@@ -26078,7 +26078,7 @@
         <v>0.8623153782433008</v>
       </c>
       <c r="D350">
-        <v>0.3522812829689581</v>
+        <v>0.3437504386548116</v>
       </c>
       <c r="E350">
         <v>0.3482704504601302</v>
@@ -26104,7 +26104,7 @@
         <v>0.8603173146715672</v>
       </c>
       <c r="D351">
-        <v>0.4115010744259791</v>
+        <v>0.3987213891378284</v>
       </c>
       <c r="E351">
         <v>0.3507883789739093</v>
@@ -26130,7 +26130,7 @@
         <v>0.860881221404198</v>
       </c>
       <c r="D352">
-        <v>0.3151238727505949</v>
+        <v>0.2997886509192756</v>
       </c>
       <c r="E352">
         <v>0.3500795868405095</v>
@@ -26156,7 +26156,7 @@
         <v>0.8647916463479992</v>
       </c>
       <c r="D353">
-        <v>0.3320774339493318</v>
+        <v>0.3142801862726941</v>
       </c>
       <c r="E353">
         <v>0.3451244059150808</v>
@@ -26182,7 +26182,7 @@
         <v>0.8728732086867839</v>
       </c>
       <c r="D354">
-        <v>0.3121812529211258</v>
+        <v>0.3159270723901413</v>
       </c>
       <c r="E354">
         <v>0.334651250730456</v>
@@ -26208,7 +26208,7 @@
         <v>0.8731153712937222</v>
       </c>
       <c r="D355">
-        <v>0.3237925786737116</v>
+        <v>0.3008204979760877</v>
       </c>
       <c r="E355">
         <v>0.3343323618151249</v>
@@ -26234,7 +26234,7 @@
         <v>0.87607520289993</v>
       </c>
       <c r="D356">
-        <v>0.32924789598235</v>
+        <v>0.3585133005374807</v>
       </c>
       <c r="E356">
         <v>0.3304098744884167</v>
@@ -26260,7 +26260,7 @@
         <v>0.8785400184269282</v>
       </c>
       <c r="D357">
-        <v>0.3424106707745072</v>
+        <v>0.3941600652079055</v>
       </c>
       <c r="E357">
         <v>0.3271075100366643</v>
@@ -26286,7 +26286,7 @@
         <v>0.8774082835147441</v>
       </c>
       <c r="D358">
-        <v>0.3549925827800656</v>
+        <v>0.4005258599636169</v>
       </c>
       <c r="E358">
         <v>0.3286279310940082</v>
@@ -26312,7 +26312,7 @@
         <v>0.8807044502577942</v>
       </c>
       <c r="D359">
-        <v>0.3149672810993668</v>
+        <v>0.3793417154896345</v>
       </c>
       <c r="E359">
         <v>0.3241798605806858</v>
@@ -26338,7 +26338,7 @@
         <v>0.8774330353835861</v>
       </c>
       <c r="D360">
-        <v>0.3188580757496791</v>
+        <v>0.3978672960822179</v>
       </c>
       <c r="E360">
         <v>0.3285947536236848</v>
@@ -26364,7 +26364,7 @@
         <v>0.8822020562638373</v>
       </c>
       <c r="D361">
-        <v>0.3252917527079243</v>
+        <v>0.431510945668636</v>
       </c>
       <c r="E361">
         <v>0.32213859819428</v>
@@ -26390,7 +26390,7 @@
         <v>0.8828316920043504</v>
       </c>
       <c r="D362">
-        <v>0.2946853499641462</v>
+        <v>0.4228398799326515</v>
       </c>
       <c r="E362">
         <v>0.3212765214500898</v>
@@ -26416,7 +26416,7 @@
         <v>0.8359689030422526</v>
       </c>
       <c r="D363">
-        <v>0.1485991939322986</v>
+        <v>-0.1029634348120274</v>
       </c>
       <c r="E363">
         <v>0.3801342527652494</v>
@@ -26442,7 +26442,7 @@
         <v>0.8572346540466935</v>
       </c>
       <c r="D364">
-        <v>0.2224251206999719</v>
+        <v>0.1369542390661399</v>
       </c>
       <c r="E364">
         <v>0.3546380340394505</v>
@@ -26468,7 +26468,7 @@
         <v>0.8373984247029691</v>
       </c>
       <c r="D365">
-        <v>0.2077082545267513</v>
+        <v>0.1313512010951906</v>
       </c>
       <c r="E365">
         <v>0.3784742038695982</v>
@@ -26494,7 +26494,7 @@
         <v>0.842265911400237</v>
       </c>
       <c r="D366">
-        <v>0.2329605848020831</v>
+        <v>0.1795259825158918</v>
       </c>
       <c r="E366">
         <v>0.3727663404305219</v>
@@ -26520,7 +26520,7 @@
         <v>0.8553548630861595</v>
       </c>
       <c r="D367">
-        <v>0.3380890418031911</v>
+        <v>0.2899465482400219</v>
       </c>
       <c r="E367">
         <v>0.3569651578450921</v>
@@ -26546,7 +26546,7 @@
         <v>0.8564314061665995</v>
       </c>
       <c r="D368">
-        <v>0.3471687222176065</v>
+        <v>0.3740752038059234</v>
       </c>
       <c r="E368">
         <v>0.3556342936242683</v>
@@ -26572,7 +26572,7 @@
         <v>0.8623153782433008</v>
       </c>
       <c r="D369">
-        <v>0.3522812829689581</v>
+        <v>0.3437504386548116</v>
       </c>
       <c r="E369">
         <v>0.3482704504601302</v>
@@ -26598,7 +26598,7 @@
         <v>0.8603173146715672</v>
       </c>
       <c r="D370">
-        <v>0.4115010744259791</v>
+        <v>0.3987213891378284</v>
       </c>
       <c r="E370">
         <v>0.3507883789739093</v>
@@ -26624,7 +26624,7 @@
         <v>0.860881221404198</v>
       </c>
       <c r="D371">
-        <v>0.3151238727505949</v>
+        <v>0.2997886509192756</v>
       </c>
       <c r="E371">
         <v>0.3500795868405095</v>
@@ -26650,7 +26650,7 @@
         <v>0.8647916463479992</v>
       </c>
       <c r="D372">
-        <v>0.3320774339493318</v>
+        <v>0.3142801862726941</v>
       </c>
       <c r="E372">
         <v>0.3451244059150808</v>
@@ -26676,7 +26676,7 @@
         <v>0.8728732086867839</v>
       </c>
       <c r="D373">
-        <v>0.3121812529211258</v>
+        <v>0.3159270723901413</v>
       </c>
       <c r="E373">
         <v>0.334651250730456</v>
@@ -26702,7 +26702,7 @@
         <v>0.8731153712937222</v>
       </c>
       <c r="D374">
-        <v>0.3237925786737116</v>
+        <v>0.3008204979760877</v>
       </c>
       <c r="E374">
         <v>0.3343323618151249</v>
@@ -26728,7 +26728,7 @@
         <v>0.87607520289993</v>
       </c>
       <c r="D375">
-        <v>0.32924789598235</v>
+        <v>0.3585133005374807</v>
       </c>
       <c r="E375">
         <v>0.3304098744884167</v>
@@ -26754,7 +26754,7 @@
         <v>0.8785400184269282</v>
       </c>
       <c r="D376">
-        <v>0.3424106707745072</v>
+        <v>0.3941600652079055</v>
       </c>
       <c r="E376">
         <v>0.3271075100366643</v>
@@ -26780,7 +26780,7 @@
         <v>0.8774082835147441</v>
       </c>
       <c r="D377">
-        <v>0.3549925827800656</v>
+        <v>0.4005258599636169</v>
       </c>
       <c r="E377">
         <v>0.3286279310940082</v>
@@ -26806,7 +26806,7 @@
         <v>0.8807044502577942</v>
       </c>
       <c r="D378">
-        <v>0.3149672810993668</v>
+        <v>0.3793417154896345</v>
       </c>
       <c r="E378">
         <v>0.3241798605806858</v>
@@ -26832,7 +26832,7 @@
         <v>0.8774330353835861</v>
       </c>
       <c r="D379">
-        <v>0.3188580757496791</v>
+        <v>0.3978672960822179</v>
       </c>
       <c r="E379">
         <v>0.3285947536236848</v>
@@ -26858,7 +26858,7 @@
         <v>0.8822020562638373</v>
       </c>
       <c r="D380">
-        <v>0.3252917527079243</v>
+        <v>0.431510945668636</v>
       </c>
       <c r="E380">
         <v>0.32213859819428</v>
@@ -26884,7 +26884,7 @@
         <v>0.8828316920043504</v>
       </c>
       <c r="D381">
-        <v>0.2946853499641462</v>
+        <v>0.4228398799326515</v>
       </c>
       <c r="E381">
         <v>0.3212765214500898</v>
@@ -26910,7 +26910,7 @@
         <v>0.726451812793647</v>
       </c>
       <c r="D382">
-        <v>0.4957662945096025</v>
+        <v>0.2674029759990547</v>
       </c>
       <c r="E382">
         <v>0.49089751117977</v>
@@ -26936,7 +26936,7 @@
         <v>0.7306991192418233</v>
       </c>
       <c r="D383">
-        <v>0.3289590279147416</v>
+        <v>0.1996655304188488</v>
       </c>
       <c r="E383">
         <v>0.4870715876624873</v>
@@ -26962,7 +26962,7 @@
         <v>0.7298256029670911</v>
       </c>
       <c r="D384">
-        <v>0.3374152782467054</v>
+        <v>0.2377736295134107</v>
       </c>
       <c r="E384">
         <v>0.4878608916219763</v>
@@ -26988,7 +26988,7 @@
         <v>0.7557530390218056</v>
       </c>
       <c r="D385">
-        <v>0.3861779175856862</v>
+        <v>0.311228487323053</v>
       </c>
       <c r="E385">
         <v>0.4638616773609038</v>
@@ -27014,7 +27014,7 @@
         <v>0.7720158126874278</v>
       </c>
       <c r="D386">
-        <v>0.3996199711875431</v>
+        <v>0.3526165278129213</v>
       </c>
       <c r="E386">
         <v>0.4481529635714998</v>
@@ -27040,7 +27040,7 @@
         <v>0.7717140241792155</v>
       </c>
       <c r="D387">
-        <v>0.388410728541523</v>
+        <v>0.3768637725771792</v>
       </c>
       <c r="E387">
         <v>0.448449481255255</v>
@@ -27066,7 +27066,7 @@
         <v>0.7735038530790854</v>
       </c>
       <c r="D388">
-        <v>0.3790294976242579</v>
+        <v>0.3527015381664647</v>
       </c>
       <c r="E388">
         <v>0.4466880342695754</v>
@@ -27092,7 +27092,7 @@
         <v>0.7721940102463609</v>
       </c>
       <c r="D389">
-        <v>0.4090831493578611</v>
+        <v>0.3199812557329313</v>
       </c>
       <c r="E389">
         <v>0.4479777861255849</v>
@@ -27118,7 +27118,7 @@
         <v>0.7707971218218636</v>
       </c>
       <c r="D390">
-        <v>0.3994586632729621</v>
+        <v>0.3360195291793752</v>
       </c>
       <c r="E390">
         <v>0.4493491693226351</v>
@@ -27144,7 +27144,7 @@
         <v>0.777860829546696</v>
       </c>
       <c r="D391">
-        <v>0.3963774134165005</v>
+        <v>0.3341330704743635</v>
       </c>
       <c r="E391">
         <v>0.4423708308047955</v>
@@ -27170,7 +27170,7 @@
         <v>0.7804982315049388</v>
       </c>
       <c r="D392">
-        <v>0.4040276158713719</v>
+        <v>0.2996716579060551</v>
       </c>
       <c r="E392">
         <v>0.439736911229545</v>
@@ -27196,7 +27196,7 @@
         <v>0.7794443969984058</v>
       </c>
       <c r="D393">
-        <v>0.4253331755818901</v>
+        <v>0.3172940228147405</v>
       </c>
       <c r="E393">
         <v>0.4407912422584358</v>
@@ -27222,7 +27222,7 @@
         <v>0.7831582573458388</v>
       </c>
       <c r="D394">
-        <v>0.4150813935269251</v>
+        <v>0.3393418485754435</v>
       </c>
       <c r="E394">
         <v>0.4370643200913764</v>
@@ -27248,7 +27248,7 @@
         <v>0.7789823072234894</v>
       </c>
       <c r="D395">
-        <v>0.4455507401973895</v>
+        <v>0.3950775338632402</v>
       </c>
       <c r="E395">
         <v>0.4412527552481883</v>
@@ -27274,7 +27274,7 @@
         <v>0.7806912553684333</v>
       </c>
       <c r="D396">
-        <v>0.4522831225213432</v>
+        <v>0.4039274439283309</v>
       </c>
       <c r="E396">
         <v>0.4395435223868387</v>
@@ -27300,7 +27300,7 @@
         <v>0.781138820635491</v>
       </c>
       <c r="D397">
-        <v>0.4352212465255769</v>
+        <v>0.4030708692136414</v>
       </c>
       <c r="E397">
         <v>0.4390947831319355</v>
@@ -27326,7 +27326,7 @@
         <v>0.7763844047145243</v>
       </c>
       <c r="D398">
-        <v>0.434221632938549</v>
+        <v>0.4319947337223891</v>
       </c>
       <c r="E398">
         <v>0.4438384819944741</v>
@@ -27352,7 +27352,7 @@
         <v>0.7751541967473539</v>
       </c>
       <c r="D399">
-        <v>0.4251372251984206</v>
+        <v>0.4045264882918822</v>
       </c>
       <c r="E399">
         <v>0.4450576830282427</v>
@@ -27378,7 +27378,7 @@
         <v>0.7759505854211238</v>
       </c>
       <c r="D400">
-        <v>0.3883124503874349</v>
+        <v>0.3807016174693046</v>
       </c>
       <c r="E400">
         <v>0.4442688017159702</v>
@@ -27404,7 +27404,7 @@
         <v>0.726451812793647</v>
       </c>
       <c r="D401">
-        <v>0.4957662945096025</v>
+        <v>0.2674029759990547</v>
       </c>
       <c r="E401">
         <v>0.49089751117977</v>
@@ -27430,7 +27430,7 @@
         <v>0.7306991192418233</v>
       </c>
       <c r="D402">
-        <v>0.3289590279147416</v>
+        <v>0.1996655304188488</v>
       </c>
       <c r="E402">
         <v>0.4870715876624873</v>
@@ -27456,7 +27456,7 @@
         <v>0.7298256029670911</v>
       </c>
       <c r="D403">
-        <v>0.3374152782467054</v>
+        <v>0.2377736295134107</v>
       </c>
       <c r="E403">
         <v>0.4878608916219763</v>
@@ -27482,7 +27482,7 @@
         <v>0.7557530390218056</v>
       </c>
       <c r="D404">
-        <v>0.3861779175856862</v>
+        <v>0.311228487323053</v>
       </c>
       <c r="E404">
         <v>0.4638616773609038</v>
@@ -27508,7 +27508,7 @@
         <v>0.7720158126874278</v>
       </c>
       <c r="D405">
-        <v>0.3996199711875431</v>
+        <v>0.3526165278129213</v>
       </c>
       <c r="E405">
         <v>0.4481529635714998</v>
@@ -27534,7 +27534,7 @@
         <v>0.7717140241792155</v>
       </c>
       <c r="D406">
-        <v>0.388410728541523</v>
+        <v>0.3768637725771792</v>
       </c>
       <c r="E406">
         <v>0.448449481255255</v>
@@ -27560,7 +27560,7 @@
         <v>0.7735038530790854</v>
       </c>
       <c r="D407">
-        <v>0.3790294976242579</v>
+        <v>0.3527015381664647</v>
       </c>
       <c r="E407">
         <v>0.4466880342695754</v>
@@ -27586,7 +27586,7 @@
         <v>0.7721940102463609</v>
       </c>
       <c r="D408">
-        <v>0.4090831493578611</v>
+        <v>0.3199812557329313</v>
       </c>
       <c r="E408">
         <v>0.4479777861255849</v>
@@ -27612,7 +27612,7 @@
         <v>0.7707971218218636</v>
       </c>
       <c r="D409">
-        <v>0.3994586632729621</v>
+        <v>0.3360195291793752</v>
       </c>
       <c r="E409">
         <v>0.4493491693226351</v>
@@ -27638,7 +27638,7 @@
         <v>0.777860829546696</v>
       </c>
       <c r="D410">
-        <v>0.3963774134165005</v>
+        <v>0.3341330704743635</v>
       </c>
       <c r="E410">
         <v>0.4423708308047955</v>
@@ -27664,7 +27664,7 @@
         <v>0.7804982315049388</v>
       </c>
       <c r="D411">
-        <v>0.4040276158713719</v>
+        <v>0.2996716579060551</v>
       </c>
       <c r="E411">
         <v>0.439736911229545</v>
@@ -27690,7 +27690,7 @@
         <v>0.7794443969984058</v>
       </c>
       <c r="D412">
-        <v>0.4253331755818901</v>
+        <v>0.3172940228147405</v>
       </c>
       <c r="E412">
         <v>0.4407912422584358</v>
@@ -27716,7 +27716,7 @@
         <v>0.7831582573458388</v>
       </c>
       <c r="D413">
-        <v>0.4150813935269251</v>
+        <v>0.3393418485754435</v>
       </c>
       <c r="E413">
         <v>0.4370643200913764</v>
@@ -27742,7 +27742,7 @@
         <v>0.7789823072234894</v>
       </c>
       <c r="D414">
-        <v>0.4455507401973895</v>
+        <v>0.3950775338632402</v>
       </c>
       <c r="E414">
         <v>0.4412527552481883</v>
@@ -27768,7 +27768,7 @@
         <v>0.7806912553684333</v>
       </c>
       <c r="D415">
-        <v>0.4522831225213432</v>
+        <v>0.4039274439283309</v>
       </c>
       <c r="E415">
         <v>0.4395435223868387</v>
@@ -27794,7 +27794,7 @@
         <v>0.781138820635491</v>
       </c>
       <c r="D416">
-        <v>0.4352212465255769</v>
+        <v>0.4030708692136414</v>
       </c>
       <c r="E416">
         <v>0.4390947831319355</v>
@@ -27820,7 +27820,7 @@
         <v>0.7763844047145243</v>
       </c>
       <c r="D417">
-        <v>0.434221632938549</v>
+        <v>0.4319947337223891</v>
       </c>
       <c r="E417">
         <v>0.4438384819944741</v>
@@ -27846,7 +27846,7 @@
         <v>0.7751541967473539</v>
       </c>
       <c r="D418">
-        <v>0.4251372251984206</v>
+        <v>0.4045264882918822</v>
       </c>
       <c r="E418">
         <v>0.4450576830282427</v>
@@ -27872,7 +27872,7 @@
         <v>0.7759505854211238</v>
       </c>
       <c r="D419">
-        <v>0.3883124503874349</v>
+        <v>0.3807016174693046</v>
       </c>
       <c r="E419">
         <v>0.4442688017159702</v>
@@ -27931,7 +27931,7 @@
         <v>0.5763895222514555</v>
       </c>
       <c r="D2">
-        <v>-0.1272609792133486</v>
+        <v>0.1794662342907926</v>
       </c>
       <c r="E2">
         <v>0.6108818986363491</v>
@@ -27954,7 +27954,7 @@
         <v>0.5763895222514555</v>
       </c>
       <c r="D3">
-        <v>-0.1272609792133486</v>
+        <v>0.1794662342907926</v>
       </c>
       <c r="E3">
         <v>0.6108818986363491</v>
@@ -27977,7 +27977,7 @@
         <v>0.6299449538840032</v>
       </c>
       <c r="D4">
-        <v>0.2126231738472025</v>
+        <v>0.1299270042736065</v>
       </c>
       <c r="E4">
         <v>0.570961829142089</v>
@@ -28000,7 +28000,7 @@
         <v>0.6299449538840032</v>
       </c>
       <c r="D5">
-        <v>0.2126231738472025</v>
+        <v>0.1299270042736065</v>
       </c>
       <c r="E5">
         <v>0.570961829142089</v>
@@ -28023,7 +28023,7 @@
         <v>0.6239042851786433</v>
       </c>
       <c r="D6">
-        <v>0.2238347802314806</v>
+        <v>0.1247253279075266</v>
       </c>
       <c r="E6">
         <v>0.5756030709409683</v>
@@ -28046,7 +28046,7 @@
         <v>0.6148625836420266</v>
       </c>
       <c r="D7">
-        <v>0.06076623455863772</v>
+        <v>0.1850152104868164</v>
       </c>
       <c r="E7">
         <v>0.582481003248318</v>
@@ -28069,7 +28069,7 @@
         <v>0.5946158377842314</v>
       </c>
       <c r="D8">
-        <v>0.08509268474565057</v>
+        <v>0.07230695527269837</v>
       </c>
       <c r="E8">
         <v>0.5975954723813479</v>
@@ -28092,7 +28092,7 @@
         <v>0.6009340921961248</v>
       </c>
       <c r="D9">
-        <v>0.04664465537862339</v>
+        <v>-0.2559774959731156</v>
       </c>
       <c r="E9">
         <v>0.5929201687245396</v>
@@ -28115,7 +28115,7 @@
         <v>0.6009340921961248</v>
       </c>
       <c r="D10">
-        <v>0.04664465537862339</v>
+        <v>-0.2559774959731156</v>
       </c>
       <c r="E10">
         <v>0.5929201687245396</v>
@@ -28138,7 +28138,7 @@
         <v>0.6146894918105087</v>
       </c>
       <c r="D11">
-        <v>0.1718980778996524</v>
+        <v>-0.03687247294669138</v>
       </c>
       <c r="E11">
         <v>0.5826118804025285</v>
@@ -28161,7 +28161,7 @@
         <v>0.6169751135516819</v>
       </c>
       <c r="D12">
-        <v>0.1789136995380519</v>
+        <v>-0.03488211558531451</v>
       </c>
       <c r="E12">
         <v>0.580881313750211</v>
@@ -28184,7 +28184,7 @@
         <v>0.6169751135516819</v>
       </c>
       <c r="D13">
-        <v>0.1789136995380519</v>
+        <v>-0.03488211558531451</v>
       </c>
       <c r="E13">
         <v>0.580881313750211</v>
@@ -28207,7 +28207,7 @@
         <v>0.6083331068500462</v>
       </c>
       <c r="D14">
-        <v>0.1677824007255759</v>
+        <v>0.005907178268715785</v>
       </c>
       <c r="E14">
         <v>0.5873978346548248</v>
@@ -28230,7 +28230,7 @@
         <v>0.6287038242670221</v>
       </c>
       <c r="D15">
-        <v>0.2093327547527175</v>
+        <v>-0.1732991278264242</v>
       </c>
       <c r="E15">
         <v>0.5719185036452041</v>
@@ -28253,7 +28253,7 @@
         <v>0.613090414721025</v>
       </c>
       <c r="D16">
-        <v>0.1977047813573424</v>
+        <v>-0.1026671405327217</v>
       </c>
       <c r="E16">
         <v>0.5838195774282654</v>
@@ -28276,7 +28276,7 @@
         <v>0.6129976218099211</v>
       </c>
       <c r="D17">
-        <v>0.102574542532284</v>
+        <v>-0.285140169249243</v>
       </c>
       <c r="E17">
         <v>0.583889582246483</v>
@@ -28299,7 +28299,7 @@
         <v>0.6066454945879838</v>
       </c>
       <c r="D18">
-        <v>0.1458398143016182</v>
+        <v>-0.3334799528711829</v>
       </c>
       <c r="E18">
         <v>0.5886619627612601</v>
@@ -28322,7 +28322,7 @@
         <v>0.6066454945879838</v>
       </c>
       <c r="D19">
-        <v>0.1458398143016182</v>
+        <v>-0.3334799528711829</v>
       </c>
       <c r="E19">
         <v>0.5886619627612601</v>
@@ -28345,7 +28345,7 @@
         <v>0.5727219177316807</v>
       </c>
       <c r="D20">
-        <v>0.09380474455188303</v>
+        <v>-0.2643378762912156</v>
       </c>
       <c r="E20">
         <v>0.6135206962179706</v>
@@ -28368,7 +28368,7 @@
         <v>0.5727219177316807</v>
       </c>
       <c r="D21">
-        <v>0.09380474455188303</v>
+        <v>-0.2643378762912156</v>
       </c>
       <c r="E21">
         <v>0.6135206962179706</v>
@@ -28391,7 +28391,7 @@
         <v>0.5443442693409336</v>
       </c>
       <c r="D22">
-        <v>0.04652138480890144</v>
+        <v>-0.247045004224195</v>
       </c>
       <c r="E22">
         <v>0.6335666784134075</v>
@@ -28414,7 +28414,7 @@
         <v>0.5443442693409336</v>
       </c>
       <c r="D23">
-        <v>0.04652138480890144</v>
+        <v>-0.247045004224195</v>
       </c>
       <c r="E23">
         <v>0.6335666784134075</v>
@@ -28470,7 +28470,7 @@
         <v>0.7328585569688173</v>
       </c>
       <c r="D2">
-        <v>-0.1528516409775502</v>
+        <v>-0.2950182297038588</v>
       </c>
       <c r="E2">
         <v>0.4851148213698853</v>
@@ -28493,7 +28493,7 @@
         <v>0.7211251304704507</v>
       </c>
       <c r="D3">
-        <v>-0.1047846110355248</v>
+        <v>-0.1878940441017507</v>
       </c>
       <c r="E3">
         <v>0.4956539822308341</v>
@@ -28516,7 +28516,7 @@
         <v>0.6960239613961727</v>
       </c>
       <c r="D4">
-        <v>0.1435882739951485</v>
+        <v>-0.1909454804190012</v>
       </c>
       <c r="E4">
         <v>0.5174800187653001</v>
@@ -28539,7 +28539,7 @@
         <v>0.6931969326393147</v>
       </c>
       <c r="D5">
-        <v>0.1710720722281817</v>
+        <v>-0.1132059836395198</v>
       </c>
       <c r="E5">
         <v>0.5198807758279134</v>
@@ -28562,7 +28562,7 @@
         <v>0.6603632312251528</v>
       </c>
       <c r="D6">
-        <v>0.2176981098411895</v>
+        <v>0.2260542526353649</v>
       </c>
       <c r="E6">
         <v>0.5469923593584658</v>
@@ -28585,7 +28585,7 @@
         <v>0.6599890441841185</v>
       </c>
       <c r="D7">
-        <v>0.2140355984160927</v>
+        <v>0.2545485700380931</v>
       </c>
       <c r="E7">
         <v>0.5472935945714742</v>
@@ -28608,7 +28608,7 @@
         <v>0.6469282071998123</v>
       </c>
       <c r="D8">
-        <v>0.30085628695445</v>
+        <v>0.3222212227816156</v>
       </c>
       <c r="E8">
         <v>0.5577061339553073</v>
@@ -28631,7 +28631,7 @@
         <v>0.5954905257403461</v>
       </c>
       <c r="D9">
-        <v>0.07574965831740343</v>
+        <v>0.1561387501788706</v>
       </c>
       <c r="E9">
         <v>0.5969504153277857</v>
@@ -28654,7 +28654,7 @@
         <v>0.5956284521994641</v>
       </c>
       <c r="D10">
-        <v>0.0741364961318054</v>
+        <v>0.1552514746250441</v>
       </c>
       <c r="E10">
         <v>0.5968486349221354</v>
@@ -28677,7 +28677,7 @@
         <v>0.5692920926395187</v>
       </c>
       <c r="D11">
-        <v>0.2885912149353163</v>
+        <v>0.3392277614344382</v>
       </c>
       <c r="E11">
         <v>0.6159781856256554</v>
@@ -28700,7 +28700,7 @@
         <v>0.5636455190010541</v>
       </c>
       <c r="D12">
-        <v>0.2468350903614625</v>
+        <v>0.3552578663815382</v>
       </c>
       <c r="E12">
         <v>0.6200027699996148</v>
@@ -28723,7 +28723,7 @@
         <v>0.5636455190010541</v>
       </c>
       <c r="D13">
-        <v>0.2468350903614625</v>
+        <v>0.3552578663815382</v>
       </c>
       <c r="E13">
         <v>0.6200027699996148</v>
@@ -28746,7 +28746,7 @@
         <v>0.5481209269577392</v>
       </c>
       <c r="D14">
-        <v>0.0259260832892706</v>
+        <v>0.2699385589776021</v>
       </c>
       <c r="E14">
         <v>0.6309355876987727</v>
@@ -28769,7 +28769,7 @@
         <v>0.5316144125618709</v>
       </c>
       <c r="D15">
-        <v>-0.05596744906805395</v>
+        <v>0.1483726032335223</v>
       </c>
       <c r="E15">
         <v>0.6423558316745028</v>
@@ -28792,7 +28792,7 @@
         <v>0.4879048308622621</v>
       </c>
       <c r="D16">
-        <v>-0.02802814551726351</v>
+        <v>0.313219413828476</v>
       </c>
       <c r="E16">
         <v>0.6716596351160807</v>
@@ -28815,7 +28815,7 @@
         <v>0.4886404915682355</v>
       </c>
       <c r="D17">
-        <v>-0.02202274430024964</v>
+        <v>0.3145262918431261</v>
       </c>
       <c r="E17">
         <v>0.6711770185870232</v>
@@ -28838,7 +28838,7 @@
         <v>0.4875925034610143</v>
       </c>
       <c r="D18">
-        <v>-0.0150321316103299</v>
+        <v>0.3110687450006334</v>
       </c>
       <c r="E18">
         <v>0.6718644268665568</v>
@@ -28861,7 +28861,7 @@
         <v>0.4875925034610143</v>
       </c>
       <c r="D19">
-        <v>-0.0150321316103299</v>
+        <v>0.3110687450006334</v>
       </c>
       <c r="E19">
         <v>0.6718644268665568</v>
@@ -28884,7 +28884,7 @@
         <v>0.4529580095023269</v>
       </c>
       <c r="D20">
-        <v>-0.1539494806696464</v>
+        <v>0.3808623279647334</v>
       </c>
       <c r="E20">
         <v>0.6941994121537204</v>
@@ -28907,7 +28907,7 @@
         <v>0.4529580095023269</v>
       </c>
       <c r="D21">
-        <v>-0.1539494806696464</v>
+        <v>0.3808623279647334</v>
       </c>
       <c r="E21">
         <v>0.6941994121537204</v>
@@ -28930,7 +28930,7 @@
         <v>0.4517147030580208</v>
       </c>
       <c r="D22">
-        <v>-0.1540011105486923</v>
+        <v>0.3841499644177194</v>
       </c>
       <c r="E22">
         <v>0.6949878459152365</v>
@@ -28953,7 +28953,7 @@
         <v>0.4517147030580208</v>
       </c>
       <c r="D23">
-        <v>-0.1540011105486923</v>
+        <v>0.3841499644177194</v>
       </c>
       <c r="E23">
         <v>0.6949878459152365</v>
